--- a/Decoder-Only/GPT/data/Test.xlsx
+++ b/Decoder-Only/GPT/data/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marietano/Downloads/Dissertation stuff/Dissertation (git)/Decoder-Only/GPT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B8BE1C-8349-1541-9023-8E0B4188EE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D075EF7-4858-C54D-B155-52B914E1CE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="14280" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="600" windowWidth="24480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gold" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="744">
   <si>
     <t>sentence</t>
   </si>
@@ -2018,9 +2018,6 @@
     <t>Um, it's more upbeat.</t>
   </si>
   <si>
-    <t>You can dance to it.</t>
-  </si>
-  <si>
     <t>Like they take slow songs, and make it a fast song, which I think is good.</t>
   </si>
   <si>
@@ -2256,9 +2253,6 @@
   </si>
   <si>
     <t>RD-NAME-2 was- yeah he was a branch director there I think.</t>
-  </si>
-  <si>
-    <t>Or started teen, uh, sports.</t>
   </si>
   <si>
     <t>Yeah cause I knew him before I started here.</t>
@@ -2583,13 +2577,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC718"/>
+  <dimension ref="A1:AC716"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W357" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N703" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC1" sqref="AC1:AC1048576"/>
+      <selection pane="bottomRight" activeCell="O715" sqref="O715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2654,10 +2648,10 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>18</v>
@@ -2684,7 +2678,7 @@
         <v>25</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="28" x14ac:dyDescent="0.15">
@@ -4943,7 +4937,7 @@
       </c>
       <c r="B27" s="1" t="str" cm="1">
         <f t="array" ref="B27">_xlfn.TEXTJOIN(", ", TRUE, IF(C27:AC27=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>bin</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -5009,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -6107,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="56" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -6653,7 +6647,7 @@
       </c>
       <c r="B46" s="1" t="str" cm="1">
         <f t="array" ref="B46">_xlfn.TEXTJOIN(", ", TRUE, IF(C46:AC46=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>is-was-gen</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -6695,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="1">
         <v>0</v>
@@ -8811,9 +8805,9 @@
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="1" t="str" cm="1">
+      <c r="B70" s="1" t="e" cm="1">
         <f t="array" ref="B70">_xlfn.TEXTJOIN(", ", TRUE, IF(C70:AC70=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
@@ -8894,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="14" x14ac:dyDescent="0.15">
@@ -10073,7 +10067,7 @@
       </c>
       <c r="B84" s="1" t="str" cm="1">
         <f t="array" ref="B84">_xlfn.TEXTJOIN(", ", TRUE, IF(C84:AC84=1, C$1:AB$1, ""))</f>
-        <v>past-tense-swap</v>
+        <v/>
       </c>
       <c r="C84" s="1">
         <v>0</v>
@@ -10145,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="Z84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA84" s="1">
         <v>0</v>
@@ -11507,7 +11501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:29" ht="126" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:29" ht="112" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>124</v>
       </c>
@@ -15377,7 +15371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>167</v>
       </c>
@@ -16187,7 +16181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:29" ht="84" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:29" ht="70" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>176</v>
       </c>
@@ -16553,13 +16547,13 @@
       </c>
       <c r="B156" s="1" t="str" cm="1">
         <f t="array" ref="B156">_xlfn.TEXTJOIN(", ", TRUE, IF(C156:AC156=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>zero-copula</v>
       </c>
       <c r="C156" s="1">
         <v>0</v>
       </c>
       <c r="D156" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" s="1">
         <v>0</v>
@@ -20327,7 +20321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>222</v>
       </c>
@@ -23121,9 +23115,9 @@
       <c r="A229" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B229" s="1" t="str" cm="1">
+      <c r="B229" s="1" t="e" cm="1">
         <f t="array" ref="B229">_xlfn.TEXTJOIN(", ", TRUE, IF(C229:AC229=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="C229" s="1">
         <v>0</v>
@@ -23204,7 +23198,7 @@
         <v>0</v>
       </c>
       <c r="AC229" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:29" ht="56" x14ac:dyDescent="0.15">
@@ -23481,9 +23475,9 @@
       <c r="A233" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B233" s="1" t="str" cm="1">
+      <c r="B233" s="1" t="e" cm="1">
         <f t="array" ref="B233">_xlfn.TEXTJOIN(", ", TRUE, IF(C233:AC233=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="C233" s="1">
         <v>0</v>
@@ -23564,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="AC233" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:29" ht="28" x14ac:dyDescent="0.15">
@@ -24833,7 +24827,7 @@
       </c>
       <c r="B248" s="1" t="str" cm="1">
         <f t="array" ref="B248">_xlfn.TEXTJOIN(", ", TRUE, IF(C248:AC248=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>is-was-gen</v>
       </c>
       <c r="C248" s="1">
         <v>0</v>
@@ -24875,7 +24869,7 @@
         <v>0</v>
       </c>
       <c r="P248" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q248" s="1">
         <v>0</v>
@@ -25011,9 +25005,9 @@
       <c r="A250" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B250" s="1" t="str" cm="1">
+      <c r="B250" s="1" t="e" cm="1">
         <f t="array" ref="B250">_xlfn.TEXTJOIN(", ", TRUE, IF(C250:AC250=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="C250" s="1">
         <v>0</v>
@@ -25094,7 +25088,7 @@
         <v>0</v>
       </c>
       <c r="AC250" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:29" ht="14" x14ac:dyDescent="0.15">
@@ -28343,7 +28337,7 @@
       </c>
       <c r="B287" s="1" t="str" cm="1">
         <f t="array" ref="B287">_xlfn.TEXTJOIN(", ", TRUE, IF(C287:AC287=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>be-construction</v>
       </c>
       <c r="C287" s="1">
         <v>0</v>
@@ -28355,7 +28349,7 @@
         <v>0</v>
       </c>
       <c r="F287" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G287" s="1">
         <v>0</v>
@@ -36083,7 +36077,7 @@
       </c>
       <c r="B373" s="1" t="str" cm="1">
         <f t="array" ref="B373">_xlfn.TEXTJOIN(", ", TRUE, IF(C373:AC373=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>be-construction</v>
       </c>
       <c r="C373" s="1">
         <v>0</v>
@@ -36095,7 +36089,7 @@
         <v>0</v>
       </c>
       <c r="F373" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G373" s="1">
         <v>0</v>
@@ -36257,7 +36251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:29" ht="56" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A375" s="2" t="s">
         <v>399</v>
       </c>
@@ -47867,7 +47861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:29" ht="70" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:29" ht="56" x14ac:dyDescent="0.15">
       <c r="A504" s="2" t="s">
         <v>528</v>
       </c>
@@ -55613,13 +55607,13 @@
       </c>
       <c r="B590" s="1" t="str" cm="1">
         <f t="array" ref="B590">_xlfn.TEXTJOIN(", ", TRUE, IF(C590:AC590=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>zero-copula</v>
       </c>
       <c r="C590" s="1">
         <v>0</v>
       </c>
       <c r="D590" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E590" s="1">
         <v>0</v>
@@ -56423,7 +56417,7 @@
       </c>
       <c r="B599" s="1" t="str" cm="1">
         <f t="array" ref="B599">_xlfn.TEXTJOIN(", ", TRUE, IF(C599:AC599=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>existential-it</v>
       </c>
       <c r="C599" s="1">
         <v>0</v>
@@ -56480,7 +56474,7 @@
         <v>0</v>
       </c>
       <c r="U599" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V599" s="1">
         <v>0</v>
@@ -56693,13 +56687,13 @@
       </c>
       <c r="B602" s="1" t="str" cm="1">
         <f t="array" ref="B602">_xlfn.TEXTJOIN(", ", TRUE, IF(C602:AC602=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>zero-copula</v>
       </c>
       <c r="C602" s="1">
         <v>0</v>
       </c>
       <c r="D602" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E602" s="1">
         <v>0</v>
@@ -56783,13 +56777,13 @@
       </c>
       <c r="B603" s="1" t="str" cm="1">
         <f t="array" ref="B603">_xlfn.TEXTJOIN(", ", TRUE, IF(C603:AC603=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>zero-copula</v>
       </c>
       <c r="C603" s="1">
         <v>0</v>
       </c>
       <c r="D603" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E603" s="1">
         <v>0</v>
@@ -57413,7 +57407,7 @@
       </c>
       <c r="B610" s="1" t="str" cm="1">
         <f t="array" ref="B610">_xlfn.TEXTJOIN(", ", TRUE, IF(C610:AC610=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>existential-it</v>
       </c>
       <c r="C610" s="1">
         <v>0</v>
@@ -57470,7 +57464,7 @@
         <v>0</v>
       </c>
       <c r="U610" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V610" s="1">
         <v>0</v>
@@ -57593,7 +57587,7 @@
       </c>
       <c r="B612" s="1" t="str" cm="1">
         <f t="array" ref="B612">_xlfn.TEXTJOIN(", ", TRUE, IF(C612:AC612=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>existential-it</v>
       </c>
       <c r="C612" s="1">
         <v>0</v>
@@ -57650,7 +57644,7 @@
         <v>0</v>
       </c>
       <c r="U612" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V612" s="1">
         <v>0</v>
@@ -58223,7 +58217,7 @@
       </c>
       <c r="B619" s="1" t="str" cm="1">
         <f t="array" ref="B619">_xlfn.TEXTJOIN(", ", TRUE, IF(C619:AC619=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>aint</v>
       </c>
       <c r="C619" s="1">
         <v>0</v>
@@ -58259,7 +58253,7 @@
         <v>0</v>
       </c>
       <c r="N619" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O619" s="1">
         <v>0</v>
@@ -59117,7 +59111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:29" ht="14" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A629" s="2" t="s">
         <v>652</v>
       </c>
@@ -59207,7 +59201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:29" ht="56" x14ac:dyDescent="0.15">
       <c r="A630" s="2" t="s">
         <v>653</v>
       </c>
@@ -59297,7 +59291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:29" ht="56" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A631" s="2" t="s">
         <v>654</v>
       </c>
@@ -59387,7 +59381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:29" ht="14" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A632" s="2" t="s">
         <v>655</v>
       </c>
@@ -59477,19 +59471,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:29" ht="70" x14ac:dyDescent="0.15">
       <c r="A633" s="2" t="s">
         <v>656</v>
       </c>
       <c r="B633" s="1" t="str" cm="1">
         <f t="array" ref="B633">_xlfn.TEXTJOIN(", ", TRUE, IF(C633:AC633=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>zero-copula</v>
       </c>
       <c r="C633" s="1">
         <v>0</v>
       </c>
       <c r="D633" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E633" s="1">
         <v>0</v>
@@ -59567,7 +59561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:29" ht="70" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A634" s="2" t="s">
         <v>657</v>
       </c>
@@ -59657,7 +59651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A635" s="2" t="s">
         <v>658</v>
       </c>
@@ -59747,7 +59741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A636" s="2" t="s">
         <v>659</v>
       </c>
@@ -59927,19 +59921,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A638" s="2" t="s">
         <v>661</v>
       </c>
       <c r="B638" s="1" t="str" cm="1">
         <f t="array" ref="B638">_xlfn.TEXTJOIN(", ", TRUE, IF(C638:AC638=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>zero-copula</v>
       </c>
       <c r="C638" s="1">
         <v>0</v>
       </c>
       <c r="D638" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E638" s="1">
         <v>0</v>
@@ -60017,7 +60011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:29" ht="56" x14ac:dyDescent="0.15">
       <c r="A639" s="2" t="s">
         <v>662</v>
       </c>
@@ -60107,7 +60101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:29" ht="56" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A640" s="2" t="s">
         <v>663</v>
       </c>
@@ -60197,7 +60191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:29" ht="14" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A641" s="2" t="s">
         <v>664</v>
       </c>
@@ -60377,7 +60371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A643" s="2" t="s">
         <v>666</v>
       </c>
@@ -60467,7 +60461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:29" ht="14" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A644" s="2" t="s">
         <v>667</v>
       </c>
@@ -60557,13 +60551,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A645" s="2" t="s">
         <v>668</v>
       </c>
       <c r="B645" s="1" t="str" cm="1">
         <f t="array" ref="B645">_xlfn.TEXTJOIN(", ", TRUE, IF(C645:AC645=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>existential-it</v>
       </c>
       <c r="C645" s="1">
         <v>0</v>
@@ -60620,7 +60614,7 @@
         <v>0</v>
       </c>
       <c r="U645" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V645" s="1">
         <v>0</v>
@@ -60647,7 +60641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A646" s="2" t="s">
         <v>669</v>
       </c>
@@ -60737,7 +60731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:29" ht="56" x14ac:dyDescent="0.15">
       <c r="A647" s="2" t="s">
         <v>670</v>
       </c>
@@ -60827,7 +60821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:29" ht="56" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:29" ht="70" x14ac:dyDescent="0.15">
       <c r="A648" s="2" t="s">
         <v>671</v>
       </c>
@@ -60917,7 +60911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:29" ht="70" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A649" s="2" t="s">
         <v>672</v>
       </c>
@@ -61097,7 +61091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:29" ht="14" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A651" s="2" t="s">
         <v>674</v>
       </c>
@@ -61187,13 +61181,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:29" ht="70" x14ac:dyDescent="0.15">
       <c r="A652" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B652" s="1" t="str" cm="1">
+      <c r="B652" s="1" t="e" cm="1">
         <f t="array" ref="B652">_xlfn.TEXTJOIN(", ", TRUE, IF(C652:AC652=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="C652" s="1">
         <v>0</v>
@@ -61274,10 +61268,10 @@
         <v>0</v>
       </c>
       <c r="AC652" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="653" spans="1:29" ht="70" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A653" s="2" t="s">
         <v>676</v>
       </c>
@@ -61367,13 +61361,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:29" ht="14" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A654" s="2" t="s">
         <v>677</v>
       </c>
       <c r="B654" s="1" t="str" cm="1">
         <f t="array" ref="B654">_xlfn.TEXTJOIN(", ", TRUE, IF(C654:AC654=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>bin</v>
       </c>
       <c r="C654" s="1">
         <v>0</v>
@@ -61439,7 +61433,7 @@
         <v>0</v>
       </c>
       <c r="X654" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y654" s="1">
         <v>0</v>
@@ -61457,7 +61451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A655" s="2" t="s">
         <v>678</v>
       </c>
@@ -61547,7 +61541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:29" ht="14" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A656" s="2" t="s">
         <v>679</v>
       </c>
@@ -61727,7 +61721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A658" s="2" t="s">
         <v>681</v>
       </c>
@@ -61817,7 +61811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A659" s="2" t="s">
         <v>682</v>
       </c>
@@ -61907,7 +61901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:29" ht="14" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A660" s="2" t="s">
         <v>683</v>
       </c>
@@ -61997,7 +61991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A661" s="2" t="s">
         <v>684</v>
       </c>
@@ -62087,7 +62081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:29" ht="14" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A662" s="2" t="s">
         <v>685</v>
       </c>
@@ -62357,7 +62351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A665" s="2" t="s">
         <v>688</v>
       </c>
@@ -62447,7 +62441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A666" s="2" t="s">
         <v>689</v>
       </c>
@@ -62537,7 +62531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A667" s="2" t="s">
         <v>690</v>
       </c>
@@ -62627,7 +62621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:29" ht="14" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:29" ht="56" x14ac:dyDescent="0.15">
       <c r="A668" s="2" t="s">
         <v>691</v>
       </c>
@@ -62717,7 +62711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:29" ht="56" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A669" s="2" t="s">
         <v>692</v>
       </c>
@@ -62807,7 +62801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A670" s="2" t="s">
         <v>693</v>
       </c>
@@ -62897,7 +62891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:29" ht="14" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A671" s="2" t="s">
         <v>694</v>
       </c>
@@ -63077,7 +63071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:29" ht="84" x14ac:dyDescent="0.15">
       <c r="A673" s="2" t="s">
         <v>696</v>
       </c>
@@ -63167,7 +63161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:29" ht="84" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A674" s="2" t="s">
         <v>697</v>
       </c>
@@ -63257,7 +63251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A675" s="2" t="s">
         <v>698</v>
       </c>
@@ -63347,13 +63341,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:29" ht="56" x14ac:dyDescent="0.15">
       <c r="A676" s="2" t="s">
         <v>699</v>
       </c>
       <c r="B676" s="1" t="str" cm="1">
         <f t="array" ref="B676">_xlfn.TEXTJOIN(", ", TRUE, IF(C676:AC676=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>existential-it, bin</v>
       </c>
       <c r="C676" s="1">
         <v>0</v>
@@ -63410,7 +63404,7 @@
         <v>0</v>
       </c>
       <c r="U676" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V676" s="1">
         <v>0</v>
@@ -63419,7 +63413,7 @@
         <v>0</v>
       </c>
       <c r="X676" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y676" s="1">
         <v>0</v>
@@ -63437,16 +63431,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:29" ht="56" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A677" s="2" t="s">
         <v>700</v>
       </c>
       <c r="B677" s="1" t="str" cm="1">
         <f t="array" ref="B677">_xlfn.TEXTJOIN(", ", TRUE, IF(C677:AC677=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>zero-poss</v>
       </c>
       <c r="C677" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D677" s="1">
         <v>0</v>
@@ -63527,7 +63521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:29" ht="56" x14ac:dyDescent="0.15">
       <c r="A678" s="2" t="s">
         <v>701</v>
       </c>
@@ -63617,7 +63611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:29" ht="56" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A679" s="2" t="s">
         <v>702</v>
       </c>
@@ -63707,7 +63701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:29" ht="84" x14ac:dyDescent="0.15">
       <c r="A680" s="2" t="s">
         <v>703</v>
       </c>
@@ -63797,13 +63791,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:29" ht="84" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:29" ht="56" x14ac:dyDescent="0.15">
       <c r="A681" s="2" t="s">
         <v>704</v>
       </c>
       <c r="B681" s="1" t="str" cm="1">
         <f t="array" ref="B681">_xlfn.TEXTJOIN(", ", TRUE, IF(C681:AC681=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>bin</v>
       </c>
       <c r="C681" s="1">
         <v>0</v>
@@ -63869,7 +63863,7 @@
         <v>0</v>
       </c>
       <c r="X681" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y681" s="1">
         <v>0</v>
@@ -63887,7 +63881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:29" ht="56" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A682" s="2" t="s">
         <v>705</v>
       </c>
@@ -64247,13 +64241,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A686" s="2" t="s">
         <v>709</v>
       </c>
       <c r="B686" s="1" t="str" cm="1">
         <f t="array" ref="B686">_xlfn.TEXTJOIN(", ", TRUE, IF(C686:AC686=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>is-was-gen</v>
       </c>
       <c r="C686" s="1">
         <v>0</v>
@@ -64295,7 +64289,7 @@
         <v>0</v>
       </c>
       <c r="P686" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q686" s="1">
         <v>0</v>
@@ -64337,13 +64331,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A687" s="2" t="s">
         <v>710</v>
       </c>
       <c r="B687" s="1" t="str" cm="1">
         <f t="array" ref="B687">_xlfn.TEXTJOIN(", ", TRUE, IF(C687:AC687=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>existential-it</v>
       </c>
       <c r="C687" s="1">
         <v>0</v>
@@ -64400,7 +64394,7 @@
         <v>0</v>
       </c>
       <c r="U687" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V687" s="1">
         <v>0</v>
@@ -64427,13 +64421,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:29" ht="14" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A688" s="2" t="s">
         <v>711</v>
       </c>
       <c r="B688" s="1" t="str" cm="1">
         <f t="array" ref="B688">_xlfn.TEXTJOIN(", ", TRUE, IF(C688:AC688=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>verb-stem</v>
       </c>
       <c r="C688" s="1">
         <v>0</v>
@@ -64502,7 +64496,7 @@
         <v>0</v>
       </c>
       <c r="Y688" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z688" s="1">
         <v>0</v>
@@ -64517,13 +64511,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A689" s="2" t="s">
         <v>712</v>
       </c>
       <c r="B689" s="1" t="str" cm="1">
         <f t="array" ref="B689">_xlfn.TEXTJOIN(", ", TRUE, IF(C689:AC689=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>verb-stem</v>
       </c>
       <c r="C689" s="1">
         <v>0</v>
@@ -64592,7 +64586,7 @@
         <v>0</v>
       </c>
       <c r="Y689" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z689" s="1">
         <v>0</v>
@@ -64607,13 +64601,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A690" s="2" t="s">
         <v>713</v>
       </c>
       <c r="B690" s="1" t="str" cm="1">
         <f t="array" ref="B690">_xlfn.TEXTJOIN(", ", TRUE, IF(C690:AC690=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>is-was-gen</v>
       </c>
       <c r="C690" s="1">
         <v>0</v>
@@ -64655,7 +64649,7 @@
         <v>0</v>
       </c>
       <c r="P690" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q690" s="1">
         <v>0</v>
@@ -64697,7 +64691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:29" ht="14" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A691" s="2" t="s">
         <v>714</v>
       </c>
@@ -64787,7 +64781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A692" s="2" t="s">
         <v>715</v>
       </c>
@@ -64877,7 +64871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:29" ht="56" x14ac:dyDescent="0.15">
       <c r="A693" s="2" t="s">
         <v>716</v>
       </c>
@@ -65057,7 +65051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:29" ht="56" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A695" s="2" t="s">
         <v>718</v>
       </c>
@@ -65147,7 +65141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:29" ht="70" x14ac:dyDescent="0.15">
       <c r="A696" s="2" t="s">
         <v>719</v>
       </c>
@@ -65237,19 +65231,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:29" ht="70" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A697" s="2" t="s">
         <v>720</v>
       </c>
       <c r="B697" s="1" t="str" cm="1">
         <f t="array" ref="B697">_xlfn.TEXTJOIN(", ", TRUE, IF(C697:AC697=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>zero-copula</v>
       </c>
       <c r="C697" s="1">
         <v>0</v>
       </c>
       <c r="D697" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E697" s="1">
         <v>0</v>
@@ -65327,7 +65321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A698" s="2" t="s">
         <v>721</v>
       </c>
@@ -65417,7 +65411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A699" s="2" t="s">
         <v>722</v>
       </c>
@@ -65507,7 +65501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A700" s="2" t="s">
         <v>723</v>
       </c>
@@ -65597,7 +65591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:29" ht="56" x14ac:dyDescent="0.15">
       <c r="A701" s="2" t="s">
         <v>724</v>
       </c>
@@ -65687,7 +65681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:29" ht="56" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A702" s="2" t="s">
         <v>725</v>
       </c>
@@ -65777,7 +65771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A703" s="2" t="s">
         <v>726</v>
       </c>
@@ -65867,7 +65861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A704" s="2" t="s">
         <v>727</v>
       </c>
@@ -65957,13 +65951,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A705" s="2" t="s">
         <v>728</v>
       </c>
       <c r="B705" s="1" t="str" cm="1">
         <f t="array" ref="B705">_xlfn.TEXTJOIN(", ", TRUE, IF(C705:AC705=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>multiple-neg</v>
       </c>
       <c r="C705" s="1">
         <v>0</v>
@@ -65990,7 +65984,7 @@
         <v>0</v>
       </c>
       <c r="K705" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L705" s="1">
         <v>0</v>
@@ -66047,7 +66041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:29" ht="14" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A706" s="2" t="s">
         <v>729</v>
       </c>
@@ -66137,7 +66131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A707" s="2" t="s">
         <v>730</v>
       </c>
@@ -66587,13 +66581,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A712" s="2" t="s">
         <v>735</v>
       </c>
       <c r="B712" s="1" t="str" cm="1">
         <f t="array" ref="B712">_xlfn.TEXTJOIN(", ", TRUE, IF(C712:AC712=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>zero-3sg-pres-s</v>
       </c>
       <c r="C712" s="1">
         <v>0</v>
@@ -66632,7 +66626,7 @@
         <v>0</v>
       </c>
       <c r="O712" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P712" s="1">
         <v>0</v>
@@ -66677,7 +66671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:29" ht="14" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A713" s="2" t="s">
         <v>736</v>
       </c>
@@ -66767,19 +66761,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:29" ht="42" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A714" s="2" t="s">
         <v>737</v>
       </c>
       <c r="B714" s="1" t="str" cm="1">
         <f t="array" ref="B714">_xlfn.TEXTJOIN(", ", TRUE, IF(C714:AC714=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>zero-copula</v>
       </c>
       <c r="C714" s="1">
         <v>0</v>
       </c>
       <c r="D714" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E714" s="1">
         <v>0</v>
@@ -66857,13 +66851,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:29" ht="42" x14ac:dyDescent="0.15">
       <c r="A715" s="2" t="s">
         <v>738</v>
       </c>
       <c r="B715" s="1" t="str" cm="1">
         <f t="array" ref="B715">_xlfn.TEXTJOIN(", ", TRUE, IF(C715:AC715=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>bin</v>
       </c>
       <c r="C715" s="1">
         <v>0</v>
@@ -66929,7 +66923,7 @@
         <v>0</v>
       </c>
       <c r="X715" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y715" s="1">
         <v>0</v>
@@ -66947,7 +66941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:29" ht="28" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A716" s="2" t="s">
         <v>739</v>
       </c>
@@ -67034,186 +67028,6 @@
         <v>0</v>
       </c>
       <c r="AC716" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="717" spans="1:29" ht="42" x14ac:dyDescent="0.15">
-      <c r="A717" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="B717" s="1" t="str" cm="1">
-        <f t="array" ref="B717">_xlfn.TEXTJOIN(", ", TRUE, IF(C717:AC717=1, C$1:AB$1, ""))</f>
-        <v/>
-      </c>
-      <c r="C717" s="1">
-        <v>0</v>
-      </c>
-      <c r="D717" s="1">
-        <v>0</v>
-      </c>
-      <c r="E717" s="1">
-        <v>0</v>
-      </c>
-      <c r="F717" s="1">
-        <v>0</v>
-      </c>
-      <c r="G717" s="1">
-        <v>0</v>
-      </c>
-      <c r="H717" s="1">
-        <v>0</v>
-      </c>
-      <c r="I717" s="1">
-        <v>0</v>
-      </c>
-      <c r="J717" s="1">
-        <v>0</v>
-      </c>
-      <c r="K717" s="1">
-        <v>0</v>
-      </c>
-      <c r="L717" s="1">
-        <v>0</v>
-      </c>
-      <c r="M717" s="1">
-        <v>0</v>
-      </c>
-      <c r="N717" s="1">
-        <v>0</v>
-      </c>
-      <c r="O717" s="1">
-        <v>0</v>
-      </c>
-      <c r="P717" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q717" s="1">
-        <v>0</v>
-      </c>
-      <c r="R717" s="1">
-        <v>0</v>
-      </c>
-      <c r="S717" s="1">
-        <v>0</v>
-      </c>
-      <c r="T717" s="1">
-        <v>0</v>
-      </c>
-      <c r="U717" s="1">
-        <v>0</v>
-      </c>
-      <c r="V717" s="1">
-        <v>0</v>
-      </c>
-      <c r="W717" s="1">
-        <v>0</v>
-      </c>
-      <c r="X717" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y717" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z717" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA717" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB717" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC717" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="718" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A718" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="B718" s="1" t="str" cm="1">
-        <f t="array" ref="B718">_xlfn.TEXTJOIN(", ", TRUE, IF(C718:AC718=1, C$1:AB$1, ""))</f>
-        <v/>
-      </c>
-      <c r="C718" s="1">
-        <v>0</v>
-      </c>
-      <c r="D718" s="1">
-        <v>0</v>
-      </c>
-      <c r="E718" s="1">
-        <v>0</v>
-      </c>
-      <c r="F718" s="1">
-        <v>0</v>
-      </c>
-      <c r="G718" s="1">
-        <v>0</v>
-      </c>
-      <c r="H718" s="1">
-        <v>0</v>
-      </c>
-      <c r="I718" s="1">
-        <v>0</v>
-      </c>
-      <c r="J718" s="1">
-        <v>0</v>
-      </c>
-      <c r="K718" s="1">
-        <v>0</v>
-      </c>
-      <c r="L718" s="1">
-        <v>0</v>
-      </c>
-      <c r="M718" s="1">
-        <v>0</v>
-      </c>
-      <c r="N718" s="1">
-        <v>0</v>
-      </c>
-      <c r="O718" s="1">
-        <v>0</v>
-      </c>
-      <c r="P718" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q718" s="1">
-        <v>0</v>
-      </c>
-      <c r="R718" s="1">
-        <v>0</v>
-      </c>
-      <c r="S718" s="1">
-        <v>0</v>
-      </c>
-      <c r="T718" s="1">
-        <v>0</v>
-      </c>
-      <c r="U718" s="1">
-        <v>0</v>
-      </c>
-      <c r="V718" s="1">
-        <v>0</v>
-      </c>
-      <c r="W718" s="1">
-        <v>0</v>
-      </c>
-      <c r="X718" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y718" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z718" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA718" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB718" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC718" s="1">
         <v>0</v>
       </c>
     </row>
@@ -67241,7 +67055,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67249,8 +67063,8 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC869,0,MATCH(A2,Gold!$1:$1,0)),"1")</f>
-        <v>2</v>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC867,0,MATCH(A2,Gold!$1:$1,0)),"1")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67258,8 +67072,8 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC870,0,MATCH(A3,Gold!$1:$1,0)),"1")</f>
-        <v>24</v>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC868,0,MATCH(A3,Gold!$1:$1,0)),"1")</f>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67267,7 +67081,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC871,0,MATCH(A4,Gold!$1:$1,0)),"1")</f>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC869,0,MATCH(A4,Gold!$1:$1,0)),"1")</f>
         <v>0</v>
       </c>
     </row>
@@ -67276,8 +67090,8 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC872,0,MATCH(A5,Gold!$1:$1,0)),"1")</f>
-        <v>1</v>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC870,0,MATCH(A5,Gold!$1:$1,0)),"1")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67285,7 +67099,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC873,0,MATCH(A6,Gold!$1:$1,0)),"1")</f>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC871,0,MATCH(A6,Gold!$1:$1,0)),"1")</f>
         <v>1</v>
       </c>
     </row>
@@ -67294,7 +67108,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC874,0,MATCH(A7,Gold!$1:$1,0)),"1")</f>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC872,0,MATCH(A7,Gold!$1:$1,0)),"1")</f>
         <v>0</v>
       </c>
     </row>
@@ -67303,7 +67117,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC875,0,MATCH(A8,Gold!$1:$1,0)),"1")</f>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC873,0,MATCH(A8,Gold!$1:$1,0)),"1")</f>
         <v>0</v>
       </c>
     </row>
@@ -67312,7 +67126,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC876,0,MATCH(A9,Gold!$1:$1,0)),"1")</f>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC874,0,MATCH(A9,Gold!$1:$1,0)),"1")</f>
         <v>0</v>
       </c>
     </row>
@@ -67321,8 +67135,8 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC877,0,MATCH(A10,Gold!$1:$1,0)),"1")</f>
-        <v>15</v>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC875,0,MATCH(A10,Gold!$1:$1,0)),"1")</f>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67330,7 +67144,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC878,0,MATCH(A11,Gold!$1:$1,0)),"1")</f>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC876,0,MATCH(A11,Gold!$1:$1,0)),"1")</f>
         <v>1</v>
       </c>
     </row>
@@ -67339,7 +67153,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC879,0,MATCH(A12,Gold!$1:$1,0)),"1")</f>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC877,0,MATCH(A12,Gold!$1:$1,0)),"1")</f>
         <v>0</v>
       </c>
     </row>
@@ -67348,8 +67162,8 @@
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC880,0,MATCH(A13,Gold!$1:$1,0)),"1")</f>
-        <v>5</v>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC878,0,MATCH(A13,Gold!$1:$1,0)),"1")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67357,8 +67171,8 @@
         <v>14</v>
       </c>
       <c r="B14" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC881,0,MATCH(A14,Gold!$1:$1,0)),"1")</f>
-        <v>15</v>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC879,0,MATCH(A14,Gold!$1:$1,0)),"1")</f>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67366,8 +67180,8 @@
         <v>15</v>
       </c>
       <c r="B15" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC882,0,MATCH(A15,Gold!$1:$1,0)),"1")</f>
-        <v>12</v>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC880,0,MATCH(A15,Gold!$1:$1,0)),"1")</f>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67375,7 +67189,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC883,0,MATCH(A16,Gold!$1:$1,0)),"1")</f>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC881,0,MATCH(A16,Gold!$1:$1,0)),"1")</f>
         <v>0</v>
       </c>
     </row>
@@ -67384,25 +67198,25 @@
         <v>17</v>
       </c>
       <c r="B17" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC884,0,MATCH(A17,Gold!$1:$1,0)),"1")</f>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC882,0,MATCH(A17,Gold!$1:$1,0)),"1")</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B18" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC885,0,MATCH(A18,Gold!$1:$1,0)),"1")</f>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC883,0,MATCH(A18,Gold!$1:$1,0)),"1")</f>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B19" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC886,0,MATCH(A19,Gold!$1:$1,0)),"1")</f>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC884,0,MATCH(A19,Gold!$1:$1,0)),"1")</f>
         <v>1</v>
       </c>
     </row>
@@ -67411,8 +67225,8 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC887,0,MATCH(A20,Gold!$1:$1,0)),"1")</f>
-        <v>10</v>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC885,0,MATCH(A20,Gold!$1:$1,0)),"1")</f>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67420,7 +67234,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC888,0,MATCH(A21,Gold!$1:$1,0)),"1")</f>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC886,0,MATCH(A21,Gold!$1:$1,0)),"1")</f>
         <v>0</v>
       </c>
     </row>
@@ -67429,7 +67243,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC889,0,MATCH(A22,Gold!$1:$1,0)),"1")</f>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC887,0,MATCH(A22,Gold!$1:$1,0)),"1")</f>
         <v>2</v>
       </c>
     </row>
@@ -67438,8 +67252,8 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC890,0,MATCH(A23,Gold!$1:$1,0)),"1")</f>
-        <v>6</v>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC888,0,MATCH(A23,Gold!$1:$1,0)),"1")</f>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67447,8 +67261,8 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC891,0,MATCH(A24,Gold!$1:$1,0)),"1")</f>
-        <v>5</v>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC889,0,MATCH(A24,Gold!$1:$1,0)),"1")</f>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67456,8 +67270,8 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC892,0,MATCH(A25,Gold!$1:$1,0)),"1")</f>
-        <v>2</v>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC890,0,MATCH(A25,Gold!$1:$1,0)),"1")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67465,7 +67279,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC893,0,MATCH(A26,Gold!$1:$1,0)),"1")</f>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC891,0,MATCH(A26,Gold!$1:$1,0)),"1")</f>
         <v>0</v>
       </c>
     </row>
@@ -67474,17 +67288,17 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC894,0,MATCH(A27,Gold!$1:$1,0)),"1")</f>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC892,0,MATCH(A27,Gold!$1:$1,0)),"1")</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B28" s="4">
-        <f>COUNTIFS(INDEX(Gold!$A$1:$AC895,0,MATCH(A28,Gold!$1:$1,0)),"1")</f>
-        <v>2</v>
+        <f>COUNTIFS(INDEX(Gold!$A$1:$AC893,0,MATCH(A28,Gold!$1:$1,0)),"1")</f>
+        <v>7</v>
       </c>
     </row>
     <row r="16384" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -67507,17 +67321,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16388" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16388" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16388" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16389" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16389" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16389" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16390" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16390" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16390" s="2" t="s">
         <v>6</v>
       </c>
@@ -67532,7 +67346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16393" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16393" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16393" s="2" t="s">
         <v>9</v>
       </c>
@@ -67542,12 +67356,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16395" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16395" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16395" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16396" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16396" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16396" s="2" t="s">
         <v>12</v>
       </c>
@@ -67557,7 +67371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16398" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16398" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16398" s="2" t="s">
         <v>14</v>
       </c>
@@ -67572,19 +67386,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16401" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16401" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16401" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16402" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16402" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16403" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16403" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="16404" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -67592,12 +67406,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16405" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16405" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16405" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16406" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="16406" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16406" s="2" t="s">
         <v>20</v>
       </c>
@@ -67612,17 +67426,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16409" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16409" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16409" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16410" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16410" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16410" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16411" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16411" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16411" s="2" t="s">
         <v>25</v>
       </c>
@@ -67647,17 +67461,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32772" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="32772" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32772" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32773" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="32773" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32773" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32774" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="32774" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32774" s="2" t="s">
         <v>6</v>
       </c>
@@ -67672,7 +67486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32777" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="32777" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32777" s="2" t="s">
         <v>9</v>
       </c>
@@ -67682,12 +67496,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32779" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="32779" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32779" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32780" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="32780" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32780" s="2" t="s">
         <v>12</v>
       </c>
@@ -67697,7 +67511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32782" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="32782" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32782" s="2" t="s">
         <v>14</v>
       </c>
@@ -67712,19 +67526,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32785" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="32785" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32785" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32786" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32786" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="32787" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32787" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="32788" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -67732,12 +67546,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32789" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="32789" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32789" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32790" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="32790" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32790" s="2" t="s">
         <v>20</v>
       </c>
@@ -67752,17 +67566,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32793" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="32793" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32793" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32794" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="32794" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32794" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32795" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="32795" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32795" s="2" t="s">
         <v>25</v>
       </c>
@@ -67787,17 +67601,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49156" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="49156" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49156" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49157" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="49157" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49157" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49158" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="49158" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49158" s="2" t="s">
         <v>6</v>
       </c>
@@ -67812,7 +67626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49161" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="49161" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49161" s="2" t="s">
         <v>9</v>
       </c>
@@ -67822,12 +67636,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49163" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="49163" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49163" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49164" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="49164" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49164" s="2" t="s">
         <v>12</v>
       </c>
@@ -67837,7 +67651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49166" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="49166" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49166" s="2" t="s">
         <v>14</v>
       </c>
@@ -67852,19 +67666,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49169" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="49169" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49169" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49170" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49170" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="49171" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49171" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="49172" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -67872,12 +67686,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49173" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="49173" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49173" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49174" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="49174" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49174" s="2" t="s">
         <v>20</v>
       </c>
@@ -67892,17 +67706,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49177" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="49177" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49177" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49178" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="49178" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49178" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49179" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="49179" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49179" s="2" t="s">
         <v>25</v>
       </c>
@@ -67927,17 +67741,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65540" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="65540" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65540" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65541" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="65541" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65541" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65542" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="65542" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65542" s="2" t="s">
         <v>6</v>
       </c>
@@ -67952,7 +67766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65545" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="65545" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65545" s="2" t="s">
         <v>9</v>
       </c>
@@ -67962,12 +67776,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65547" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="65547" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65547" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65548" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="65548" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65548" s="2" t="s">
         <v>12</v>
       </c>
@@ -67977,7 +67791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65550" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="65550" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65550" s="2" t="s">
         <v>14</v>
       </c>
@@ -67992,19 +67806,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65553" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="65553" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65553" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="65554" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65554" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="65555" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65555" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="65556" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -68012,12 +67826,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65557" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="65557" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65557" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65558" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="65558" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65558" s="2" t="s">
         <v>20</v>
       </c>
@@ -68032,17 +67846,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65561" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="65561" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65561" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65562" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="65562" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65562" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="65563" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="65563" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65563" s="2" t="s">
         <v>25</v>
       </c>
@@ -68067,17 +67881,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81924" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="81924" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81924" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="81925" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="81925" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81925" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81926" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="81926" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81926" s="2" t="s">
         <v>6</v>
       </c>
@@ -68092,7 +67906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81929" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="81929" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81929" s="2" t="s">
         <v>9</v>
       </c>
@@ -68102,12 +67916,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81931" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="81931" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81931" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81932" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="81932" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81932" s="2" t="s">
         <v>12</v>
       </c>
@@ -68117,7 +67931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81934" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="81934" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81934" s="2" t="s">
         <v>14</v>
       </c>
@@ -68132,19 +67946,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81937" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="81937" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81937" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="81938" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81938" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="81939" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81939" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="81940" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -68152,12 +67966,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81941" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="81941" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81941" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="81942" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="81942" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81942" s="2" t="s">
         <v>20</v>
       </c>
@@ -68172,17 +67986,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81945" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="81945" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81945" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="81946" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="81946" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81946" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="81947" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="81947" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81947" s="2" t="s">
         <v>25</v>
       </c>
@@ -68207,17 +68021,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98308" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="98308" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98308" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98309" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="98309" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98309" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98310" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="98310" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98310" s="2" t="s">
         <v>6</v>
       </c>
@@ -68232,7 +68046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98313" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="98313" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98313" s="2" t="s">
         <v>9</v>
       </c>
@@ -68242,12 +68056,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98315" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="98315" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98315" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="98316" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="98316" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98316" s="2" t="s">
         <v>12</v>
       </c>
@@ -68257,7 +68071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98318" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="98318" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98318" s="2" t="s">
         <v>14</v>
       </c>
@@ -68272,19 +68086,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98321" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="98321" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98321" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="98322" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98322" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="98323" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98323" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="98324" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -68292,12 +68106,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98325" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="98325" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98325" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="98326" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="98326" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98326" s="2" t="s">
         <v>20</v>
       </c>
@@ -68312,17 +68126,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98329" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="98329" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98329" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="98330" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="98330" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98330" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="98331" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="98331" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98331" s="2" t="s">
         <v>25</v>
       </c>
@@ -68347,17 +68161,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114692" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="114692" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114692" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="114693" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="114693" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114693" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="114694" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="114694" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114694" s="2" t="s">
         <v>6</v>
       </c>
@@ -68372,7 +68186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114697" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="114697" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114697" s="2" t="s">
         <v>9</v>
       </c>
@@ -68382,12 +68196,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114699" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="114699" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114699" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="114700" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="114700" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114700" s="2" t="s">
         <v>12</v>
       </c>
@@ -68397,7 +68211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114702" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="114702" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114702" s="2" t="s">
         <v>14</v>
       </c>
@@ -68412,19 +68226,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114705" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="114705" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114705" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="114706" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114706" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="114707" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114707" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="114708" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -68432,12 +68246,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114709" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="114709" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114709" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="114710" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="114710" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114710" s="2" t="s">
         <v>20</v>
       </c>
@@ -68452,17 +68266,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114713" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="114713" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114713" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="114714" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="114714" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114714" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="114715" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="114715" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114715" s="2" t="s">
         <v>25</v>
       </c>
@@ -68487,17 +68301,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131076" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="131076" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131076" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="131077" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="131077" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131077" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="131078" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="131078" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131078" s="2" t="s">
         <v>6</v>
       </c>
@@ -68512,7 +68326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131081" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="131081" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131081" s="2" t="s">
         <v>9</v>
       </c>
@@ -68522,12 +68336,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131083" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="131083" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131083" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="131084" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="131084" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131084" s="2" t="s">
         <v>12</v>
       </c>
@@ -68537,7 +68351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131086" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="131086" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131086" s="2" t="s">
         <v>14</v>
       </c>
@@ -68552,19 +68366,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131089" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="131089" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131089" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="131090" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131090" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="131091" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131091" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="131092" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -68572,12 +68386,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131093" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="131093" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131093" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="131094" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="131094" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131094" s="2" t="s">
         <v>20</v>
       </c>
@@ -68592,17 +68406,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131097" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="131097" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131097" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="131098" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="131098" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131098" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="131099" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="131099" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131099" s="2" t="s">
         <v>25</v>
       </c>
@@ -68627,17 +68441,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147460" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="147460" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A147460" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="147461" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="147461" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A147461" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="147462" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="147462" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A147462" s="2" t="s">
         <v>6</v>
       </c>
@@ -68652,7 +68466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147465" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="147465" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A147465" s="2" t="s">
         <v>9</v>
       </c>
@@ -68662,12 +68476,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147467" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="147467" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A147467" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="147468" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="147468" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A147468" s="2" t="s">
         <v>12</v>
       </c>
@@ -68677,7 +68491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147470" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="147470" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A147470" s="2" t="s">
         <v>14</v>
       </c>
@@ -68692,19 +68506,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147473" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="147473" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A147473" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="147474" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A147474" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="147475" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A147475" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="147476" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -68712,12 +68526,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147477" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="147477" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A147477" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="147478" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="147478" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A147478" s="2" t="s">
         <v>20</v>
       </c>
@@ -68732,17 +68546,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147481" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="147481" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A147481" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="147482" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="147482" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A147482" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="147483" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="147483" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A147483" s="2" t="s">
         <v>25</v>
       </c>
@@ -68767,17 +68581,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163844" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="163844" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163844" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="163845" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="163845" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163845" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163846" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="163846" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163846" s="2" t="s">
         <v>6</v>
       </c>
@@ -68792,7 +68606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163849" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="163849" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163849" s="2" t="s">
         <v>9</v>
       </c>
@@ -68802,12 +68616,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163851" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="163851" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163851" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="163852" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="163852" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163852" s="2" t="s">
         <v>12</v>
       </c>
@@ -68817,7 +68631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163854" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="163854" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163854" s="2" t="s">
         <v>14</v>
       </c>
@@ -68832,19 +68646,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163857" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="163857" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163857" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="163858" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163858" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="163859" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163859" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="163860" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -68852,12 +68666,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163861" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="163861" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163861" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="163862" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="163862" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163862" s="2" t="s">
         <v>20</v>
       </c>
@@ -68872,17 +68686,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163865" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="163865" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163865" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="163866" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="163866" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163866" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="163867" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="163867" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163867" s="2" t="s">
         <v>25</v>
       </c>
@@ -68907,17 +68721,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180228" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="180228" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A180228" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="180229" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="180229" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A180229" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="180230" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="180230" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A180230" s="2" t="s">
         <v>6</v>
       </c>
@@ -68932,7 +68746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180233" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="180233" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A180233" s="2" t="s">
         <v>9</v>
       </c>
@@ -68942,12 +68756,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180235" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="180235" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A180235" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="180236" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="180236" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A180236" s="2" t="s">
         <v>12</v>
       </c>
@@ -68957,7 +68771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180238" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="180238" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A180238" s="2" t="s">
         <v>14</v>
       </c>
@@ -68972,19 +68786,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180241" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="180241" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A180241" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="180242" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A180242" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="180243" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A180243" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="180244" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -68992,12 +68806,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180245" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="180245" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A180245" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="180246" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="180246" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A180246" s="2" t="s">
         <v>20</v>
       </c>
@@ -69012,17 +68826,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180249" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="180249" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A180249" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="180250" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="180250" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A180250" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="180251" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="180251" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A180251" s="2" t="s">
         <v>25</v>
       </c>
@@ -69047,17 +68861,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196612" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="196612" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A196612" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="196613" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="196613" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A196613" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="196614" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="196614" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A196614" s="2" t="s">
         <v>6</v>
       </c>
@@ -69072,7 +68886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196617" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="196617" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A196617" s="2" t="s">
         <v>9</v>
       </c>
@@ -69082,12 +68896,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196619" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="196619" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A196619" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="196620" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="196620" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A196620" s="2" t="s">
         <v>12</v>
       </c>
@@ -69097,7 +68911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196622" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="196622" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A196622" s="2" t="s">
         <v>14</v>
       </c>
@@ -69112,19 +68926,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196625" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="196625" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A196625" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="196626" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A196626" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="196627" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A196627" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="196628" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -69132,12 +68946,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196629" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="196629" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A196629" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="196630" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="196630" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A196630" s="2" t="s">
         <v>20</v>
       </c>
@@ -69152,17 +68966,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196633" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="196633" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A196633" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="196634" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="196634" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A196634" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="196635" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="196635" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A196635" s="2" t="s">
         <v>25</v>
       </c>
@@ -69187,17 +69001,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212996" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="212996" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A212996" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="212997" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="212997" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A212997" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="212998" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="212998" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A212998" s="2" t="s">
         <v>6</v>
       </c>
@@ -69212,7 +69026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213001" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="213001" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A213001" s="2" t="s">
         <v>9</v>
       </c>
@@ -69222,12 +69036,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213003" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="213003" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A213003" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="213004" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="213004" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A213004" s="2" t="s">
         <v>12</v>
       </c>
@@ -69237,7 +69051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213006" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="213006" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A213006" s="2" t="s">
         <v>14</v>
       </c>
@@ -69252,19 +69066,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213009" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="213009" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A213009" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="213010" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A213010" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="213011" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A213011" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="213012" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -69272,12 +69086,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213013" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="213013" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A213013" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="213014" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="213014" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A213014" s="2" t="s">
         <v>20</v>
       </c>
@@ -69292,17 +69106,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213017" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="213017" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A213017" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="213018" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="213018" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A213018" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="213019" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="213019" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A213019" s="2" t="s">
         <v>25</v>
       </c>
@@ -69327,17 +69141,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229380" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="229380" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A229380" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="229381" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="229381" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A229381" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="229382" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="229382" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A229382" s="2" t="s">
         <v>6</v>
       </c>
@@ -69352,7 +69166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229385" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="229385" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A229385" s="2" t="s">
         <v>9</v>
       </c>
@@ -69362,12 +69176,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229387" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="229387" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A229387" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="229388" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="229388" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A229388" s="2" t="s">
         <v>12</v>
       </c>
@@ -69377,7 +69191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229390" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="229390" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A229390" s="2" t="s">
         <v>14</v>
       </c>
@@ -69392,19 +69206,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229393" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="229393" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A229393" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="229394" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A229394" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="229395" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A229395" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="229396" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -69412,12 +69226,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229397" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="229397" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A229397" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="229398" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="229398" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A229398" s="2" t="s">
         <v>20</v>
       </c>
@@ -69432,17 +69246,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229401" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="229401" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A229401" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="229402" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="229402" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A229402" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="229403" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="229403" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A229403" s="2" t="s">
         <v>25</v>
       </c>
@@ -69467,17 +69281,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245764" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="245764" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A245764" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="245765" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="245765" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A245765" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="245766" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="245766" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A245766" s="2" t="s">
         <v>6</v>
       </c>
@@ -69492,7 +69306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245769" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="245769" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A245769" s="2" t="s">
         <v>9</v>
       </c>
@@ -69502,12 +69316,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245771" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="245771" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A245771" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="245772" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="245772" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A245772" s="2" t="s">
         <v>12</v>
       </c>
@@ -69517,7 +69331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245774" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="245774" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A245774" s="2" t="s">
         <v>14</v>
       </c>
@@ -69532,19 +69346,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245777" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="245777" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A245777" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="245778" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A245778" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="245779" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A245779" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="245780" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -69552,12 +69366,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245781" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="245781" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A245781" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="245782" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="245782" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A245782" s="2" t="s">
         <v>20</v>
       </c>
@@ -69572,17 +69386,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245785" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="245785" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A245785" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="245786" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="245786" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A245786" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="245787" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="245787" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A245787" s="2" t="s">
         <v>25</v>
       </c>
@@ -69607,17 +69421,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262148" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="262148" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A262148" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="262149" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="262149" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A262149" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="262150" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="262150" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A262150" s="2" t="s">
         <v>6</v>
       </c>
@@ -69632,7 +69446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262153" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="262153" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A262153" s="2" t="s">
         <v>9</v>
       </c>
@@ -69642,12 +69456,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262155" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="262155" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A262155" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="262156" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="262156" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A262156" s="2" t="s">
         <v>12</v>
       </c>
@@ -69657,7 +69471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262158" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="262158" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A262158" s="2" t="s">
         <v>14</v>
       </c>
@@ -69672,19 +69486,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262161" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="262161" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A262161" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="262162" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A262162" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="262163" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A262163" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="262164" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -69692,12 +69506,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262165" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="262165" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A262165" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="262166" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="262166" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A262166" s="2" t="s">
         <v>20</v>
       </c>
@@ -69712,17 +69526,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="262169" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="262169" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A262169" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="262170" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="262170" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A262170" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="262171" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="262171" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A262171" s="2" t="s">
         <v>25</v>
       </c>
@@ -69747,17 +69561,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278532" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="278532" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A278532" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="278533" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="278533" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A278533" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="278534" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="278534" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A278534" s="2" t="s">
         <v>6</v>
       </c>
@@ -69772,7 +69586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278537" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="278537" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A278537" s="2" t="s">
         <v>9</v>
       </c>
@@ -69782,12 +69596,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278539" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="278539" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A278539" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="278540" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="278540" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A278540" s="2" t="s">
         <v>12</v>
       </c>
@@ -69797,7 +69611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278542" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="278542" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A278542" s="2" t="s">
         <v>14</v>
       </c>
@@ -69812,19 +69626,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278545" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="278545" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A278545" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="278546" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A278546" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="278547" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A278547" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="278548" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -69832,12 +69646,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278549" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="278549" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A278549" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="278550" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="278550" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A278550" s="2" t="s">
         <v>20</v>
       </c>
@@ -69852,17 +69666,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="278553" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="278553" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A278553" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="278554" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="278554" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A278554" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="278555" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="278555" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A278555" s="2" t="s">
         <v>25</v>
       </c>
@@ -69887,17 +69701,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294916" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="294916" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A294916" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="294917" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="294917" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A294917" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="294918" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="294918" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A294918" s="2" t="s">
         <v>6</v>
       </c>
@@ -69912,7 +69726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294921" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="294921" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A294921" s="2" t="s">
         <v>9</v>
       </c>
@@ -69922,12 +69736,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294923" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="294923" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A294923" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="294924" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="294924" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A294924" s="2" t="s">
         <v>12</v>
       </c>
@@ -69937,7 +69751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294926" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="294926" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A294926" s="2" t="s">
         <v>14</v>
       </c>
@@ -69952,19 +69766,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294929" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="294929" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A294929" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="294930" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A294930" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="294931" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A294931" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="294932" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -69972,12 +69786,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294933" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="294933" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A294933" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="294934" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="294934" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A294934" s="2" t="s">
         <v>20</v>
       </c>
@@ -69992,17 +69806,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="294937" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="294937" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A294937" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="294938" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="294938" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A294938" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="294939" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="294939" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A294939" s="2" t="s">
         <v>25</v>
       </c>
@@ -70027,17 +69841,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311300" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="311300" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A311300" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="311301" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="311301" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A311301" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="311302" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="311302" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A311302" s="2" t="s">
         <v>6</v>
       </c>
@@ -70052,7 +69866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311305" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="311305" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A311305" s="2" t="s">
         <v>9</v>
       </c>
@@ -70062,12 +69876,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311307" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="311307" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A311307" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="311308" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="311308" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A311308" s="2" t="s">
         <v>12</v>
       </c>
@@ -70077,7 +69891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311310" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="311310" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A311310" s="2" t="s">
         <v>14</v>
       </c>
@@ -70092,19 +69906,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="311313" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="311313" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A311313" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="311314" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A311314" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="311315" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A311315" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="311316" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -70112,12 +69926,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="311317" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="311317" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A311317" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="311318" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="311318" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A311318" s="2" t="s">
         <v>20</v>
       </c>
@@ -70132,17 +69946,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="311321" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="311321" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A311321" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="311322" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="311322" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A311322" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="311323" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="311323" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A311323" s="2" t="s">
         <v>25</v>
       </c>
@@ -70167,17 +69981,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327684" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="327684" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A327684" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="327685" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="327685" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A327685" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="327686" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="327686" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A327686" s="2" t="s">
         <v>6</v>
       </c>
@@ -70192,7 +70006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327689" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="327689" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A327689" s="2" t="s">
         <v>9</v>
       </c>
@@ -70202,12 +70016,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327691" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="327691" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A327691" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="327692" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="327692" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A327692" s="2" t="s">
         <v>12</v>
       </c>
@@ -70217,7 +70031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327694" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="327694" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A327694" s="2" t="s">
         <v>14</v>
       </c>
@@ -70232,19 +70046,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327697" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="327697" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A327697" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="327698" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A327698" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="327699" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A327699" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="327700" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -70252,12 +70066,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="327701" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="327701" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A327701" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="327702" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="327702" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A327702" s="2" t="s">
         <v>20</v>
       </c>
@@ -70272,17 +70086,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="327705" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="327705" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A327705" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="327706" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="327706" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A327706" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="327707" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="327707" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A327707" s="2" t="s">
         <v>25</v>
       </c>
@@ -70307,17 +70121,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344068" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="344068" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A344068" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="344069" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="344069" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A344069" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="344070" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="344070" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A344070" s="2" t="s">
         <v>6</v>
       </c>
@@ -70332,7 +70146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344073" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="344073" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A344073" s="2" t="s">
         <v>9</v>
       </c>
@@ -70342,12 +70156,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344075" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="344075" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A344075" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="344076" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="344076" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A344076" s="2" t="s">
         <v>12</v>
       </c>
@@ -70357,7 +70171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344078" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="344078" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A344078" s="2" t="s">
         <v>14</v>
       </c>
@@ -70372,19 +70186,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344081" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="344081" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A344081" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="344082" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A344082" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="344083" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A344083" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="344084" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -70392,12 +70206,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="344085" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="344085" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A344085" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="344086" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="344086" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A344086" s="2" t="s">
         <v>20</v>
       </c>
@@ -70412,17 +70226,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="344089" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="344089" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A344089" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="344090" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="344090" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A344090" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="344091" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="344091" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A344091" s="2" t="s">
         <v>25</v>
       </c>
@@ -70447,17 +70261,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360452" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="360452" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A360452" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="360453" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="360453" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A360453" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="360454" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="360454" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A360454" s="2" t="s">
         <v>6</v>
       </c>
@@ -70472,7 +70286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360457" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="360457" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A360457" s="2" t="s">
         <v>9</v>
       </c>
@@ -70482,12 +70296,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360459" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="360459" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A360459" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="360460" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="360460" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A360460" s="2" t="s">
         <v>12</v>
       </c>
@@ -70497,7 +70311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360462" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="360462" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A360462" s="2" t="s">
         <v>14</v>
       </c>
@@ -70512,19 +70326,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="360465" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="360465" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A360465" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="360466" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A360466" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="360467" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A360467" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="360468" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -70532,12 +70346,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360469" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="360469" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A360469" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="360470" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="360470" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A360470" s="2" t="s">
         <v>20</v>
       </c>
@@ -70552,17 +70366,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="360473" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="360473" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A360473" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="360474" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="360474" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A360474" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="360475" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="360475" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A360475" s="2" t="s">
         <v>25</v>
       </c>
@@ -70587,17 +70401,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376836" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="376836" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A376836" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="376837" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="376837" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A376837" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="376838" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="376838" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A376838" s="2" t="s">
         <v>6</v>
       </c>
@@ -70612,7 +70426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376841" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="376841" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A376841" s="2" t="s">
         <v>9</v>
       </c>
@@ -70622,12 +70436,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376843" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="376843" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A376843" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="376844" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="376844" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A376844" s="2" t="s">
         <v>12</v>
       </c>
@@ -70637,7 +70451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="376846" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="376846" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A376846" s="2" t="s">
         <v>14</v>
       </c>
@@ -70652,19 +70466,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376849" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="376849" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A376849" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="376850" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A376850" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="376851" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A376851" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="376852" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -70672,12 +70486,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="376853" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="376853" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A376853" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="376854" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="376854" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A376854" s="2" t="s">
         <v>20</v>
       </c>
@@ -70692,17 +70506,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="376857" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="376857" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A376857" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="376858" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="376858" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A376858" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="376859" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="376859" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A376859" s="2" t="s">
         <v>25</v>
       </c>
@@ -70727,17 +70541,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393220" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="393220" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A393220" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="393221" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="393221" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A393221" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="393222" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="393222" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A393222" s="2" t="s">
         <v>6</v>
       </c>
@@ -70752,7 +70566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393225" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="393225" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A393225" s="2" t="s">
         <v>9</v>
       </c>
@@ -70762,12 +70576,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393227" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="393227" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A393227" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="393228" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="393228" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A393228" s="2" t="s">
         <v>12</v>
       </c>
@@ -70777,7 +70591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393230" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="393230" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A393230" s="2" t="s">
         <v>14</v>
       </c>
@@ -70792,19 +70606,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="393233" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="393233" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A393233" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="393234" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A393234" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="393235" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A393235" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="393236" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -70812,12 +70626,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="393237" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="393237" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A393237" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="393238" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="393238" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A393238" s="2" t="s">
         <v>20</v>
       </c>
@@ -70832,17 +70646,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="393241" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="393241" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A393241" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="393242" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="393242" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A393242" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="393243" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="393243" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A393243" s="2" t="s">
         <v>25</v>
       </c>
@@ -70867,17 +70681,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409604" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="409604" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A409604" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="409605" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="409605" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A409605" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="409606" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="409606" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A409606" s="2" t="s">
         <v>6</v>
       </c>
@@ -70892,7 +70706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409609" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="409609" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A409609" s="2" t="s">
         <v>9</v>
       </c>
@@ -70902,12 +70716,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409611" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="409611" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A409611" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="409612" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="409612" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A409612" s="2" t="s">
         <v>12</v>
       </c>
@@ -70917,7 +70731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409614" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="409614" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A409614" s="2" t="s">
         <v>14</v>
       </c>
@@ -70932,19 +70746,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="409617" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="409617" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A409617" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="409618" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A409618" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="409619" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A409619" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="409620" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -70952,12 +70766,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="409621" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="409621" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A409621" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="409622" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="409622" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A409622" s="2" t="s">
         <v>20</v>
       </c>
@@ -70972,17 +70786,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="409625" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="409625" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A409625" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="409626" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="409626" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A409626" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="409627" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="409627" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A409627" s="2" t="s">
         <v>25</v>
       </c>
@@ -71007,17 +70821,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425988" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="425988" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A425988" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="425989" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="425989" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A425989" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="425990" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="425990" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A425990" s="2" t="s">
         <v>6</v>
       </c>
@@ -71032,7 +70846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425993" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="425993" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A425993" s="2" t="s">
         <v>9</v>
       </c>
@@ -71042,12 +70856,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425995" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="425995" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A425995" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="425996" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="425996" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A425996" s="2" t="s">
         <v>12</v>
       </c>
@@ -71057,7 +70871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425998" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="425998" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A425998" s="2" t="s">
         <v>14</v>
       </c>
@@ -71072,19 +70886,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="426001" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="426001" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A426001" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="426002" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A426002" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="426003" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A426003" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="426004" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -71092,12 +70906,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="426005" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="426005" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A426005" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="426006" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="426006" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A426006" s="2" t="s">
         <v>20</v>
       </c>
@@ -71112,17 +70926,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="426009" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="426009" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A426009" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="426010" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="426010" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A426010" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="426011" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="426011" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A426011" s="2" t="s">
         <v>25</v>
       </c>
@@ -71147,17 +70961,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442372" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="442372" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A442372" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="442373" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="442373" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A442373" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="442374" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="442374" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A442374" s="2" t="s">
         <v>6</v>
       </c>
@@ -71172,7 +70986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442377" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="442377" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A442377" s="2" t="s">
         <v>9</v>
       </c>
@@ -71182,12 +70996,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442379" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="442379" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A442379" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="442380" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="442380" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A442380" s="2" t="s">
         <v>12</v>
       </c>
@@ -71197,7 +71011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442382" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="442382" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A442382" s="2" t="s">
         <v>14</v>
       </c>
@@ -71212,19 +71026,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="442385" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="442385" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A442385" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="442386" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A442386" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="442387" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A442387" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="442388" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -71232,12 +71046,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="442389" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="442389" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A442389" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="442390" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="442390" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A442390" s="2" t="s">
         <v>20</v>
       </c>
@@ -71252,17 +71066,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="442393" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="442393" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A442393" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="442394" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="442394" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A442394" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="442395" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="442395" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A442395" s="2" t="s">
         <v>25</v>
       </c>
@@ -71287,17 +71101,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458756" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="458756" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A458756" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="458757" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="458757" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A458757" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="458758" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="458758" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A458758" s="2" t="s">
         <v>6</v>
       </c>
@@ -71312,7 +71126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="458761" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="458761" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A458761" s="2" t="s">
         <v>9</v>
       </c>
@@ -71322,12 +71136,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458763" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="458763" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A458763" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="458764" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="458764" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A458764" s="2" t="s">
         <v>12</v>
       </c>
@@ -71337,7 +71151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458766" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="458766" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A458766" s="2" t="s">
         <v>14</v>
       </c>
@@ -71352,19 +71166,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="458769" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="458769" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A458769" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="458770" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A458770" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="458771" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A458771" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="458772" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -71372,12 +71186,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="458773" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="458773" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A458773" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="458774" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="458774" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A458774" s="2" t="s">
         <v>20</v>
       </c>
@@ -71392,17 +71206,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="458777" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="458777" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A458777" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="458778" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="458778" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A458778" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="458779" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="458779" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A458779" s="2" t="s">
         <v>25</v>
       </c>
@@ -71427,17 +71241,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475140" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="475140" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A475140" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="475141" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="475141" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A475141" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="475142" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="475142" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A475142" s="2" t="s">
         <v>6</v>
       </c>
@@ -71452,7 +71266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475145" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="475145" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A475145" s="2" t="s">
         <v>9</v>
       </c>
@@ -71462,12 +71276,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475147" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="475147" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A475147" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="475148" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="475148" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A475148" s="2" t="s">
         <v>12</v>
       </c>
@@ -71477,7 +71291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475150" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="475150" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A475150" s="2" t="s">
         <v>14</v>
       </c>
@@ -71492,19 +71306,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="475153" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="475153" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A475153" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="475154" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A475154" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="475155" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A475155" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="475156" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -71512,12 +71326,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="475157" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="475157" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A475157" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="475158" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="475158" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A475158" s="2" t="s">
         <v>20</v>
       </c>
@@ -71532,17 +71346,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="475161" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="475161" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A475161" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="475162" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="475162" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A475162" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="475163" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="475163" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A475163" s="2" t="s">
         <v>25</v>
       </c>
@@ -71567,17 +71381,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491524" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="491524" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A491524" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="491525" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="491525" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A491525" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="491526" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="491526" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A491526" s="2" t="s">
         <v>6</v>
       </c>
@@ -71592,7 +71406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491529" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="491529" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A491529" s="2" t="s">
         <v>9</v>
       </c>
@@ -71602,12 +71416,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491531" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="491531" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A491531" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="491532" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="491532" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A491532" s="2" t="s">
         <v>12</v>
       </c>
@@ -71617,7 +71431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491534" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="491534" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A491534" s="2" t="s">
         <v>14</v>
       </c>
@@ -71632,19 +71446,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="491537" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="491537" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A491537" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="491538" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A491538" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="491539" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A491539" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="491540" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -71652,12 +71466,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="491541" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="491541" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A491541" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="491542" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="491542" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A491542" s="2" t="s">
         <v>20</v>
       </c>
@@ -71672,17 +71486,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="491545" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="491545" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A491545" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="491546" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="491546" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A491546" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="491547" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="491547" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A491547" s="2" t="s">
         <v>25</v>
       </c>
@@ -71707,17 +71521,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507908" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="507908" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A507908" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="507909" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="507909" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A507909" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="507910" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="507910" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A507910" s="2" t="s">
         <v>6</v>
       </c>
@@ -71732,7 +71546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507913" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="507913" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A507913" s="2" t="s">
         <v>9</v>
       </c>
@@ -71742,12 +71556,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="507915" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="507915" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A507915" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="507916" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="507916" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A507916" s="2" t="s">
         <v>12</v>
       </c>
@@ -71757,7 +71571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507918" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="507918" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A507918" s="2" t="s">
         <v>14</v>
       </c>
@@ -71772,19 +71586,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="507921" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="507921" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A507921" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="507922" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A507922" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="507923" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A507923" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="507924" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -71792,12 +71606,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="507925" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="507925" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A507925" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="507926" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="507926" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A507926" s="2" t="s">
         <v>20</v>
       </c>
@@ -71812,17 +71626,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="507929" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="507929" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A507929" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="507930" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="507930" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A507930" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="507931" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="507931" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A507931" s="2" t="s">
         <v>25</v>
       </c>
@@ -71847,17 +71661,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524292" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="524292" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A524292" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="524293" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="524293" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A524293" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="524294" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="524294" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A524294" s="2" t="s">
         <v>6</v>
       </c>
@@ -71872,7 +71686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="524297" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="524297" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A524297" s="2" t="s">
         <v>9</v>
       </c>
@@ -71882,12 +71696,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="524299" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="524299" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A524299" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="524300" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="524300" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A524300" s="2" t="s">
         <v>12</v>
       </c>
@@ -71897,7 +71711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524302" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="524302" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A524302" s="2" t="s">
         <v>14</v>
       </c>
@@ -71912,19 +71726,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="524305" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="524305" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A524305" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="524306" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A524306" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="524307" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A524307" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="524308" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -71932,12 +71746,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="524309" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="524309" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A524309" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="524310" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="524310" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A524310" s="2" t="s">
         <v>20</v>
       </c>
@@ -71952,17 +71766,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="524313" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="524313" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A524313" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="524314" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="524314" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A524314" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="524315" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="524315" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A524315" s="2" t="s">
         <v>25</v>
       </c>
@@ -71987,17 +71801,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="540676" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="540676" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A540676" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="540677" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="540677" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A540677" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="540678" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="540678" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A540678" s="2" t="s">
         <v>6</v>
       </c>
@@ -72012,7 +71826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="540681" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="540681" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A540681" s="2" t="s">
         <v>9</v>
       </c>
@@ -72022,12 +71836,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540683" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="540683" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A540683" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="540684" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="540684" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A540684" s="2" t="s">
         <v>12</v>
       </c>
@@ -72037,7 +71851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540686" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="540686" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A540686" s="2" t="s">
         <v>14</v>
       </c>
@@ -72052,19 +71866,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="540689" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="540689" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A540689" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="540690" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A540690" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="540691" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A540691" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="540692" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -72072,12 +71886,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="540693" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="540693" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A540693" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="540694" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="540694" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A540694" s="2" t="s">
         <v>20</v>
       </c>
@@ -72092,17 +71906,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="540697" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="540697" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A540697" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="540698" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="540698" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A540698" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="540699" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="540699" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A540699" s="2" t="s">
         <v>25</v>
       </c>
@@ -72127,17 +71941,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557060" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="557060" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A557060" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="557061" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="557061" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A557061" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="557062" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="557062" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A557062" s="2" t="s">
         <v>6</v>
       </c>
@@ -72152,7 +71966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="557065" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="557065" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A557065" s="2" t="s">
         <v>9</v>
       </c>
@@ -72162,12 +71976,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="557067" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="557067" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A557067" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="557068" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="557068" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A557068" s="2" t="s">
         <v>12</v>
       </c>
@@ -72177,7 +71991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557070" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="557070" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A557070" s="2" t="s">
         <v>14</v>
       </c>
@@ -72192,19 +72006,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="557073" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="557073" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A557073" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="557074" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A557074" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="557075" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A557075" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="557076" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -72212,12 +72026,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="557077" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="557077" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A557077" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="557078" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="557078" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A557078" s="2" t="s">
         <v>20</v>
       </c>
@@ -72232,17 +72046,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="557081" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="557081" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A557081" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="557082" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="557082" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A557082" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="557083" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="557083" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A557083" s="2" t="s">
         <v>25</v>
       </c>
@@ -72267,17 +72081,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="573444" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="573444" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A573444" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="573445" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="573445" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A573445" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="573446" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="573446" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A573446" s="2" t="s">
         <v>6</v>
       </c>
@@ -72292,7 +72106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="573449" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="573449" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A573449" s="2" t="s">
         <v>9</v>
       </c>
@@ -72302,12 +72116,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="573451" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="573451" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A573451" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="573452" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="573452" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A573452" s="2" t="s">
         <v>12</v>
       </c>
@@ -72317,7 +72131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="573454" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="573454" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A573454" s="2" t="s">
         <v>14</v>
       </c>
@@ -72332,19 +72146,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="573457" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="573457" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A573457" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="573458" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A573458" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="573459" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A573459" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="573460" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -72352,12 +72166,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="573461" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="573461" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A573461" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="573462" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="573462" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A573462" s="2" t="s">
         <v>20</v>
       </c>
@@ -72372,17 +72186,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="573465" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="573465" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A573465" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="573466" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="573466" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A573466" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="573467" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="573467" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A573467" s="2" t="s">
         <v>25</v>
       </c>
@@ -72407,17 +72221,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589828" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="589828" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A589828" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="589829" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="589829" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A589829" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="589830" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="589830" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A589830" s="2" t="s">
         <v>6</v>
       </c>
@@ -72432,7 +72246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="589833" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="589833" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A589833" s="2" t="s">
         <v>9</v>
       </c>
@@ -72442,12 +72256,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589835" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="589835" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A589835" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="589836" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="589836" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A589836" s="2" t="s">
         <v>12</v>
       </c>
@@ -72457,7 +72271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="589838" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="589838" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A589838" s="2" t="s">
         <v>14</v>
       </c>
@@ -72472,19 +72286,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="589841" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="589841" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A589841" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="589842" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A589842" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="589843" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A589843" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="589844" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -72492,12 +72306,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="589845" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="589845" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A589845" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="589846" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="589846" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A589846" s="2" t="s">
         <v>20</v>
       </c>
@@ -72512,17 +72326,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="589849" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="589849" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A589849" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="589850" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="589850" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A589850" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="589851" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="589851" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A589851" s="2" t="s">
         <v>25</v>
       </c>
@@ -72547,17 +72361,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="606212" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="606212" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A606212" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="606213" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="606213" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A606213" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="606214" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="606214" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A606214" s="2" t="s">
         <v>6</v>
       </c>
@@ -72572,7 +72386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="606217" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="606217" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A606217" s="2" t="s">
         <v>9</v>
       </c>
@@ -72582,12 +72396,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="606219" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="606219" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A606219" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="606220" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="606220" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A606220" s="2" t="s">
         <v>12</v>
       </c>
@@ -72597,7 +72411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="606222" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="606222" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A606222" s="2" t="s">
         <v>14</v>
       </c>
@@ -72612,19 +72426,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="606225" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="606225" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A606225" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="606226" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A606226" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="606227" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A606227" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="606228" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -72632,12 +72446,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="606229" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="606229" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A606229" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="606230" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="606230" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A606230" s="2" t="s">
         <v>20</v>
       </c>
@@ -72652,17 +72466,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="606233" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="606233" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A606233" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="606234" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="606234" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A606234" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="606235" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="606235" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A606235" s="2" t="s">
         <v>25</v>
       </c>
@@ -72687,17 +72501,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622596" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="622596" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A622596" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="622597" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="622597" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A622597" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="622598" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="622598" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A622598" s="2" t="s">
         <v>6</v>
       </c>
@@ -72712,7 +72526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622601" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="622601" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A622601" s="2" t="s">
         <v>9</v>
       </c>
@@ -72722,12 +72536,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="622603" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="622603" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A622603" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="622604" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="622604" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A622604" s="2" t="s">
         <v>12</v>
       </c>
@@ -72737,7 +72551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="622606" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="622606" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A622606" s="2" t="s">
         <v>14</v>
       </c>
@@ -72752,19 +72566,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="622609" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="622609" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A622609" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="622610" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A622610" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="622611" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A622611" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="622612" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -72772,12 +72586,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="622613" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="622613" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A622613" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="622614" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="622614" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A622614" s="2" t="s">
         <v>20</v>
       </c>
@@ -72792,17 +72606,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="622617" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="622617" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A622617" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="622618" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="622618" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A622618" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="622619" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="622619" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A622619" s="2" t="s">
         <v>25</v>
       </c>
@@ -72827,17 +72641,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="638980" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="638980" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A638980" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="638981" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="638981" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A638981" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="638982" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="638982" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A638982" s="2" t="s">
         <v>6</v>
       </c>
@@ -72852,7 +72666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638985" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="638985" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A638985" s="2" t="s">
         <v>9</v>
       </c>
@@ -72862,12 +72676,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="638987" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="638987" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A638987" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="638988" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="638988" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A638988" s="2" t="s">
         <v>12</v>
       </c>
@@ -72877,7 +72691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="638990" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="638990" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A638990" s="2" t="s">
         <v>14</v>
       </c>
@@ -72892,19 +72706,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="638993" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="638993" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A638993" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="638994" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A638994" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="638995" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A638995" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="638996" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -72912,12 +72726,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="638997" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="638997" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A638997" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="638998" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="638998" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A638998" s="2" t="s">
         <v>20</v>
       </c>
@@ -72932,17 +72746,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="639001" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="639001" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A639001" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="639002" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="639002" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A639002" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="639003" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="639003" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A639003" s="2" t="s">
         <v>25</v>
       </c>
@@ -72967,17 +72781,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655364" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="655364" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A655364" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="655365" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="655365" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A655365" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="655366" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="655366" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A655366" s="2" t="s">
         <v>6</v>
       </c>
@@ -72992,7 +72806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="655369" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="655369" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A655369" s="2" t="s">
         <v>9</v>
       </c>
@@ -73002,12 +72816,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="655371" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="655371" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A655371" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="655372" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="655372" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A655372" s="2" t="s">
         <v>12</v>
       </c>
@@ -73017,7 +72831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="655374" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="655374" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A655374" s="2" t="s">
         <v>14</v>
       </c>
@@ -73032,19 +72846,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655377" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="655377" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A655377" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="655378" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A655378" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="655379" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A655379" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="655380" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -73052,12 +72866,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="655381" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="655381" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A655381" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="655382" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="655382" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A655382" s="2" t="s">
         <v>20</v>
       </c>
@@ -73072,17 +72886,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="655385" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="655385" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A655385" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="655386" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="655386" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A655386" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="655387" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="655387" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A655387" s="2" t="s">
         <v>25</v>
       </c>
@@ -73107,17 +72921,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="671748" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="671748" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A671748" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="671749" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="671749" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A671749" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="671750" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="671750" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A671750" s="2" t="s">
         <v>6</v>
       </c>
@@ -73132,7 +72946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="671753" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="671753" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A671753" s="2" t="s">
         <v>9</v>
       </c>
@@ -73142,12 +72956,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="671755" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="671755" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A671755" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="671756" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="671756" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A671756" s="2" t="s">
         <v>12</v>
       </c>
@@ -73157,7 +72971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="671758" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="671758" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A671758" s="2" t="s">
         <v>14</v>
       </c>
@@ -73172,19 +72986,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="671761" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="671761" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A671761" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="671762" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A671762" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="671763" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A671763" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="671764" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -73192,12 +73006,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="671765" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="671765" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A671765" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="671766" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="671766" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A671766" s="2" t="s">
         <v>20</v>
       </c>
@@ -73212,17 +73026,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="671769" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="671769" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A671769" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="671770" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="671770" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A671770" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="671771" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="671771" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A671771" s="2" t="s">
         <v>25</v>
       </c>
@@ -73247,17 +73061,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="688132" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="688132" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A688132" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="688133" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="688133" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A688133" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="688134" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="688134" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A688134" s="2" t="s">
         <v>6</v>
       </c>
@@ -73272,7 +73086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="688137" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="688137" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A688137" s="2" t="s">
         <v>9</v>
       </c>
@@ -73282,12 +73096,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="688139" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="688139" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A688139" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="688140" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="688140" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A688140" s="2" t="s">
         <v>12</v>
       </c>
@@ -73297,7 +73111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="688142" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="688142" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A688142" s="2" t="s">
         <v>14</v>
       </c>
@@ -73312,19 +73126,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="688145" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="688145" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A688145" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="688146" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A688146" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="688147" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A688147" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="688148" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -73332,12 +73146,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="688149" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="688149" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A688149" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="688150" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="688150" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A688150" s="2" t="s">
         <v>20</v>
       </c>
@@ -73352,17 +73166,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="688153" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="688153" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A688153" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="688154" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="688154" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A688154" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="688155" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="688155" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A688155" s="2" t="s">
         <v>25</v>
       </c>
@@ -73387,17 +73201,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="704516" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="704516" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A704516" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="704517" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="704517" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A704517" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="704518" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="704518" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A704518" s="2" t="s">
         <v>6</v>
       </c>
@@ -73412,7 +73226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="704521" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="704521" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A704521" s="2" t="s">
         <v>9</v>
       </c>
@@ -73422,12 +73236,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="704523" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="704523" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A704523" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="704524" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="704524" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A704524" s="2" t="s">
         <v>12</v>
       </c>
@@ -73437,7 +73251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="704526" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="704526" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A704526" s="2" t="s">
         <v>14</v>
       </c>
@@ -73452,19 +73266,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="704529" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="704529" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A704529" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="704530" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A704530" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="704531" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A704531" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="704532" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -73472,12 +73286,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="704533" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="704533" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A704533" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="704534" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="704534" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A704534" s="2" t="s">
         <v>20</v>
       </c>
@@ -73492,17 +73306,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="704537" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="704537" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A704537" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="704538" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="704538" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A704538" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="704539" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="704539" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A704539" s="2" t="s">
         <v>25</v>
       </c>
@@ -73527,17 +73341,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="720900" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="720900" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A720900" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="720901" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="720901" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A720901" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="720902" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="720902" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A720902" s="2" t="s">
         <v>6</v>
       </c>
@@ -73552,7 +73366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="720905" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="720905" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A720905" s="2" t="s">
         <v>9</v>
       </c>
@@ -73562,12 +73376,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="720907" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="720907" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A720907" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="720908" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="720908" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A720908" s="2" t="s">
         <v>12</v>
       </c>
@@ -73577,7 +73391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="720910" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="720910" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A720910" s="2" t="s">
         <v>14</v>
       </c>
@@ -73592,19 +73406,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="720913" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="720913" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A720913" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="720914" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A720914" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="720915" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A720915" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="720916" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -73612,12 +73426,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="720917" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="720917" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A720917" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="720918" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="720918" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A720918" s="2" t="s">
         <v>20</v>
       </c>
@@ -73632,17 +73446,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="720921" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="720921" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A720921" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="720922" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="720922" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A720922" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="720923" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="720923" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A720923" s="2" t="s">
         <v>25</v>
       </c>
@@ -73667,17 +73481,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="737284" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="737284" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A737284" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="737285" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="737285" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A737285" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="737286" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="737286" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A737286" s="2" t="s">
         <v>6</v>
       </c>
@@ -73692,7 +73506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="737289" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="737289" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A737289" s="2" t="s">
         <v>9</v>
       </c>
@@ -73702,12 +73516,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="737291" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="737291" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A737291" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="737292" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="737292" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A737292" s="2" t="s">
         <v>12</v>
       </c>
@@ -73717,7 +73531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="737294" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="737294" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A737294" s="2" t="s">
         <v>14</v>
       </c>
@@ -73732,19 +73546,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="737297" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="737297" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A737297" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="737298" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A737298" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="737299" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A737299" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="737300" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -73752,12 +73566,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="737301" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="737301" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A737301" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="737302" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="737302" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A737302" s="2" t="s">
         <v>20</v>
       </c>
@@ -73772,17 +73586,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="737305" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="737305" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A737305" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="737306" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="737306" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A737306" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="737307" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="737307" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A737307" s="2" t="s">
         <v>25</v>
       </c>
@@ -73807,17 +73621,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="753668" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="753668" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A753668" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="753669" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="753669" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A753669" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="753670" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="753670" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A753670" s="2" t="s">
         <v>6</v>
       </c>
@@ -73832,7 +73646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="753673" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="753673" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A753673" s="2" t="s">
         <v>9</v>
       </c>
@@ -73842,12 +73656,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="753675" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="753675" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A753675" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="753676" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="753676" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A753676" s="2" t="s">
         <v>12</v>
       </c>
@@ -73857,7 +73671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="753678" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="753678" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A753678" s="2" t="s">
         <v>14</v>
       </c>
@@ -73872,19 +73686,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="753681" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="753681" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A753681" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="753682" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A753682" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="753683" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A753683" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="753684" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -73892,12 +73706,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="753685" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="753685" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A753685" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="753686" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="753686" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A753686" s="2" t="s">
         <v>20</v>
       </c>
@@ -73912,17 +73726,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="753689" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="753689" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A753689" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="753690" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="753690" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A753690" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="753691" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="753691" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A753691" s="2" t="s">
         <v>25</v>
       </c>
@@ -73947,17 +73761,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="770052" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="770052" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A770052" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="770053" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="770053" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A770053" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="770054" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="770054" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A770054" s="2" t="s">
         <v>6</v>
       </c>
@@ -73972,7 +73786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="770057" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="770057" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A770057" s="2" t="s">
         <v>9</v>
       </c>
@@ -73982,12 +73796,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="770059" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="770059" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A770059" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="770060" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="770060" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A770060" s="2" t="s">
         <v>12</v>
       </c>
@@ -73997,7 +73811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="770062" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="770062" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A770062" s="2" t="s">
         <v>14</v>
       </c>
@@ -74012,19 +73826,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="770065" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="770065" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A770065" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="770066" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A770066" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="770067" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A770067" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="770068" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -74032,12 +73846,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="770069" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="770069" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A770069" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="770070" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="770070" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A770070" s="2" t="s">
         <v>20</v>
       </c>
@@ -74052,17 +73866,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="770073" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="770073" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A770073" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="770074" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="770074" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A770074" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="770075" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="770075" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A770075" s="2" t="s">
         <v>25</v>
       </c>
@@ -74087,17 +73901,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="786436" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="786436" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A786436" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="786437" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="786437" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A786437" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="786438" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="786438" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A786438" s="2" t="s">
         <v>6</v>
       </c>
@@ -74112,7 +73926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="786441" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="786441" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A786441" s="2" t="s">
         <v>9</v>
       </c>
@@ -74122,12 +73936,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="786443" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="786443" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A786443" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="786444" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="786444" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A786444" s="2" t="s">
         <v>12</v>
       </c>
@@ -74137,7 +73951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="786446" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="786446" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A786446" s="2" t="s">
         <v>14</v>
       </c>
@@ -74152,19 +73966,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="786449" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="786449" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A786449" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="786450" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A786450" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="786451" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A786451" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="786452" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -74172,12 +73986,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="786453" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="786453" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A786453" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="786454" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="786454" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A786454" s="2" t="s">
         <v>20</v>
       </c>
@@ -74192,17 +74006,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="786457" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="786457" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A786457" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="786458" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="786458" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A786458" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="786459" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="786459" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A786459" s="2" t="s">
         <v>25</v>
       </c>
@@ -74227,17 +74041,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="802820" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="802820" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A802820" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="802821" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="802821" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A802821" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="802822" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="802822" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A802822" s="2" t="s">
         <v>6</v>
       </c>
@@ -74252,7 +74066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="802825" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="802825" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A802825" s="2" t="s">
         <v>9</v>
       </c>
@@ -74262,12 +74076,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="802827" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="802827" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A802827" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="802828" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="802828" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A802828" s="2" t="s">
         <v>12</v>
       </c>
@@ -74277,7 +74091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="802830" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="802830" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A802830" s="2" t="s">
         <v>14</v>
       </c>
@@ -74292,19 +74106,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="802833" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="802833" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A802833" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="802834" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A802834" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="802835" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A802835" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="802836" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -74312,12 +74126,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="802837" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="802837" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A802837" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="802838" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="802838" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A802838" s="2" t="s">
         <v>20</v>
       </c>
@@ -74332,17 +74146,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="802841" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="802841" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A802841" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="802842" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="802842" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A802842" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="802843" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="802843" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A802843" s="2" t="s">
         <v>25</v>
       </c>
@@ -74367,17 +74181,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="819204" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="819204" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A819204" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="819205" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="819205" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A819205" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="819206" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="819206" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A819206" s="2" t="s">
         <v>6</v>
       </c>
@@ -74392,7 +74206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="819209" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="819209" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A819209" s="2" t="s">
         <v>9</v>
       </c>
@@ -74402,12 +74216,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="819211" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="819211" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A819211" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="819212" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="819212" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A819212" s="2" t="s">
         <v>12</v>
       </c>
@@ -74417,7 +74231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="819214" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="819214" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A819214" s="2" t="s">
         <v>14</v>
       </c>
@@ -74432,19 +74246,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="819217" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="819217" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A819217" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="819218" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A819218" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="819219" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A819219" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="819220" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -74452,12 +74266,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="819221" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="819221" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A819221" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="819222" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="819222" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A819222" s="2" t="s">
         <v>20</v>
       </c>
@@ -74472,17 +74286,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="819225" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="819225" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A819225" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="819226" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="819226" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A819226" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="819227" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="819227" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A819227" s="2" t="s">
         <v>25</v>
       </c>
@@ -74507,17 +74321,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="835588" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="835588" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A835588" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="835589" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="835589" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A835589" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="835590" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="835590" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A835590" s="2" t="s">
         <v>6</v>
       </c>
@@ -74532,7 +74346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="835593" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="835593" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A835593" s="2" t="s">
         <v>9</v>
       </c>
@@ -74542,12 +74356,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="835595" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="835595" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A835595" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="835596" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="835596" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A835596" s="2" t="s">
         <v>12</v>
       </c>
@@ -74557,7 +74371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="835598" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="835598" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A835598" s="2" t="s">
         <v>14</v>
       </c>
@@ -74572,19 +74386,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="835601" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="835601" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A835601" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="835602" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A835602" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="835603" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A835603" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="835604" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -74592,12 +74406,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="835605" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="835605" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A835605" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="835606" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="835606" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A835606" s="2" t="s">
         <v>20</v>
       </c>
@@ -74612,17 +74426,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="835609" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="835609" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A835609" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="835610" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="835610" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A835610" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="835611" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="835611" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A835611" s="2" t="s">
         <v>25</v>
       </c>
@@ -74647,17 +74461,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="851972" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="851972" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A851972" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="851973" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="851973" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A851973" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="851974" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="851974" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A851974" s="2" t="s">
         <v>6</v>
       </c>
@@ -74672,7 +74486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="851977" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="851977" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A851977" s="2" t="s">
         <v>9</v>
       </c>
@@ -74682,12 +74496,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="851979" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="851979" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A851979" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="851980" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="851980" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A851980" s="2" t="s">
         <v>12</v>
       </c>
@@ -74697,7 +74511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="851982" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="851982" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A851982" s="2" t="s">
         <v>14</v>
       </c>
@@ -74712,19 +74526,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="851985" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="851985" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A851985" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="851986" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A851986" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="851987" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A851987" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="851988" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -74732,12 +74546,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="851989" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="851989" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A851989" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="851990" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="851990" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A851990" s="2" t="s">
         <v>20</v>
       </c>
@@ -74752,17 +74566,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="851993" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="851993" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A851993" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="851994" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="851994" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A851994" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="851995" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="851995" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A851995" s="2" t="s">
         <v>25</v>
       </c>
@@ -74787,17 +74601,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="868356" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="868356" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A868356" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="868357" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="868357" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A868357" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="868358" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="868358" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A868358" s="2" t="s">
         <v>6</v>
       </c>
@@ -74812,7 +74626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="868361" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="868361" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A868361" s="2" t="s">
         <v>9</v>
       </c>
@@ -74822,12 +74636,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="868363" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="868363" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A868363" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="868364" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="868364" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A868364" s="2" t="s">
         <v>12</v>
       </c>
@@ -74837,7 +74651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="868366" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="868366" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A868366" s="2" t="s">
         <v>14</v>
       </c>
@@ -74852,19 +74666,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="868369" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="868369" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A868369" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="868370" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A868370" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="868371" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A868371" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="868372" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -74872,12 +74686,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="868373" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="868373" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A868373" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="868374" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="868374" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A868374" s="2" t="s">
         <v>20</v>
       </c>
@@ -74892,17 +74706,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="868377" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="868377" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A868377" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="868378" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="868378" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A868378" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="868379" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="868379" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A868379" s="2" t="s">
         <v>25</v>
       </c>
@@ -74927,17 +74741,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="884740" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="884740" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A884740" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="884741" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="884741" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A884741" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="884742" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="884742" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A884742" s="2" t="s">
         <v>6</v>
       </c>
@@ -74952,7 +74766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="884745" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="884745" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A884745" s="2" t="s">
         <v>9</v>
       </c>
@@ -74962,12 +74776,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="884747" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="884747" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A884747" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="884748" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="884748" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A884748" s="2" t="s">
         <v>12</v>
       </c>
@@ -74977,7 +74791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="884750" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="884750" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A884750" s="2" t="s">
         <v>14</v>
       </c>
@@ -74992,19 +74806,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="884753" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="884753" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A884753" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="884754" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A884754" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="884755" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A884755" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="884756" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -75012,12 +74826,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="884757" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="884757" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A884757" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="884758" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="884758" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A884758" s="2" t="s">
         <v>20</v>
       </c>
@@ -75032,17 +74846,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="884761" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="884761" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A884761" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="884762" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="884762" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A884762" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="884763" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="884763" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A884763" s="2" t="s">
         <v>25</v>
       </c>
@@ -75067,17 +74881,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="901124" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="901124" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A901124" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="901125" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="901125" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A901125" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="901126" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="901126" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A901126" s="2" t="s">
         <v>6</v>
       </c>
@@ -75092,7 +74906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="901129" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="901129" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A901129" s="2" t="s">
         <v>9</v>
       </c>
@@ -75102,12 +74916,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="901131" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="901131" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A901131" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="901132" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="901132" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A901132" s="2" t="s">
         <v>12</v>
       </c>
@@ -75117,7 +74931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="901134" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="901134" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A901134" s="2" t="s">
         <v>14</v>
       </c>
@@ -75132,19 +74946,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="901137" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="901137" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A901137" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="901138" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A901138" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="901139" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A901139" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="901140" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -75152,12 +74966,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="901141" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="901141" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A901141" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="901142" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="901142" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A901142" s="2" t="s">
         <v>20</v>
       </c>
@@ -75172,17 +74986,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="901145" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="901145" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A901145" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="901146" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="901146" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A901146" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="901147" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="901147" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A901147" s="2" t="s">
         <v>25</v>
       </c>
@@ -75207,17 +75021,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="917508" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="917508" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A917508" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="917509" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="917509" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A917509" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="917510" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="917510" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A917510" s="2" t="s">
         <v>6</v>
       </c>
@@ -75232,7 +75046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="917513" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="917513" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A917513" s="2" t="s">
         <v>9</v>
       </c>
@@ -75242,12 +75056,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="917515" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="917515" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A917515" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="917516" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="917516" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A917516" s="2" t="s">
         <v>12</v>
       </c>
@@ -75257,7 +75071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="917518" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="917518" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A917518" s="2" t="s">
         <v>14</v>
       </c>
@@ -75272,19 +75086,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="917521" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="917521" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A917521" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="917522" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A917522" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="917523" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A917523" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="917524" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -75292,12 +75106,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="917525" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="917525" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A917525" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="917526" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="917526" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A917526" s="2" t="s">
         <v>20</v>
       </c>
@@ -75312,17 +75126,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="917529" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="917529" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A917529" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="917530" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="917530" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A917530" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="917531" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="917531" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A917531" s="2" t="s">
         <v>25</v>
       </c>
@@ -75347,17 +75161,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="933892" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="933892" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A933892" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="933893" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="933893" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A933893" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="933894" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="933894" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A933894" s="2" t="s">
         <v>6</v>
       </c>
@@ -75372,7 +75186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="933897" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="933897" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A933897" s="2" t="s">
         <v>9</v>
       </c>
@@ -75382,12 +75196,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="933899" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="933899" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A933899" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="933900" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="933900" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A933900" s="2" t="s">
         <v>12</v>
       </c>
@@ -75397,7 +75211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="933902" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="933902" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A933902" s="2" t="s">
         <v>14</v>
       </c>
@@ -75412,19 +75226,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="933905" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="933905" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A933905" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="933906" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A933906" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="933907" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A933907" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="933908" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -75432,12 +75246,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="933909" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="933909" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A933909" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="933910" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="933910" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A933910" s="2" t="s">
         <v>20</v>
       </c>
@@ -75452,17 +75266,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="933913" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="933913" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A933913" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="933914" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="933914" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A933914" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="933915" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="933915" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A933915" s="2" t="s">
         <v>25</v>
       </c>
@@ -75487,17 +75301,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="950276" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="950276" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A950276" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="950277" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="950277" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A950277" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="950278" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="950278" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A950278" s="2" t="s">
         <v>6</v>
       </c>
@@ -75512,7 +75326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="950281" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="950281" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A950281" s="2" t="s">
         <v>9</v>
       </c>
@@ -75522,12 +75336,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="950283" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="950283" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A950283" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="950284" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="950284" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A950284" s="2" t="s">
         <v>12</v>
       </c>
@@ -75537,7 +75351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="950286" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="950286" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A950286" s="2" t="s">
         <v>14</v>
       </c>
@@ -75552,19 +75366,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="950289" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="950289" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A950289" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="950290" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A950290" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="950291" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A950291" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="950292" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -75572,12 +75386,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="950293" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="950293" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A950293" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="950294" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="950294" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A950294" s="2" t="s">
         <v>20</v>
       </c>
@@ -75592,17 +75406,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="950297" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="950297" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A950297" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="950298" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="950298" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A950298" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="950299" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="950299" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A950299" s="2" t="s">
         <v>25</v>
       </c>
@@ -75627,17 +75441,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="966660" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="966660" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A966660" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="966661" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="966661" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A966661" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="966662" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="966662" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A966662" s="2" t="s">
         <v>6</v>
       </c>
@@ -75652,7 +75466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="966665" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="966665" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A966665" s="2" t="s">
         <v>9</v>
       </c>
@@ -75662,12 +75476,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="966667" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="966667" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A966667" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="966668" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="966668" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A966668" s="2" t="s">
         <v>12</v>
       </c>
@@ -75677,7 +75491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="966670" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="966670" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A966670" s="2" t="s">
         <v>14</v>
       </c>
@@ -75692,19 +75506,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="966673" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="966673" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A966673" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="966674" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A966674" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="966675" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A966675" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="966676" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -75712,12 +75526,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="966677" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="966677" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A966677" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="966678" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="966678" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A966678" s="2" t="s">
         <v>20</v>
       </c>
@@ -75732,17 +75546,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="966681" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="966681" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A966681" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="966682" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="966682" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A966682" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="966683" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="966683" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A966683" s="2" t="s">
         <v>25</v>
       </c>
@@ -75767,17 +75581,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="983044" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="983044" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A983044" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="983045" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="983045" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A983045" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="983046" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="983046" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A983046" s="2" t="s">
         <v>6</v>
       </c>
@@ -75792,7 +75606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="983049" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="983049" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A983049" s="2" t="s">
         <v>9</v>
       </c>
@@ -75802,12 +75616,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="983051" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="983051" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A983051" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="983052" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="983052" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A983052" s="2" t="s">
         <v>12</v>
       </c>
@@ -75817,7 +75631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="983054" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="983054" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A983054" s="2" t="s">
         <v>14</v>
       </c>
@@ -75832,19 +75646,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="983057" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="983057" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A983057" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="983058" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A983058" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="983059" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A983059" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="983060" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -75852,12 +75666,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="983061" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="983061" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A983061" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="983062" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="983062" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A983062" s="2" t="s">
         <v>20</v>
       </c>
@@ -75872,17 +75686,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="983065" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="983065" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A983065" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="983066" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="983066" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A983066" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="983067" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="983067" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A983067" s="2" t="s">
         <v>25</v>
       </c>
@@ -75907,17 +75721,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="999428" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="999428" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A999428" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="999429" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="999429" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A999429" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="999430" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="999430" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A999430" s="2" t="s">
         <v>6</v>
       </c>
@@ -75932,7 +75746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="999433" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="999433" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A999433" s="2" t="s">
         <v>9</v>
       </c>
@@ -75942,12 +75756,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="999435" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="999435" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A999435" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="999436" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="999436" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A999436" s="2" t="s">
         <v>12</v>
       </c>
@@ -75957,7 +75771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="999438" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="999438" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A999438" s="2" t="s">
         <v>14</v>
       </c>
@@ -75972,19 +75786,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="999441" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="999441" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A999441" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="999442" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A999442" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="999443" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A999443" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="999444" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -75992,12 +75806,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="999445" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="999445" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A999445" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="999446" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="999446" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A999446" s="2" t="s">
         <v>20</v>
       </c>
@@ -76012,17 +75826,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="999449" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="999449" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A999449" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="999450" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="999450" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A999450" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="999451" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="999451" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A999451" s="2" t="s">
         <v>25</v>
       </c>
@@ -76047,17 +75861,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1015812" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1015812" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1015812" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1015813" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1015813" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1015813" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="1015814" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1015814" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1015814" s="2" t="s">
         <v>6</v>
       </c>
@@ -76072,7 +75886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1015817" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1015817" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1015817" s="2" t="s">
         <v>9</v>
       </c>
@@ -76082,12 +75896,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1015819" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1015819" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1015819" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1015820" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1015820" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1015820" s="2" t="s">
         <v>12</v>
       </c>
@@ -76097,7 +75911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1015822" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1015822" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1015822" s="2" t="s">
         <v>14</v>
       </c>
@@ -76112,19 +75926,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1015825" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1015825" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1015825" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="1015826" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1015826" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1015827" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1015827" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="1015828" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -76132,12 +75946,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1015829" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1015829" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1015829" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="1015830" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="1015830" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1015830" s="2" t="s">
         <v>20</v>
       </c>
@@ -76152,17 +75966,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1015833" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1015833" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1015833" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="1015834" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1015834" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1015834" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1015835" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1015835" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1015835" s="2" t="s">
         <v>25</v>
       </c>
@@ -76187,17 +76001,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1032196" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1032196" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1032196" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1032197" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1032197" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1032197" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="1032198" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1032198" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1032198" s="2" t="s">
         <v>6</v>
       </c>
@@ -76212,7 +76026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1032201" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1032201" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1032201" s="2" t="s">
         <v>9</v>
       </c>
@@ -76222,12 +76036,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1032203" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1032203" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1032203" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1032204" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1032204" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1032204" s="2" t="s">
         <v>12</v>
       </c>
@@ -76237,7 +76051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1032206" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1032206" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1032206" s="2" t="s">
         <v>14</v>
       </c>
@@ -76252,19 +76066,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1032209" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1032209" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1032209" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="1032210" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1032210" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1032211" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1032211" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="1032212" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -76272,12 +76086,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1032213" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1032213" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1032213" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="1032214" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="1032214" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1032214" s="2" t="s">
         <v>20</v>
       </c>
@@ -76292,17 +76106,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1032217" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1032217" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1032217" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="1032218" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1032218" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1032218" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1032219" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1032219" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1032219" s="2" t="s">
         <v>25</v>
       </c>

--- a/Decoder-Only/GPT/data/Test.xlsx
+++ b/Decoder-Only/GPT/data/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marietano/Downloads/Dissertation stuff/Dissertation (git)/Decoder-Only/GPT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D075EF7-4858-C54D-B155-52B914E1CE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B07524-DEF0-0B48-8DB8-4876129B87B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="600" windowWidth="24480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="600" windowWidth="24480" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gold" sheetId="1" r:id="rId1"/>
@@ -2580,10 +2580,10 @@
   <dimension ref="A1:AC716"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N703" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C561" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O715" sqref="O715"/>
+      <selection pane="bottomRight" activeCell="A565" sqref="A565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2686,7 +2686,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="1" t="str" cm="1">
-        <f t="array" ref="B2">_xlfn.TEXTJOIN(", ", TRUE, IF(C2:AC2=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B2">_xlfn.TEXTJOIN(", ", TRUE, IF(C2:AC2=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C2" s="1">
@@ -2776,7 +2776,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="str" cm="1">
-        <f t="array" ref="B3">_xlfn.TEXTJOIN(", ", TRUE, IF(C3:AC3=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B3">_xlfn.TEXTJOIN(", ", TRUE, IF(C3:AC3=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C3" s="1">
@@ -2866,7 +2866,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="1" t="str" cm="1">
-        <f t="array" ref="B4">_xlfn.TEXTJOIN(", ", TRUE, IF(C4:AC4=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B4">_xlfn.TEXTJOIN(", ", TRUE, IF(C4:AC4=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C4" s="1">
@@ -2956,7 +2956,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="1" t="str" cm="1">
-        <f t="array" ref="B5">_xlfn.TEXTJOIN(", ", TRUE, IF(C5:AC5=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B5">_xlfn.TEXTJOIN(", ", TRUE, IF(C5:AC5=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C5" s="1">
@@ -3046,7 +3046,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="1" t="str" cm="1">
-        <f t="array" ref="B6">_xlfn.TEXTJOIN(", ", TRUE, IF(C6:AC6=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B6">_xlfn.TEXTJOIN(", ", TRUE, IF(C6:AC6=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C6" s="1">
@@ -3136,7 +3136,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="1" t="str" cm="1">
-        <f t="array" ref="B7">_xlfn.TEXTJOIN(", ", TRUE, IF(C7:AC7=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B7">_xlfn.TEXTJOIN(", ", TRUE, IF(C7:AC7=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C7" s="1">
@@ -3226,7 +3226,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="1" t="str" cm="1">
-        <f t="array" ref="B8">_xlfn.TEXTJOIN(", ", TRUE, IF(C8:AC8=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B8">_xlfn.TEXTJOIN(", ", TRUE, IF(C8:AC8=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C8" s="1">
@@ -3316,7 +3316,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="str" cm="1">
-        <f t="array" ref="B9">_xlfn.TEXTJOIN(", ", TRUE, IF(C9:AC9=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B9">_xlfn.TEXTJOIN(", ", TRUE, IF(C9:AC9=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C9" s="1">
@@ -3406,7 +3406,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="1" t="str" cm="1">
-        <f t="array" ref="B10">_xlfn.TEXTJOIN(", ", TRUE, IF(C10:AC10=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B10">_xlfn.TEXTJOIN(", ", TRUE, IF(C10:AC10=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C10" s="1">
@@ -3496,7 +3496,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="1" t="str" cm="1">
-        <f t="array" ref="B11">_xlfn.TEXTJOIN(", ", TRUE, IF(C11:AC11=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B11">_xlfn.TEXTJOIN(", ", TRUE, IF(C11:AC11=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C11" s="1">
@@ -3586,7 +3586,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="1" t="str" cm="1">
-        <f t="array" ref="B12">_xlfn.TEXTJOIN(", ", TRUE, IF(C12:AC12=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B12">_xlfn.TEXTJOIN(", ", TRUE, IF(C12:AC12=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C12" s="1">
@@ -3676,7 +3676,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="1" t="str" cm="1">
-        <f t="array" ref="B13">_xlfn.TEXTJOIN(", ", TRUE, IF(C13:AC13=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B13">_xlfn.TEXTJOIN(", ", TRUE, IF(C13:AC13=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C13" s="1">
@@ -3766,7 +3766,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="str" cm="1">
-        <f t="array" ref="B14">_xlfn.TEXTJOIN(", ", TRUE, IF(C14:AC14=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B14">_xlfn.TEXTJOIN(", ", TRUE, IF(C14:AC14=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C14" s="1">
@@ -3856,7 +3856,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="1" t="str" cm="1">
-        <f t="array" ref="B15">_xlfn.TEXTJOIN(", ", TRUE, IF(C15:AC15=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B15">_xlfn.TEXTJOIN(", ", TRUE, IF(C15:AC15=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C15" s="1">
@@ -3946,7 +3946,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="1" t="str" cm="1">
-        <f t="array" ref="B16">_xlfn.TEXTJOIN(", ", TRUE, IF(C16:AC16=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B16">_xlfn.TEXTJOIN(", ", TRUE, IF(C16:AC16=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C16" s="1">
@@ -4036,7 +4036,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="1" t="str" cm="1">
-        <f t="array" ref="B17">_xlfn.TEXTJOIN(", ", TRUE, IF(C17:AC17=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B17">_xlfn.TEXTJOIN(", ", TRUE, IF(C17:AC17=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C17" s="1">
@@ -4126,7 +4126,7 @@
         <v>42</v>
       </c>
       <c r="B18" s="1" t="str" cm="1">
-        <f t="array" ref="B18">_xlfn.TEXTJOIN(", ", TRUE, IF(C18:AC18=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B18">_xlfn.TEXTJOIN(", ", TRUE, IF(C18:AC18=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C18" s="1">
@@ -4216,7 +4216,7 @@
         <v>43</v>
       </c>
       <c r="B19" s="1" t="str" cm="1">
-        <f t="array" ref="B19">_xlfn.TEXTJOIN(", ", TRUE, IF(C19:AC19=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B19">_xlfn.TEXTJOIN(", ", TRUE, IF(C19:AC19=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C19" s="1">
@@ -4306,7 +4306,7 @@
         <v>44</v>
       </c>
       <c r="B20" s="1" t="str" cm="1">
-        <f t="array" ref="B20">_xlfn.TEXTJOIN(", ", TRUE, IF(C20:AC20=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B20">_xlfn.TEXTJOIN(", ", TRUE, IF(C20:AC20=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C20" s="1">
@@ -4396,7 +4396,7 @@
         <v>45</v>
       </c>
       <c r="B21" s="1" t="str" cm="1">
-        <f t="array" ref="B21">_xlfn.TEXTJOIN(", ", TRUE, IF(C21:AC21=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B21">_xlfn.TEXTJOIN(", ", TRUE, IF(C21:AC21=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C21" s="1">
@@ -4486,7 +4486,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="1" t="str" cm="1">
-        <f t="array" ref="B22">_xlfn.TEXTJOIN(", ", TRUE, IF(C22:AC22=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B22">_xlfn.TEXTJOIN(", ", TRUE, IF(C22:AC22=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C22" s="1">
@@ -4576,7 +4576,7 @@
         <v>47</v>
       </c>
       <c r="B23" s="1" t="str" cm="1">
-        <f t="array" ref="B23">_xlfn.TEXTJOIN(", ", TRUE, IF(C23:AC23=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B23">_xlfn.TEXTJOIN(", ", TRUE, IF(C23:AC23=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C23" s="1">
@@ -4666,7 +4666,7 @@
         <v>48</v>
       </c>
       <c r="B24" s="1" t="str" cm="1">
-        <f t="array" ref="B24">_xlfn.TEXTJOIN(", ", TRUE, IF(C24:AC24=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B24">_xlfn.TEXTJOIN(", ", TRUE, IF(C24:AC24=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C24" s="1">
@@ -4756,7 +4756,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="1" t="str" cm="1">
-        <f t="array" ref="B25">_xlfn.TEXTJOIN(", ", TRUE, IF(C25:AC25=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B25">_xlfn.TEXTJOIN(", ", TRUE, IF(C25:AC25=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C25" s="1">
@@ -4846,7 +4846,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="1" t="str" cm="1">
-        <f t="array" ref="B26">_xlfn.TEXTJOIN(", ", TRUE, IF(C26:AC26=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B26">_xlfn.TEXTJOIN(", ", TRUE, IF(C26:AC26=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C26" s="1">
@@ -4936,7 +4936,7 @@
         <v>51</v>
       </c>
       <c r="B27" s="1" t="str" cm="1">
-        <f t="array" ref="B27">_xlfn.TEXTJOIN(", ", TRUE, IF(C27:AC27=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B27">_xlfn.TEXTJOIN(", ", TRUE, IF(C27:AC27=1, C$1:AC$1, ""))</f>
         <v>bin</v>
       </c>
       <c r="C27" s="1">
@@ -5026,7 +5026,7 @@
         <v>52</v>
       </c>
       <c r="B28" s="1" t="str" cm="1">
-        <f t="array" ref="B28">_xlfn.TEXTJOIN(", ", TRUE, IF(C28:AC28=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B28">_xlfn.TEXTJOIN(", ", TRUE, IF(C28:AC28=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C28" s="1">
@@ -5116,7 +5116,7 @@
         <v>53</v>
       </c>
       <c r="B29" s="1" t="str" cm="1">
-        <f t="array" ref="B29">_xlfn.TEXTJOIN(", ", TRUE, IF(C29:AC29=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B29">_xlfn.TEXTJOIN(", ", TRUE, IF(C29:AC29=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C29" s="1">
@@ -5206,7 +5206,7 @@
         <v>54</v>
       </c>
       <c r="B30" s="1" t="str" cm="1">
-        <f t="array" ref="B30">_xlfn.TEXTJOIN(", ", TRUE, IF(C30:AC30=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B30">_xlfn.TEXTJOIN(", ", TRUE, IF(C30:AC30=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C30" s="1">
@@ -5296,7 +5296,7 @@
         <v>55</v>
       </c>
       <c r="B31" s="1" t="str" cm="1">
-        <f t="array" ref="B31">_xlfn.TEXTJOIN(", ", TRUE, IF(C31:AC31=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B31">_xlfn.TEXTJOIN(", ", TRUE, IF(C31:AC31=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C31" s="1">
@@ -5386,7 +5386,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="1" t="str" cm="1">
-        <f t="array" ref="B32">_xlfn.TEXTJOIN(", ", TRUE, IF(C32:AC32=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B32">_xlfn.TEXTJOIN(", ", TRUE, IF(C32:AC32=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C32" s="1">
@@ -5476,7 +5476,7 @@
         <v>57</v>
       </c>
       <c r="B33" s="1" t="str" cm="1">
-        <f t="array" ref="B33">_xlfn.TEXTJOIN(", ", TRUE, IF(C33:AC33=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B33">_xlfn.TEXTJOIN(", ", TRUE, IF(C33:AC33=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C33" s="1">
@@ -5566,7 +5566,7 @@
         <v>58</v>
       </c>
       <c r="B34" s="1" t="str" cm="1">
-        <f t="array" ref="B34">_xlfn.TEXTJOIN(", ", TRUE, IF(C34:AC34=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B34">_xlfn.TEXTJOIN(", ", TRUE, IF(C34:AC34=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C34" s="1">
@@ -5656,7 +5656,7 @@
         <v>59</v>
       </c>
       <c r="B35" s="1" t="str" cm="1">
-        <f t="array" ref="B35">_xlfn.TEXTJOIN(", ", TRUE, IF(C35:AC35=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B35">_xlfn.TEXTJOIN(", ", TRUE, IF(C35:AC35=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C35" s="1">
@@ -5746,7 +5746,7 @@
         <v>60</v>
       </c>
       <c r="B36" s="1" t="str" cm="1">
-        <f t="array" ref="B36">_xlfn.TEXTJOIN(", ", TRUE, IF(C36:AC36=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B36">_xlfn.TEXTJOIN(", ", TRUE, IF(C36:AC36=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C36" s="1">
@@ -5836,7 +5836,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="1" t="str" cm="1">
-        <f t="array" ref="B37">_xlfn.TEXTJOIN(", ", TRUE, IF(C37:AC37=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B37">_xlfn.TEXTJOIN(", ", TRUE, IF(C37:AC37=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C37" s="1">
@@ -5926,7 +5926,7 @@
         <v>62</v>
       </c>
       <c r="B38" s="1" t="str" cm="1">
-        <f t="array" ref="B38">_xlfn.TEXTJOIN(", ", TRUE, IF(C38:AC38=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B38">_xlfn.TEXTJOIN(", ", TRUE, IF(C38:AC38=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C38" s="1">
@@ -6016,7 +6016,7 @@
         <v>63</v>
       </c>
       <c r="B39" s="1" t="str" cm="1">
-        <f t="array" ref="B39">_xlfn.TEXTJOIN(", ", TRUE, IF(C39:AC39=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B39">_xlfn.TEXTJOIN(", ", TRUE, IF(C39:AC39=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C39" s="1">
@@ -6106,8 +6106,8 @@
         <v>64</v>
       </c>
       <c r="B40" s="1" t="str" cm="1">
-        <f t="array" ref="B40">_xlfn.TEXTJOIN(", ", TRUE, IF(C40:AC40=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B40">_xlfn.TEXTJOIN(", ", TRUE, IF(C40:AC40=1, C$1:AC$1, ""))</f>
+        <v>past-tense-swap</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40" s="1">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>65</v>
       </c>
       <c r="B41" s="1" t="str" cm="1">
-        <f t="array" ref="B41">_xlfn.TEXTJOIN(", ", TRUE, IF(C41:AC41=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B41">_xlfn.TEXTJOIN(", ", TRUE, IF(C41:AC41=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C41" s="1">
@@ -6286,7 +6286,7 @@
         <v>66</v>
       </c>
       <c r="B42" s="1" t="str" cm="1">
-        <f t="array" ref="B42">_xlfn.TEXTJOIN(", ", TRUE, IF(C42:AC42=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B42">_xlfn.TEXTJOIN(", ", TRUE, IF(C42:AC42=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C42" s="1">
@@ -6376,7 +6376,7 @@
         <v>67</v>
       </c>
       <c r="B43" s="1" t="str" cm="1">
-        <f t="array" ref="B43">_xlfn.TEXTJOIN(", ", TRUE, IF(C43:AC43=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B43">_xlfn.TEXTJOIN(", ", TRUE, IF(C43:AC43=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C43" s="1">
@@ -6466,7 +6466,7 @@
         <v>68</v>
       </c>
       <c r="B44" s="1" t="str" cm="1">
-        <f t="array" ref="B44">_xlfn.TEXTJOIN(", ", TRUE, IF(C44:AC44=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B44">_xlfn.TEXTJOIN(", ", TRUE, IF(C44:AC44=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C44" s="1">
@@ -6556,7 +6556,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="1" t="str" cm="1">
-        <f t="array" ref="B45">_xlfn.TEXTJOIN(", ", TRUE, IF(C45:AC45=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B45">_xlfn.TEXTJOIN(", ", TRUE, IF(C45:AC45=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C45" s="1">
@@ -6646,7 +6646,7 @@
         <v>70</v>
       </c>
       <c r="B46" s="1" t="str" cm="1">
-        <f t="array" ref="B46">_xlfn.TEXTJOIN(", ", TRUE, IF(C46:AC46=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B46">_xlfn.TEXTJOIN(", ", TRUE, IF(C46:AC46=1, C$1:AC$1, ""))</f>
         <v>is-was-gen</v>
       </c>
       <c r="C46" s="1">
@@ -6736,8 +6736,8 @@
         <v>71</v>
       </c>
       <c r="B47" s="1" t="str" cm="1">
-        <f t="array" ref="B47">_xlfn.TEXTJOIN(", ", TRUE, IF(C47:AC47=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B47">_xlfn.TEXTJOIN(", ", TRUE, IF(C47:AC47=1, C$1:AC$1, ""))</f>
+        <v>existential-it</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -6794,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" s="1">
         <v>0</v>
@@ -6826,7 +6826,7 @@
         <v>72</v>
       </c>
       <c r="B48" s="1" t="str" cm="1">
-        <f t="array" ref="B48">_xlfn.TEXTJOIN(", ", TRUE, IF(C48:AC48=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B48">_xlfn.TEXTJOIN(", ", TRUE, IF(C48:AC48=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C48" s="1">
@@ -6916,7 +6916,7 @@
         <v>73</v>
       </c>
       <c r="B49" s="1" t="str" cm="1">
-        <f t="array" ref="B49">_xlfn.TEXTJOIN(", ", TRUE, IF(C49:AC49=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B49">_xlfn.TEXTJOIN(", ", TRUE, IF(C49:AC49=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C49" s="1">
@@ -7006,7 +7006,7 @@
         <v>74</v>
       </c>
       <c r="B50" s="1" t="str" cm="1">
-        <f t="array" ref="B50">_xlfn.TEXTJOIN(", ", TRUE, IF(C50:AC50=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B50">_xlfn.TEXTJOIN(", ", TRUE, IF(C50:AC50=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C50" s="1">
@@ -7096,7 +7096,7 @@
         <v>75</v>
       </c>
       <c r="B51" s="1" t="str" cm="1">
-        <f t="array" ref="B51">_xlfn.TEXTJOIN(", ", TRUE, IF(C51:AC51=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B51">_xlfn.TEXTJOIN(", ", TRUE, IF(C51:AC51=1, C$1:AC$1, ""))</f>
         <v>existential-it</v>
       </c>
       <c r="C51" s="1">
@@ -7186,7 +7186,7 @@
         <v>76</v>
       </c>
       <c r="B52" s="1" t="str" cm="1">
-        <f t="array" ref="B52">_xlfn.TEXTJOIN(", ", TRUE, IF(C52:AC52=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B52">_xlfn.TEXTJOIN(", ", TRUE, IF(C52:AC52=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C52" s="1">
@@ -7276,7 +7276,7 @@
         <v>77</v>
       </c>
       <c r="B53" s="1" t="str" cm="1">
-        <f t="array" ref="B53">_xlfn.TEXTJOIN(", ", TRUE, IF(C53:AC53=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B53">_xlfn.TEXTJOIN(", ", TRUE, IF(C53:AC53=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C53" s="1">
@@ -7366,7 +7366,7 @@
         <v>78</v>
       </c>
       <c r="B54" s="1" t="str" cm="1">
-        <f t="array" ref="B54">_xlfn.TEXTJOIN(", ", TRUE, IF(C54:AC54=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B54">_xlfn.TEXTJOIN(", ", TRUE, IF(C54:AC54=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C54" s="1">
@@ -7456,7 +7456,7 @@
         <v>79</v>
       </c>
       <c r="B55" s="1" t="str" cm="1">
-        <f t="array" ref="B55">_xlfn.TEXTJOIN(", ", TRUE, IF(C55:AC55=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B55">_xlfn.TEXTJOIN(", ", TRUE, IF(C55:AC55=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C55" s="1">
@@ -7546,7 +7546,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="1" t="str" cm="1">
-        <f t="array" ref="B56">_xlfn.TEXTJOIN(", ", TRUE, IF(C56:AC56=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B56">_xlfn.TEXTJOIN(", ", TRUE, IF(C56:AC56=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C56" s="1">
@@ -7636,7 +7636,7 @@
         <v>81</v>
       </c>
       <c r="B57" s="1" t="str" cm="1">
-        <f t="array" ref="B57">_xlfn.TEXTJOIN(", ", TRUE, IF(C57:AC57=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B57">_xlfn.TEXTJOIN(", ", TRUE, IF(C57:AC57=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C57" s="1">
@@ -7726,7 +7726,7 @@
         <v>82</v>
       </c>
       <c r="B58" s="1" t="str" cm="1">
-        <f t="array" ref="B58">_xlfn.TEXTJOIN(", ", TRUE, IF(C58:AC58=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B58">_xlfn.TEXTJOIN(", ", TRUE, IF(C58:AC58=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C58" s="1">
@@ -7816,7 +7816,7 @@
         <v>83</v>
       </c>
       <c r="B59" s="1" t="str" cm="1">
-        <f t="array" ref="B59">_xlfn.TEXTJOIN(", ", TRUE, IF(C59:AC59=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B59">_xlfn.TEXTJOIN(", ", TRUE, IF(C59:AC59=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C59" s="1">
@@ -7906,7 +7906,7 @@
         <v>84</v>
       </c>
       <c r="B60" s="1" t="str" cm="1">
-        <f t="array" ref="B60">_xlfn.TEXTJOIN(", ", TRUE, IF(C60:AC60=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B60">_xlfn.TEXTJOIN(", ", TRUE, IF(C60:AC60=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C60" s="1">
@@ -7996,7 +7996,7 @@
         <v>85</v>
       </c>
       <c r="B61" s="1" t="str" cm="1">
-        <f t="array" ref="B61">_xlfn.TEXTJOIN(", ", TRUE, IF(C61:AC61=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B61">_xlfn.TEXTJOIN(", ", TRUE, IF(C61:AC61=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C61" s="1">
@@ -8086,7 +8086,7 @@
         <v>86</v>
       </c>
       <c r="B62" s="1" t="str" cm="1">
-        <f t="array" ref="B62">_xlfn.TEXTJOIN(", ", TRUE, IF(C62:AC62=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B62">_xlfn.TEXTJOIN(", ", TRUE, IF(C62:AC62=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C62" s="1">
@@ -8176,7 +8176,7 @@
         <v>87</v>
       </c>
       <c r="B63" s="1" t="str" cm="1">
-        <f t="array" ref="B63">_xlfn.TEXTJOIN(", ", TRUE, IF(C63:AC63=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B63">_xlfn.TEXTJOIN(", ", TRUE, IF(C63:AC63=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C63" s="1">
@@ -8266,7 +8266,7 @@
         <v>88</v>
       </c>
       <c r="B64" s="1" t="str" cm="1">
-        <f t="array" ref="B64">_xlfn.TEXTJOIN(", ", TRUE, IF(C64:AC64=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B64">_xlfn.TEXTJOIN(", ", TRUE, IF(C64:AC64=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C64" s="1">
@@ -8356,11 +8356,11 @@
         <v>89</v>
       </c>
       <c r="B65" s="1" t="str" cm="1">
-        <f t="array" ref="B65">_xlfn.TEXTJOIN(", ", TRUE, IF(C65:AC65=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B65">_xlfn.TEXTJOIN(", ", TRUE, IF(C65:AC65=1, C$1:AC$1, ""))</f>
+        <v>zero-poss</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
@@ -8446,7 +8446,7 @@
         <v>90</v>
       </c>
       <c r="B66" s="1" t="str" cm="1">
-        <f t="array" ref="B66">_xlfn.TEXTJOIN(", ", TRUE, IF(C66:AC66=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B66">_xlfn.TEXTJOIN(", ", TRUE, IF(C66:AC66=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C66" s="1">
@@ -8536,7 +8536,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="1" t="str" cm="1">
-        <f t="array" ref="B67">_xlfn.TEXTJOIN(", ", TRUE, IF(C67:AC67=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B67">_xlfn.TEXTJOIN(", ", TRUE, IF(C67:AC67=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C67" s="1">
@@ -8626,7 +8626,7 @@
         <v>92</v>
       </c>
       <c r="B68" s="1" t="str" cm="1">
-        <f t="array" ref="B68">_xlfn.TEXTJOIN(", ", TRUE, IF(C68:AC68=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B68">_xlfn.TEXTJOIN(", ", TRUE, IF(C68:AC68=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C68" s="1">
@@ -8716,8 +8716,8 @@
         <v>93</v>
       </c>
       <c r="B69" s="1" t="str" cm="1">
-        <f t="array" ref="B69">_xlfn.TEXTJOIN(", ", TRUE, IF(C69:AC69=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B69">_xlfn.TEXTJOIN(", ", TRUE, IF(C69:AC69=1, C$1:AC$1, ""))</f>
+        <v>existential-it</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="U69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V69" s="1">
         <v>0</v>
@@ -8805,15 +8805,15 @@
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="1" t="e" cm="1">
-        <f t="array" ref="B70">_xlfn.TEXTJOIN(", ", TRUE, IF(C70:AC70=1, C$1:AB$1, ""))</f>
-        <v>#N/A</v>
+      <c r="B70" s="1" t="str" cm="1">
+        <f t="array" ref="B70">_xlfn.TEXTJOIN(", ", TRUE, IF(C70:AC70=1, C$1:AC$1, ""))</f>
+        <v>zero-copula, bare-got</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -8896,7 +8896,7 @@
         <v>95</v>
       </c>
       <c r="B71" s="1" t="str" cm="1">
-        <f t="array" ref="B71">_xlfn.TEXTJOIN(", ", TRUE, IF(C71:AC71=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B71">_xlfn.TEXTJOIN(", ", TRUE, IF(C71:AC71=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C71" s="1">
@@ -8986,7 +8986,7 @@
         <v>96</v>
       </c>
       <c r="B72" s="1" t="str" cm="1">
-        <f t="array" ref="B72">_xlfn.TEXTJOIN(", ", TRUE, IF(C72:AC72=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B72">_xlfn.TEXTJOIN(", ", TRUE, IF(C72:AC72=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C72" s="1">
@@ -9076,7 +9076,7 @@
         <v>97</v>
       </c>
       <c r="B73" s="1" t="str" cm="1">
-        <f t="array" ref="B73">_xlfn.TEXTJOIN(", ", TRUE, IF(C73:AC73=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B73">_xlfn.TEXTJOIN(", ", TRUE, IF(C73:AC73=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C73" s="1">
@@ -9166,7 +9166,7 @@
         <v>98</v>
       </c>
       <c r="B74" s="1" t="str" cm="1">
-        <f t="array" ref="B74">_xlfn.TEXTJOIN(", ", TRUE, IF(C74:AC74=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B74">_xlfn.TEXTJOIN(", ", TRUE, IF(C74:AC74=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C74" s="1">
@@ -9256,7 +9256,7 @@
         <v>99</v>
       </c>
       <c r="B75" s="1" t="str" cm="1">
-        <f t="array" ref="B75">_xlfn.TEXTJOIN(", ", TRUE, IF(C75:AC75=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B75">_xlfn.TEXTJOIN(", ", TRUE, IF(C75:AC75=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C75" s="1">
@@ -9346,7 +9346,7 @@
         <v>100</v>
       </c>
       <c r="B76" s="1" t="str" cm="1">
-        <f t="array" ref="B76">_xlfn.TEXTJOIN(", ", TRUE, IF(C76:AC76=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B76">_xlfn.TEXTJOIN(", ", TRUE, IF(C76:AC76=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C76" s="1">
@@ -9436,7 +9436,7 @@
         <v>101</v>
       </c>
       <c r="B77" s="1" t="str" cm="1">
-        <f t="array" ref="B77">_xlfn.TEXTJOIN(", ", TRUE, IF(C77:AC77=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B77">_xlfn.TEXTJOIN(", ", TRUE, IF(C77:AC77=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C77" s="1">
@@ -9526,7 +9526,7 @@
         <v>102</v>
       </c>
       <c r="B78" s="1" t="str" cm="1">
-        <f t="array" ref="B78">_xlfn.TEXTJOIN(", ", TRUE, IF(C78:AC78=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B78">_xlfn.TEXTJOIN(", ", TRUE, IF(C78:AC78=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C78" s="1">
@@ -9616,7 +9616,7 @@
         <v>103</v>
       </c>
       <c r="B79" s="1" t="str" cm="1">
-        <f t="array" ref="B79">_xlfn.TEXTJOIN(", ", TRUE, IF(C79:AC79=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B79">_xlfn.TEXTJOIN(", ", TRUE, IF(C79:AC79=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C79" s="1">
@@ -9706,7 +9706,7 @@
         <v>104</v>
       </c>
       <c r="B80" s="1" t="str" cm="1">
-        <f t="array" ref="B80">_xlfn.TEXTJOIN(", ", TRUE, IF(C80:AC80=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B80">_xlfn.TEXTJOIN(", ", TRUE, IF(C80:AC80=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C80" s="1">
@@ -9796,7 +9796,7 @@
         <v>105</v>
       </c>
       <c r="B81" s="1" t="str" cm="1">
-        <f t="array" ref="B81">_xlfn.TEXTJOIN(", ", TRUE, IF(C81:AC81=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B81">_xlfn.TEXTJOIN(", ", TRUE, IF(C81:AC81=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C81" s="1">
@@ -9886,7 +9886,7 @@
         <v>106</v>
       </c>
       <c r="B82" s="1" t="str" cm="1">
-        <f t="array" ref="B82">_xlfn.TEXTJOIN(", ", TRUE, IF(C82:AC82=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B82">_xlfn.TEXTJOIN(", ", TRUE, IF(C82:AC82=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C82" s="1">
@@ -9976,7 +9976,7 @@
         <v>107</v>
       </c>
       <c r="B83" s="1" t="str" cm="1">
-        <f t="array" ref="B83">_xlfn.TEXTJOIN(", ", TRUE, IF(C83:AC83=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B83">_xlfn.TEXTJOIN(", ", TRUE, IF(C83:AC83=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C83" s="1">
@@ -10066,7 +10066,7 @@
         <v>108</v>
       </c>
       <c r="B84" s="1" t="str" cm="1">
-        <f t="array" ref="B84">_xlfn.TEXTJOIN(", ", TRUE, IF(C84:AC84=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B84">_xlfn.TEXTJOIN(", ", TRUE, IF(C84:AC84=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C84" s="1">
@@ -10156,7 +10156,7 @@
         <v>109</v>
       </c>
       <c r="B85" s="1" t="str" cm="1">
-        <f t="array" ref="B85">_xlfn.TEXTJOIN(", ", TRUE, IF(C85:AC85=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B85">_xlfn.TEXTJOIN(", ", TRUE, IF(C85:AC85=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C85" s="1">
@@ -10246,7 +10246,7 @@
         <v>110</v>
       </c>
       <c r="B86" s="1" t="str" cm="1">
-        <f t="array" ref="B86">_xlfn.TEXTJOIN(", ", TRUE, IF(C86:AC86=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B86">_xlfn.TEXTJOIN(", ", TRUE, IF(C86:AC86=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C86" s="1">
@@ -10336,7 +10336,7 @@
         <v>111</v>
       </c>
       <c r="B87" s="1" t="str" cm="1">
-        <f t="array" ref="B87">_xlfn.TEXTJOIN(", ", TRUE, IF(C87:AC87=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B87">_xlfn.TEXTJOIN(", ", TRUE, IF(C87:AC87=1, C$1:AC$1, ""))</f>
         <v>multiple-neg</v>
       </c>
       <c r="C87" s="1">
@@ -10426,7 +10426,7 @@
         <v>112</v>
       </c>
       <c r="B88" s="1" t="str" cm="1">
-        <f t="array" ref="B88">_xlfn.TEXTJOIN(", ", TRUE, IF(C88:AC88=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B88">_xlfn.TEXTJOIN(", ", TRUE, IF(C88:AC88=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C88" s="1">
@@ -10516,7 +10516,7 @@
         <v>113</v>
       </c>
       <c r="B89" s="1" t="str" cm="1">
-        <f t="array" ref="B89">_xlfn.TEXTJOIN(", ", TRUE, IF(C89:AC89=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B89">_xlfn.TEXTJOIN(", ", TRUE, IF(C89:AC89=1, C$1:AC$1, ""))</f>
         <v>resultant-done</v>
       </c>
       <c r="C89" s="1">
@@ -10606,7 +10606,7 @@
         <v>114</v>
       </c>
       <c r="B90" s="1" t="str" cm="1">
-        <f t="array" ref="B90">_xlfn.TEXTJOIN(", ", TRUE, IF(C90:AC90=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B90">_xlfn.TEXTJOIN(", ", TRUE, IF(C90:AC90=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C90" s="1">
@@ -10696,7 +10696,7 @@
         <v>115</v>
       </c>
       <c r="B91" s="1" t="str" cm="1">
-        <f t="array" ref="B91">_xlfn.TEXTJOIN(", ", TRUE, IF(C91:AC91=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B91">_xlfn.TEXTJOIN(", ", TRUE, IF(C91:AC91=1, C$1:AC$1, ""))</f>
         <v>multiple-neg</v>
       </c>
       <c r="C91" s="1">
@@ -10786,7 +10786,7 @@
         <v>116</v>
       </c>
       <c r="B92" s="1" t="str" cm="1">
-        <f t="array" ref="B92">_xlfn.TEXTJOIN(", ", TRUE, IF(C92:AC92=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B92">_xlfn.TEXTJOIN(", ", TRUE, IF(C92:AC92=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C92" s="1">
@@ -10876,7 +10876,7 @@
         <v>117</v>
       </c>
       <c r="B93" s="1" t="str" cm="1">
-        <f t="array" ref="B93">_xlfn.TEXTJOIN(", ", TRUE, IF(C93:AC93=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B93">_xlfn.TEXTJOIN(", ", TRUE, IF(C93:AC93=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C93" s="1">
@@ -10966,7 +10966,7 @@
         <v>118</v>
       </c>
       <c r="B94" s="1" t="str" cm="1">
-        <f t="array" ref="B94">_xlfn.TEXTJOIN(", ", TRUE, IF(C94:AC94=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B94">_xlfn.TEXTJOIN(", ", TRUE, IF(C94:AC94=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C94" s="1">
@@ -11056,7 +11056,7 @@
         <v>119</v>
       </c>
       <c r="B95" s="1" t="str" cm="1">
-        <f t="array" ref="B95">_xlfn.TEXTJOIN(", ", TRUE, IF(C95:AC95=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B95">_xlfn.TEXTJOIN(", ", TRUE, IF(C95:AC95=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C95" s="1">
@@ -11146,7 +11146,7 @@
         <v>120</v>
       </c>
       <c r="B96" s="1" t="str" cm="1">
-        <f t="array" ref="B96">_xlfn.TEXTJOIN(", ", TRUE, IF(C96:AC96=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B96">_xlfn.TEXTJOIN(", ", TRUE, IF(C96:AC96=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C96" s="1">
@@ -11236,7 +11236,7 @@
         <v>121</v>
       </c>
       <c r="B97" s="1" t="str" cm="1">
-        <f t="array" ref="B97">_xlfn.TEXTJOIN(", ", TRUE, IF(C97:AC97=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B97">_xlfn.TEXTJOIN(", ", TRUE, IF(C97:AC97=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C97" s="1">
@@ -11326,7 +11326,7 @@
         <v>122</v>
       </c>
       <c r="B98" s="1" t="str" cm="1">
-        <f t="array" ref="B98">_xlfn.TEXTJOIN(", ", TRUE, IF(C98:AC98=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B98">_xlfn.TEXTJOIN(", ", TRUE, IF(C98:AC98=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C98" s="1">
@@ -11416,7 +11416,7 @@
         <v>123</v>
       </c>
       <c r="B99" s="1" t="str" cm="1">
-        <f t="array" ref="B99">_xlfn.TEXTJOIN(", ", TRUE, IF(C99:AC99=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B99">_xlfn.TEXTJOIN(", ", TRUE, IF(C99:AC99=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C99" s="1">
@@ -11506,7 +11506,7 @@
         <v>124</v>
       </c>
       <c r="B100" s="1" t="str" cm="1">
-        <f t="array" ref="B100">_xlfn.TEXTJOIN(", ", TRUE, IF(C100:AC100=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B100">_xlfn.TEXTJOIN(", ", TRUE, IF(C100:AC100=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C100" s="1">
@@ -11596,7 +11596,7 @@
         <v>125</v>
       </c>
       <c r="B101" s="1" t="str" cm="1">
-        <f t="array" ref="B101">_xlfn.TEXTJOIN(", ", TRUE, IF(C101:AC101=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B101">_xlfn.TEXTJOIN(", ", TRUE, IF(C101:AC101=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C101" s="1">
@@ -11686,7 +11686,7 @@
         <v>126</v>
       </c>
       <c r="B102" s="1" t="str" cm="1">
-        <f t="array" ref="B102">_xlfn.TEXTJOIN(", ", TRUE, IF(C102:AC102=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B102">_xlfn.TEXTJOIN(", ", TRUE, IF(C102:AC102=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C102" s="1">
@@ -11776,7 +11776,7 @@
         <v>127</v>
       </c>
       <c r="B103" s="1" t="str" cm="1">
-        <f t="array" ref="B103">_xlfn.TEXTJOIN(", ", TRUE, IF(C103:AC103=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B103">_xlfn.TEXTJOIN(", ", TRUE, IF(C103:AC103=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C103" s="1">
@@ -11866,7 +11866,7 @@
         <v>128</v>
       </c>
       <c r="B104" s="1" t="str" cm="1">
-        <f t="array" ref="B104">_xlfn.TEXTJOIN(", ", TRUE, IF(C104:AC104=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B104">_xlfn.TEXTJOIN(", ", TRUE, IF(C104:AC104=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C104" s="1">
@@ -11956,7 +11956,7 @@
         <v>129</v>
       </c>
       <c r="B105" s="1" t="str" cm="1">
-        <f t="array" ref="B105">_xlfn.TEXTJOIN(", ", TRUE, IF(C105:AC105=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B105">_xlfn.TEXTJOIN(", ", TRUE, IF(C105:AC105=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C105" s="1">
@@ -12046,7 +12046,7 @@
         <v>130</v>
       </c>
       <c r="B106" s="1" t="str" cm="1">
-        <f t="array" ref="B106">_xlfn.TEXTJOIN(", ", TRUE, IF(C106:AC106=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B106">_xlfn.TEXTJOIN(", ", TRUE, IF(C106:AC106=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C106" s="1">
@@ -12136,7 +12136,7 @@
         <v>131</v>
       </c>
       <c r="B107" s="1" t="str" cm="1">
-        <f t="array" ref="B107">_xlfn.TEXTJOIN(", ", TRUE, IF(C107:AC107=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B107">_xlfn.TEXTJOIN(", ", TRUE, IF(C107:AC107=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C107" s="1">
@@ -12226,7 +12226,7 @@
         <v>132</v>
       </c>
       <c r="B108" s="1" t="str" cm="1">
-        <f t="array" ref="B108">_xlfn.TEXTJOIN(", ", TRUE, IF(C108:AC108=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B108">_xlfn.TEXTJOIN(", ", TRUE, IF(C108:AC108=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C108" s="1">
@@ -12316,7 +12316,7 @@
         <v>133</v>
       </c>
       <c r="B109" s="1" t="str" cm="1">
-        <f t="array" ref="B109">_xlfn.TEXTJOIN(", ", TRUE, IF(C109:AC109=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B109">_xlfn.TEXTJOIN(", ", TRUE, IF(C109:AC109=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C109" s="1">
@@ -12406,7 +12406,7 @@
         <v>134</v>
       </c>
       <c r="B110" s="1" t="str" cm="1">
-        <f t="array" ref="B110">_xlfn.TEXTJOIN(", ", TRUE, IF(C110:AC110=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B110">_xlfn.TEXTJOIN(", ", TRUE, IF(C110:AC110=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C110" s="1">
@@ -12496,7 +12496,7 @@
         <v>135</v>
       </c>
       <c r="B111" s="1" t="str" cm="1">
-        <f t="array" ref="B111">_xlfn.TEXTJOIN(", ", TRUE, IF(C111:AC111=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B111">_xlfn.TEXTJOIN(", ", TRUE, IF(C111:AC111=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C111" s="1">
@@ -12586,7 +12586,7 @@
         <v>136</v>
       </c>
       <c r="B112" s="1" t="str" cm="1">
-        <f t="array" ref="B112">_xlfn.TEXTJOIN(", ", TRUE, IF(C112:AC112=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B112">_xlfn.TEXTJOIN(", ", TRUE, IF(C112:AC112=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C112" s="1">
@@ -12676,7 +12676,7 @@
         <v>137</v>
       </c>
       <c r="B113" s="1" t="str" cm="1">
-        <f t="array" ref="B113">_xlfn.TEXTJOIN(", ", TRUE, IF(C113:AC113=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B113">_xlfn.TEXTJOIN(", ", TRUE, IF(C113:AC113=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C113" s="1">
@@ -12766,7 +12766,7 @@
         <v>138</v>
       </c>
       <c r="B114" s="1" t="str" cm="1">
-        <f t="array" ref="B114">_xlfn.TEXTJOIN(", ", TRUE, IF(C114:AC114=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B114">_xlfn.TEXTJOIN(", ", TRUE, IF(C114:AC114=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C114" s="1">
@@ -12856,7 +12856,7 @@
         <v>139</v>
       </c>
       <c r="B115" s="1" t="str" cm="1">
-        <f t="array" ref="B115">_xlfn.TEXTJOIN(", ", TRUE, IF(C115:AC115=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B115">_xlfn.TEXTJOIN(", ", TRUE, IF(C115:AC115=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C115" s="1">
@@ -12946,7 +12946,7 @@
         <v>140</v>
       </c>
       <c r="B116" s="1" t="str" cm="1">
-        <f t="array" ref="B116">_xlfn.TEXTJOIN(", ", TRUE, IF(C116:AC116=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B116">_xlfn.TEXTJOIN(", ", TRUE, IF(C116:AC116=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C116" s="1">
@@ -13036,7 +13036,7 @@
         <v>141</v>
       </c>
       <c r="B117" s="1" t="str" cm="1">
-        <f t="array" ref="B117">_xlfn.TEXTJOIN(", ", TRUE, IF(C117:AC117=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B117">_xlfn.TEXTJOIN(", ", TRUE, IF(C117:AC117=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C117" s="1">
@@ -13126,7 +13126,7 @@
         <v>142</v>
       </c>
       <c r="B118" s="1" t="str" cm="1">
-        <f t="array" ref="B118">_xlfn.TEXTJOIN(", ", TRUE, IF(C118:AC118=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B118">_xlfn.TEXTJOIN(", ", TRUE, IF(C118:AC118=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C118" s="1">
@@ -13216,7 +13216,7 @@
         <v>143</v>
       </c>
       <c r="B119" s="1" t="str" cm="1">
-        <f t="array" ref="B119">_xlfn.TEXTJOIN(", ", TRUE, IF(C119:AC119=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B119">_xlfn.TEXTJOIN(", ", TRUE, IF(C119:AC119=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C119" s="1">
@@ -13306,7 +13306,7 @@
         <v>144</v>
       </c>
       <c r="B120" s="1" t="str" cm="1">
-        <f t="array" ref="B120">_xlfn.TEXTJOIN(", ", TRUE, IF(C120:AC120=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B120">_xlfn.TEXTJOIN(", ", TRUE, IF(C120:AC120=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C120" s="1">
@@ -13396,7 +13396,7 @@
         <v>145</v>
       </c>
       <c r="B121" s="1" t="str" cm="1">
-        <f t="array" ref="B121">_xlfn.TEXTJOIN(", ", TRUE, IF(C121:AC121=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B121">_xlfn.TEXTJOIN(", ", TRUE, IF(C121:AC121=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C121" s="1">
@@ -13486,7 +13486,7 @@
         <v>146</v>
       </c>
       <c r="B122" s="1" t="str" cm="1">
-        <f t="array" ref="B122">_xlfn.TEXTJOIN(", ", TRUE, IF(C122:AC122=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B122">_xlfn.TEXTJOIN(", ", TRUE, IF(C122:AC122=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C122" s="1">
@@ -13576,7 +13576,7 @@
         <v>147</v>
       </c>
       <c r="B123" s="1" t="str" cm="1">
-        <f t="array" ref="B123">_xlfn.TEXTJOIN(", ", TRUE, IF(C123:AC123=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B123">_xlfn.TEXTJOIN(", ", TRUE, IF(C123:AC123=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C123" s="1">
@@ -13666,7 +13666,7 @@
         <v>148</v>
       </c>
       <c r="B124" s="1" t="str" cm="1">
-        <f t="array" ref="B124">_xlfn.TEXTJOIN(", ", TRUE, IF(C124:AC124=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B124">_xlfn.TEXTJOIN(", ", TRUE, IF(C124:AC124=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C124" s="1">
@@ -13756,7 +13756,7 @@
         <v>149</v>
       </c>
       <c r="B125" s="1" t="str" cm="1">
-        <f t="array" ref="B125">_xlfn.TEXTJOIN(", ", TRUE, IF(C125:AC125=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B125">_xlfn.TEXTJOIN(", ", TRUE, IF(C125:AC125=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C125" s="1">
@@ -13846,7 +13846,7 @@
         <v>150</v>
       </c>
       <c r="B126" s="1" t="str" cm="1">
-        <f t="array" ref="B126">_xlfn.TEXTJOIN(", ", TRUE, IF(C126:AC126=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B126">_xlfn.TEXTJOIN(", ", TRUE, IF(C126:AC126=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C126" s="1">
@@ -13936,7 +13936,7 @@
         <v>151</v>
       </c>
       <c r="B127" s="1" t="str" cm="1">
-        <f t="array" ref="B127">_xlfn.TEXTJOIN(", ", TRUE, IF(C127:AC127=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B127">_xlfn.TEXTJOIN(", ", TRUE, IF(C127:AC127=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C127" s="1">
@@ -14026,7 +14026,7 @@
         <v>152</v>
       </c>
       <c r="B128" s="1" t="str" cm="1">
-        <f t="array" ref="B128">_xlfn.TEXTJOIN(", ", TRUE, IF(C128:AC128=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B128">_xlfn.TEXTJOIN(", ", TRUE, IF(C128:AC128=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C128" s="1">
@@ -14116,7 +14116,7 @@
         <v>153</v>
       </c>
       <c r="B129" s="1" t="str" cm="1">
-        <f t="array" ref="B129">_xlfn.TEXTJOIN(", ", TRUE, IF(C129:AC129=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B129">_xlfn.TEXTJOIN(", ", TRUE, IF(C129:AC129=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C129" s="1">
@@ -14206,7 +14206,7 @@
         <v>154</v>
       </c>
       <c r="B130" s="1" t="str" cm="1">
-        <f t="array" ref="B130">_xlfn.TEXTJOIN(", ", TRUE, IF(C130:AC130=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B130">_xlfn.TEXTJOIN(", ", TRUE, IF(C130:AC130=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C130" s="1">
@@ -14296,7 +14296,7 @@
         <v>155</v>
       </c>
       <c r="B131" s="1" t="str" cm="1">
-        <f t="array" ref="B131">_xlfn.TEXTJOIN(", ", TRUE, IF(C131:AC131=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B131">_xlfn.TEXTJOIN(", ", TRUE, IF(C131:AC131=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C131" s="1">
@@ -14386,7 +14386,7 @@
         <v>156</v>
       </c>
       <c r="B132" s="1" t="str" cm="1">
-        <f t="array" ref="B132">_xlfn.TEXTJOIN(", ", TRUE, IF(C132:AC132=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B132">_xlfn.TEXTJOIN(", ", TRUE, IF(C132:AC132=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C132" s="1">
@@ -14476,7 +14476,7 @@
         <v>157</v>
       </c>
       <c r="B133" s="1" t="str" cm="1">
-        <f t="array" ref="B133">_xlfn.TEXTJOIN(", ", TRUE, IF(C133:AC133=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B133">_xlfn.TEXTJOIN(", ", TRUE, IF(C133:AC133=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C133" s="1">
@@ -14566,7 +14566,7 @@
         <v>158</v>
       </c>
       <c r="B134" s="1" t="str" cm="1">
-        <f t="array" ref="B134">_xlfn.TEXTJOIN(", ", TRUE, IF(C134:AC134=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B134">_xlfn.TEXTJOIN(", ", TRUE, IF(C134:AC134=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C134" s="1">
@@ -14656,7 +14656,7 @@
         <v>159</v>
       </c>
       <c r="B135" s="1" t="str" cm="1">
-        <f t="array" ref="B135">_xlfn.TEXTJOIN(", ", TRUE, IF(C135:AC135=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B135">_xlfn.TEXTJOIN(", ", TRUE, IF(C135:AC135=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C135" s="1">
@@ -14746,7 +14746,7 @@
         <v>160</v>
       </c>
       <c r="B136" s="1" t="str" cm="1">
-        <f t="array" ref="B136">_xlfn.TEXTJOIN(", ", TRUE, IF(C136:AC136=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B136">_xlfn.TEXTJOIN(", ", TRUE, IF(C136:AC136=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C136" s="1">
@@ -14836,7 +14836,7 @@
         <v>161</v>
       </c>
       <c r="B137" s="1" t="str" cm="1">
-        <f t="array" ref="B137">_xlfn.TEXTJOIN(", ", TRUE, IF(C137:AC137=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B137">_xlfn.TEXTJOIN(", ", TRUE, IF(C137:AC137=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C137" s="1">
@@ -14926,7 +14926,7 @@
         <v>162</v>
       </c>
       <c r="B138" s="1" t="str" cm="1">
-        <f t="array" ref="B138">_xlfn.TEXTJOIN(", ", TRUE, IF(C138:AC138=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B138">_xlfn.TEXTJOIN(", ", TRUE, IF(C138:AC138=1, C$1:AC$1, ""))</f>
         <v>is-was-gen</v>
       </c>
       <c r="C138" s="1">
@@ -15016,7 +15016,7 @@
         <v>163</v>
       </c>
       <c r="B139" s="1" t="str" cm="1">
-        <f t="array" ref="B139">_xlfn.TEXTJOIN(", ", TRUE, IF(C139:AC139=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B139">_xlfn.TEXTJOIN(", ", TRUE, IF(C139:AC139=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C139" s="1">
@@ -15106,7 +15106,7 @@
         <v>164</v>
       </c>
       <c r="B140" s="1" t="str" cm="1">
-        <f t="array" ref="B140">_xlfn.TEXTJOIN(", ", TRUE, IF(C140:AC140=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B140">_xlfn.TEXTJOIN(", ", TRUE, IF(C140:AC140=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C140" s="1">
@@ -15196,7 +15196,7 @@
         <v>165</v>
       </c>
       <c r="B141" s="1" t="str" cm="1">
-        <f t="array" ref="B141">_xlfn.TEXTJOIN(", ", TRUE, IF(C141:AC141=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B141">_xlfn.TEXTJOIN(", ", TRUE, IF(C141:AC141=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C141" s="1">
@@ -15286,7 +15286,7 @@
         <v>166</v>
       </c>
       <c r="B142" s="1" t="str" cm="1">
-        <f t="array" ref="B142">_xlfn.TEXTJOIN(", ", TRUE, IF(C142:AC142=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B142">_xlfn.TEXTJOIN(", ", TRUE, IF(C142:AC142=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C142" s="1">
@@ -15376,7 +15376,7 @@
         <v>167</v>
       </c>
       <c r="B143" s="1" t="str" cm="1">
-        <f t="array" ref="B143">_xlfn.TEXTJOIN(", ", TRUE, IF(C143:AC143=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B143">_xlfn.TEXTJOIN(", ", TRUE, IF(C143:AC143=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C143" s="1">
@@ -15466,7 +15466,7 @@
         <v>168</v>
       </c>
       <c r="B144" s="1" t="str" cm="1">
-        <f t="array" ref="B144">_xlfn.TEXTJOIN(", ", TRUE, IF(C144:AC144=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B144">_xlfn.TEXTJOIN(", ", TRUE, IF(C144:AC144=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C144" s="1">
@@ -15556,7 +15556,7 @@
         <v>169</v>
       </c>
       <c r="B145" s="1" t="str" cm="1">
-        <f t="array" ref="B145">_xlfn.TEXTJOIN(", ", TRUE, IF(C145:AC145=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B145">_xlfn.TEXTJOIN(", ", TRUE, IF(C145:AC145=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C145" s="1">
@@ -15646,7 +15646,7 @@
         <v>170</v>
       </c>
       <c r="B146" s="1" t="str" cm="1">
-        <f t="array" ref="B146">_xlfn.TEXTJOIN(", ", TRUE, IF(C146:AC146=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B146">_xlfn.TEXTJOIN(", ", TRUE, IF(C146:AC146=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C146" s="1">
@@ -15736,7 +15736,7 @@
         <v>171</v>
       </c>
       <c r="B147" s="1" t="str" cm="1">
-        <f t="array" ref="B147">_xlfn.TEXTJOIN(", ", TRUE, IF(C147:AC147=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B147">_xlfn.TEXTJOIN(", ", TRUE, IF(C147:AC147=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C147" s="1">
@@ -15826,7 +15826,7 @@
         <v>172</v>
       </c>
       <c r="B148" s="1" t="str" cm="1">
-        <f t="array" ref="B148">_xlfn.TEXTJOIN(", ", TRUE, IF(C148:AC148=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B148">_xlfn.TEXTJOIN(", ", TRUE, IF(C148:AC148=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C148" s="1">
@@ -15916,7 +15916,7 @@
         <v>173</v>
       </c>
       <c r="B149" s="1" t="str" cm="1">
-        <f t="array" ref="B149">_xlfn.TEXTJOIN(", ", TRUE, IF(C149:AC149=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B149">_xlfn.TEXTJOIN(", ", TRUE, IF(C149:AC149=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C149" s="1">
@@ -16006,7 +16006,7 @@
         <v>174</v>
       </c>
       <c r="B150" s="1" t="str" cm="1">
-        <f t="array" ref="B150">_xlfn.TEXTJOIN(", ", TRUE, IF(C150:AC150=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B150">_xlfn.TEXTJOIN(", ", TRUE, IF(C150:AC150=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C150" s="1">
@@ -16096,7 +16096,7 @@
         <v>175</v>
       </c>
       <c r="B151" s="1" t="str" cm="1">
-        <f t="array" ref="B151">_xlfn.TEXTJOIN(", ", TRUE, IF(C151:AC151=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B151">_xlfn.TEXTJOIN(", ", TRUE, IF(C151:AC151=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C151" s="1">
@@ -16186,7 +16186,7 @@
         <v>176</v>
       </c>
       <c r="B152" s="1" t="str" cm="1">
-        <f t="array" ref="B152">_xlfn.TEXTJOIN(", ", TRUE, IF(C152:AC152=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B152">_xlfn.TEXTJOIN(", ", TRUE, IF(C152:AC152=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C152" s="1">
@@ -16276,7 +16276,7 @@
         <v>177</v>
       </c>
       <c r="B153" s="1" t="str" cm="1">
-        <f t="array" ref="B153">_xlfn.TEXTJOIN(", ", TRUE, IF(C153:AC153=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B153">_xlfn.TEXTJOIN(", ", TRUE, IF(C153:AC153=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C153" s="1">
@@ -16366,7 +16366,7 @@
         <v>178</v>
       </c>
       <c r="B154" s="1" t="str" cm="1">
-        <f t="array" ref="B154">_xlfn.TEXTJOIN(", ", TRUE, IF(C154:AC154=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B154">_xlfn.TEXTJOIN(", ", TRUE, IF(C154:AC154=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C154" s="1">
@@ -16456,7 +16456,7 @@
         <v>179</v>
       </c>
       <c r="B155" s="1" t="str" cm="1">
-        <f t="array" ref="B155">_xlfn.TEXTJOIN(", ", TRUE, IF(C155:AC155=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B155">_xlfn.TEXTJOIN(", ", TRUE, IF(C155:AC155=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C155" s="1">
@@ -16546,7 +16546,7 @@
         <v>180</v>
       </c>
       <c r="B156" s="1" t="str" cm="1">
-        <f t="array" ref="B156">_xlfn.TEXTJOIN(", ", TRUE, IF(C156:AC156=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B156">_xlfn.TEXTJOIN(", ", TRUE, IF(C156:AC156=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C156" s="1">
@@ -16636,7 +16636,7 @@
         <v>181</v>
       </c>
       <c r="B157" s="1" t="str" cm="1">
-        <f t="array" ref="B157">_xlfn.TEXTJOIN(", ", TRUE, IF(C157:AC157=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B157">_xlfn.TEXTJOIN(", ", TRUE, IF(C157:AC157=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C157" s="1">
@@ -16726,7 +16726,7 @@
         <v>182</v>
       </c>
       <c r="B158" s="1" t="str" cm="1">
-        <f t="array" ref="B158">_xlfn.TEXTJOIN(", ", TRUE, IF(C158:AC158=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B158">_xlfn.TEXTJOIN(", ", TRUE, IF(C158:AC158=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C158" s="1">
@@ -16816,7 +16816,7 @@
         <v>183</v>
       </c>
       <c r="B159" s="1" t="str" cm="1">
-        <f t="array" ref="B159">_xlfn.TEXTJOIN(", ", TRUE, IF(C159:AC159=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B159">_xlfn.TEXTJOIN(", ", TRUE, IF(C159:AC159=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C159" s="1">
@@ -16906,7 +16906,7 @@
         <v>184</v>
       </c>
       <c r="B160" s="1" t="str" cm="1">
-        <f t="array" ref="B160">_xlfn.TEXTJOIN(", ", TRUE, IF(C160:AC160=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B160">_xlfn.TEXTJOIN(", ", TRUE, IF(C160:AC160=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C160" s="1">
@@ -16996,7 +16996,7 @@
         <v>185</v>
       </c>
       <c r="B161" s="1" t="str" cm="1">
-        <f t="array" ref="B161">_xlfn.TEXTJOIN(", ", TRUE, IF(C161:AC161=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B161">_xlfn.TEXTJOIN(", ", TRUE, IF(C161:AC161=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C161" s="1">
@@ -17086,7 +17086,7 @@
         <v>186</v>
       </c>
       <c r="B162" s="1" t="str" cm="1">
-        <f t="array" ref="B162">_xlfn.TEXTJOIN(", ", TRUE, IF(C162:AC162=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B162">_xlfn.TEXTJOIN(", ", TRUE, IF(C162:AC162=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C162" s="1">
@@ -17176,7 +17176,7 @@
         <v>187</v>
       </c>
       <c r="B163" s="1" t="str" cm="1">
-        <f t="array" ref="B163">_xlfn.TEXTJOIN(", ", TRUE, IF(C163:AC163=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B163">_xlfn.TEXTJOIN(", ", TRUE, IF(C163:AC163=1, C$1:AC$1, ""))</f>
         <v>multiple-neg, neg-inversion</v>
       </c>
       <c r="C163" s="1">
@@ -17266,7 +17266,7 @@
         <v>188</v>
       </c>
       <c r="B164" s="1" t="str" cm="1">
-        <f t="array" ref="B164">_xlfn.TEXTJOIN(", ", TRUE, IF(C164:AC164=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B164">_xlfn.TEXTJOIN(", ", TRUE, IF(C164:AC164=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C164" s="1">
@@ -17356,7 +17356,7 @@
         <v>189</v>
       </c>
       <c r="B165" s="1" t="str" cm="1">
-        <f t="array" ref="B165">_xlfn.TEXTJOIN(", ", TRUE, IF(C165:AC165=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B165">_xlfn.TEXTJOIN(", ", TRUE, IF(C165:AC165=1, C$1:AC$1, ""))</f>
         <v>multiple-neg, existential-it</v>
       </c>
       <c r="C165" s="1">
@@ -17446,7 +17446,7 @@
         <v>190</v>
       </c>
       <c r="B166" s="1" t="str" cm="1">
-        <f t="array" ref="B166">_xlfn.TEXTJOIN(", ", TRUE, IF(C166:AC166=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B166">_xlfn.TEXTJOIN(", ", TRUE, IF(C166:AC166=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C166" s="1">
@@ -17536,7 +17536,7 @@
         <v>191</v>
       </c>
       <c r="B167" s="1" t="str" cm="1">
-        <f t="array" ref="B167">_xlfn.TEXTJOIN(", ", TRUE, IF(C167:AC167=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B167">_xlfn.TEXTJOIN(", ", TRUE, IF(C167:AC167=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C167" s="1">
@@ -17626,7 +17626,7 @@
         <v>192</v>
       </c>
       <c r="B168" s="1" t="str" cm="1">
-        <f t="array" ref="B168">_xlfn.TEXTJOIN(", ", TRUE, IF(C168:AC168=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B168">_xlfn.TEXTJOIN(", ", TRUE, IF(C168:AC168=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C168" s="1">
@@ -17716,8 +17716,8 @@
         <v>193</v>
       </c>
       <c r="B169" s="1" t="str" cm="1">
-        <f t="array" ref="B169">_xlfn.TEXTJOIN(", ", TRUE, IF(C169:AC169=1, C$1:AB$1, ""))</f>
-        <v>zero-copula</v>
+        <f t="array" ref="B169">_xlfn.TEXTJOIN(", ", TRUE, IF(C169:AC169=1, C$1:AC$1, ""))</f>
+        <v>zero-copula, wh-qu1</v>
       </c>
       <c r="C169" s="1">
         <v>0</v>
@@ -17768,7 +17768,7 @@
         <v>0</v>
       </c>
       <c r="S169" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T169" s="1">
         <v>0</v>
@@ -17806,7 +17806,7 @@
         <v>194</v>
       </c>
       <c r="B170" s="1" t="str" cm="1">
-        <f t="array" ref="B170">_xlfn.TEXTJOIN(", ", TRUE, IF(C170:AC170=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B170">_xlfn.TEXTJOIN(", ", TRUE, IF(C170:AC170=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C170" s="1">
@@ -17896,7 +17896,7 @@
         <v>195</v>
       </c>
       <c r="B171" s="1" t="str" cm="1">
-        <f t="array" ref="B171">_xlfn.TEXTJOIN(", ", TRUE, IF(C171:AC171=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B171">_xlfn.TEXTJOIN(", ", TRUE, IF(C171:AC171=1, C$1:AC$1, ""))</f>
         <v>zero-copula, wh-qu1</v>
       </c>
       <c r="C171" s="1">
@@ -17986,7 +17986,7 @@
         <v>196</v>
       </c>
       <c r="B172" s="1" t="str" cm="1">
-        <f t="array" ref="B172">_xlfn.TEXTJOIN(", ", TRUE, IF(C172:AC172=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B172">_xlfn.TEXTJOIN(", ", TRUE, IF(C172:AC172=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C172" s="1">
@@ -18076,7 +18076,7 @@
         <v>197</v>
       </c>
       <c r="B173" s="1" t="str" cm="1">
-        <f t="array" ref="B173">_xlfn.TEXTJOIN(", ", TRUE, IF(C173:AC173=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B173">_xlfn.TEXTJOIN(", ", TRUE, IF(C173:AC173=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C173" s="1">
@@ -18166,7 +18166,7 @@
         <v>198</v>
       </c>
       <c r="B174" s="1" t="str" cm="1">
-        <f t="array" ref="B174">_xlfn.TEXTJOIN(", ", TRUE, IF(C174:AC174=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B174">_xlfn.TEXTJOIN(", ", TRUE, IF(C174:AC174=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C174" s="1">
@@ -18256,7 +18256,7 @@
         <v>199</v>
       </c>
       <c r="B175" s="1" t="str" cm="1">
-        <f t="array" ref="B175">_xlfn.TEXTJOIN(", ", TRUE, IF(C175:AC175=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B175">_xlfn.TEXTJOIN(", ", TRUE, IF(C175:AC175=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C175" s="1">
@@ -18346,7 +18346,7 @@
         <v>200</v>
       </c>
       <c r="B176" s="1" t="str" cm="1">
-        <f t="array" ref="B176">_xlfn.TEXTJOIN(", ", TRUE, IF(C176:AC176=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B176">_xlfn.TEXTJOIN(", ", TRUE, IF(C176:AC176=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C176" s="1">
@@ -18436,7 +18436,7 @@
         <v>201</v>
       </c>
       <c r="B177" s="1" t="str" cm="1">
-        <f t="array" ref="B177">_xlfn.TEXTJOIN(", ", TRUE, IF(C177:AC177=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B177">_xlfn.TEXTJOIN(", ", TRUE, IF(C177:AC177=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C177" s="1">
@@ -18526,7 +18526,7 @@
         <v>202</v>
       </c>
       <c r="B178" s="1" t="str" cm="1">
-        <f t="array" ref="B178">_xlfn.TEXTJOIN(", ", TRUE, IF(C178:AC178=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B178">_xlfn.TEXTJOIN(", ", TRUE, IF(C178:AC178=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C178" s="1">
@@ -18616,7 +18616,7 @@
         <v>203</v>
       </c>
       <c r="B179" s="1" t="str" cm="1">
-        <f t="array" ref="B179">_xlfn.TEXTJOIN(", ", TRUE, IF(C179:AC179=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B179">_xlfn.TEXTJOIN(", ", TRUE, IF(C179:AC179=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C179" s="1">
@@ -18706,7 +18706,7 @@
         <v>204</v>
       </c>
       <c r="B180" s="1" t="str" cm="1">
-        <f t="array" ref="B180">_xlfn.TEXTJOIN(", ", TRUE, IF(C180:AC180=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B180">_xlfn.TEXTJOIN(", ", TRUE, IF(C180:AC180=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C180" s="1">
@@ -18796,7 +18796,7 @@
         <v>205</v>
       </c>
       <c r="B181" s="1" t="str" cm="1">
-        <f t="array" ref="B181">_xlfn.TEXTJOIN(", ", TRUE, IF(C181:AC181=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B181">_xlfn.TEXTJOIN(", ", TRUE, IF(C181:AC181=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C181" s="1">
@@ -18886,7 +18886,7 @@
         <v>206</v>
       </c>
       <c r="B182" s="1" t="str" cm="1">
-        <f t="array" ref="B182">_xlfn.TEXTJOIN(", ", TRUE, IF(C182:AC182=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B182">_xlfn.TEXTJOIN(", ", TRUE, IF(C182:AC182=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C182" s="1">
@@ -18976,7 +18976,7 @@
         <v>207</v>
       </c>
       <c r="B183" s="1" t="str" cm="1">
-        <f t="array" ref="B183">_xlfn.TEXTJOIN(", ", TRUE, IF(C183:AC183=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B183">_xlfn.TEXTJOIN(", ", TRUE, IF(C183:AC183=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C183" s="1">
@@ -19066,7 +19066,7 @@
         <v>208</v>
       </c>
       <c r="B184" s="1" t="str" cm="1">
-        <f t="array" ref="B184">_xlfn.TEXTJOIN(", ", TRUE, IF(C184:AC184=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B184">_xlfn.TEXTJOIN(", ", TRUE, IF(C184:AC184=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C184" s="1">
@@ -19156,7 +19156,7 @@
         <v>209</v>
       </c>
       <c r="B185" s="1" t="str" cm="1">
-        <f t="array" ref="B185">_xlfn.TEXTJOIN(", ", TRUE, IF(C185:AC185=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B185">_xlfn.TEXTJOIN(", ", TRUE, IF(C185:AC185=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C185" s="1">
@@ -19246,7 +19246,7 @@
         <v>210</v>
       </c>
       <c r="B186" s="1" t="str" cm="1">
-        <f t="array" ref="B186">_xlfn.TEXTJOIN(", ", TRUE, IF(C186:AC186=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B186">_xlfn.TEXTJOIN(", ", TRUE, IF(C186:AC186=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C186" s="1">
@@ -19336,7 +19336,7 @@
         <v>211</v>
       </c>
       <c r="B187" s="1" t="str" cm="1">
-        <f t="array" ref="B187">_xlfn.TEXTJOIN(", ", TRUE, IF(C187:AC187=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B187">_xlfn.TEXTJOIN(", ", TRUE, IF(C187:AC187=1, C$1:AC$1, ""))</f>
         <v>aint, wh-qu2</v>
       </c>
       <c r="C187" s="1">
@@ -19426,7 +19426,7 @@
         <v>212</v>
       </c>
       <c r="B188" s="1" t="str" cm="1">
-        <f t="array" ref="B188">_xlfn.TEXTJOIN(", ", TRUE, IF(C188:AC188=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B188">_xlfn.TEXTJOIN(", ", TRUE, IF(C188:AC188=1, C$1:AC$1, ""))</f>
         <v>aint</v>
       </c>
       <c r="C188" s="1">
@@ -19516,7 +19516,7 @@
         <v>213</v>
       </c>
       <c r="B189" s="1" t="str" cm="1">
-        <f t="array" ref="B189">_xlfn.TEXTJOIN(", ", TRUE, IF(C189:AC189=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B189">_xlfn.TEXTJOIN(", ", TRUE, IF(C189:AC189=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C189" s="1">
@@ -19606,7 +19606,7 @@
         <v>214</v>
       </c>
       <c r="B190" s="1" t="str" cm="1">
-        <f t="array" ref="B190">_xlfn.TEXTJOIN(", ", TRUE, IF(C190:AC190=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B190">_xlfn.TEXTJOIN(", ", TRUE, IF(C190:AC190=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C190" s="1">
@@ -19696,7 +19696,7 @@
         <v>215</v>
       </c>
       <c r="B191" s="1" t="str" cm="1">
-        <f t="array" ref="B191">_xlfn.TEXTJOIN(", ", TRUE, IF(C191:AC191=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B191">_xlfn.TEXTJOIN(", ", TRUE, IF(C191:AC191=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C191" s="1">
@@ -19786,7 +19786,7 @@
         <v>216</v>
       </c>
       <c r="B192" s="1" t="str" cm="1">
-        <f t="array" ref="B192">_xlfn.TEXTJOIN(", ", TRUE, IF(C192:AC192=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B192">_xlfn.TEXTJOIN(", ", TRUE, IF(C192:AC192=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C192" s="1">
@@ -19876,7 +19876,7 @@
         <v>217</v>
       </c>
       <c r="B193" s="1" t="str" cm="1">
-        <f t="array" ref="B193">_xlfn.TEXTJOIN(", ", TRUE, IF(C193:AC193=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B193">_xlfn.TEXTJOIN(", ", TRUE, IF(C193:AC193=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C193" s="1">
@@ -19966,7 +19966,7 @@
         <v>218</v>
       </c>
       <c r="B194" s="1" t="str" cm="1">
-        <f t="array" ref="B194">_xlfn.TEXTJOIN(", ", TRUE, IF(C194:AC194=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B194">_xlfn.TEXTJOIN(", ", TRUE, IF(C194:AC194=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C194" s="1">
@@ -20056,7 +20056,7 @@
         <v>219</v>
       </c>
       <c r="B195" s="1" t="str" cm="1">
-        <f t="array" ref="B195">_xlfn.TEXTJOIN(", ", TRUE, IF(C195:AC195=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B195">_xlfn.TEXTJOIN(", ", TRUE, IF(C195:AC195=1, C$1:AC$1, ""))</f>
         <v>zero-3sg-pres-s</v>
       </c>
       <c r="C195" s="1">
@@ -20146,7 +20146,7 @@
         <v>220</v>
       </c>
       <c r="B196" s="1" t="str" cm="1">
-        <f t="array" ref="B196">_xlfn.TEXTJOIN(", ", TRUE, IF(C196:AC196=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B196">_xlfn.TEXTJOIN(", ", TRUE, IF(C196:AC196=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C196" s="1">
@@ -20236,7 +20236,7 @@
         <v>221</v>
       </c>
       <c r="B197" s="1" t="str" cm="1">
-        <f t="array" ref="B197">_xlfn.TEXTJOIN(", ", TRUE, IF(C197:AC197=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B197">_xlfn.TEXTJOIN(", ", TRUE, IF(C197:AC197=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C197" s="1">
@@ -20326,7 +20326,7 @@
         <v>222</v>
       </c>
       <c r="B198" s="1" t="str" cm="1">
-        <f t="array" ref="B198">_xlfn.TEXTJOIN(", ", TRUE, IF(C198:AC198=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B198">_xlfn.TEXTJOIN(", ", TRUE, IF(C198:AC198=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C198" s="1">
@@ -20416,7 +20416,7 @@
         <v>223</v>
       </c>
       <c r="B199" s="1" t="str" cm="1">
-        <f t="array" ref="B199">_xlfn.TEXTJOIN(", ", TRUE, IF(C199:AC199=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B199">_xlfn.TEXTJOIN(", ", TRUE, IF(C199:AC199=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C199" s="1">
@@ -20506,7 +20506,7 @@
         <v>224</v>
       </c>
       <c r="B200" s="1" t="str" cm="1">
-        <f t="array" ref="B200">_xlfn.TEXTJOIN(", ", TRUE, IF(C200:AC200=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B200">_xlfn.TEXTJOIN(", ", TRUE, IF(C200:AC200=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C200" s="1">
@@ -20596,7 +20596,7 @@
         <v>225</v>
       </c>
       <c r="B201" s="1" t="str" cm="1">
-        <f t="array" ref="B201">_xlfn.TEXTJOIN(", ", TRUE, IF(C201:AC201=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B201">_xlfn.TEXTJOIN(", ", TRUE, IF(C201:AC201=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C201" s="1">
@@ -20686,7 +20686,7 @@
         <v>226</v>
       </c>
       <c r="B202" s="1" t="str" cm="1">
-        <f t="array" ref="B202">_xlfn.TEXTJOIN(", ", TRUE, IF(C202:AC202=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B202">_xlfn.TEXTJOIN(", ", TRUE, IF(C202:AC202=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C202" s="1">
@@ -20776,7 +20776,7 @@
         <v>227</v>
       </c>
       <c r="B203" s="1" t="str" cm="1">
-        <f t="array" ref="B203">_xlfn.TEXTJOIN(", ", TRUE, IF(C203:AC203=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B203">_xlfn.TEXTJOIN(", ", TRUE, IF(C203:AC203=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C203" s="1">
@@ -20866,7 +20866,7 @@
         <v>228</v>
       </c>
       <c r="B204" s="1" t="str" cm="1">
-        <f t="array" ref="B204">_xlfn.TEXTJOIN(", ", TRUE, IF(C204:AC204=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B204">_xlfn.TEXTJOIN(", ", TRUE, IF(C204:AC204=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C204" s="1">
@@ -20956,7 +20956,7 @@
         <v>229</v>
       </c>
       <c r="B205" s="1" t="str" cm="1">
-        <f t="array" ref="B205">_xlfn.TEXTJOIN(", ", TRUE, IF(C205:AC205=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B205">_xlfn.TEXTJOIN(", ", TRUE, IF(C205:AC205=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C205" s="1">
@@ -21046,7 +21046,7 @@
         <v>230</v>
       </c>
       <c r="B206" s="1" t="str" cm="1">
-        <f t="array" ref="B206">_xlfn.TEXTJOIN(", ", TRUE, IF(C206:AC206=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B206">_xlfn.TEXTJOIN(", ", TRUE, IF(C206:AC206=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C206" s="1">
@@ -21136,7 +21136,7 @@
         <v>231</v>
       </c>
       <c r="B207" s="1" t="str" cm="1">
-        <f t="array" ref="B207">_xlfn.TEXTJOIN(", ", TRUE, IF(C207:AC207=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B207">_xlfn.TEXTJOIN(", ", TRUE, IF(C207:AC207=1, C$1:AC$1, ""))</f>
         <v>zero-poss</v>
       </c>
       <c r="C207" s="1">
@@ -21226,7 +21226,7 @@
         <v>232</v>
       </c>
       <c r="B208" s="1" t="str" cm="1">
-        <f t="array" ref="B208">_xlfn.TEXTJOIN(", ", TRUE, IF(C208:AC208=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B208">_xlfn.TEXTJOIN(", ", TRUE, IF(C208:AC208=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C208" s="1">
@@ -21316,7 +21316,7 @@
         <v>233</v>
       </c>
       <c r="B209" s="1" t="str" cm="1">
-        <f t="array" ref="B209">_xlfn.TEXTJOIN(", ", TRUE, IF(C209:AC209=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B209">_xlfn.TEXTJOIN(", ", TRUE, IF(C209:AC209=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C209" s="1">
@@ -21406,7 +21406,7 @@
         <v>234</v>
       </c>
       <c r="B210" s="1" t="str" cm="1">
-        <f t="array" ref="B210">_xlfn.TEXTJOIN(", ", TRUE, IF(C210:AC210=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B210">_xlfn.TEXTJOIN(", ", TRUE, IF(C210:AC210=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C210" s="1">
@@ -21496,7 +21496,7 @@
         <v>235</v>
       </c>
       <c r="B211" s="1" t="str" cm="1">
-        <f t="array" ref="B211">_xlfn.TEXTJOIN(", ", TRUE, IF(C211:AC211=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B211">_xlfn.TEXTJOIN(", ", TRUE, IF(C211:AC211=1, C$1:AC$1, ""))</f>
         <v>zero-poss</v>
       </c>
       <c r="C211" s="1">
@@ -21586,7 +21586,7 @@
         <v>236</v>
       </c>
       <c r="B212" s="1" t="str" cm="1">
-        <f t="array" ref="B212">_xlfn.TEXTJOIN(", ", TRUE, IF(C212:AC212=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B212">_xlfn.TEXTJOIN(", ", TRUE, IF(C212:AC212=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C212" s="1">
@@ -21676,7 +21676,7 @@
         <v>237</v>
       </c>
       <c r="B213" s="1" t="str" cm="1">
-        <f t="array" ref="B213">_xlfn.TEXTJOIN(", ", TRUE, IF(C213:AC213=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B213">_xlfn.TEXTJOIN(", ", TRUE, IF(C213:AC213=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C213" s="1">
@@ -21766,7 +21766,7 @@
         <v>238</v>
       </c>
       <c r="B214" s="1" t="str" cm="1">
-        <f t="array" ref="B214">_xlfn.TEXTJOIN(", ", TRUE, IF(C214:AC214=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B214">_xlfn.TEXTJOIN(", ", TRUE, IF(C214:AC214=1, C$1:AC$1, ""))</f>
         <v>is-was-gen</v>
       </c>
       <c r="C214" s="1">
@@ -21856,7 +21856,7 @@
         <v>239</v>
       </c>
       <c r="B215" s="1" t="str" cm="1">
-        <f t="array" ref="B215">_xlfn.TEXTJOIN(", ", TRUE, IF(C215:AC215=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B215">_xlfn.TEXTJOIN(", ", TRUE, IF(C215:AC215=1, C$1:AC$1, ""))</f>
         <v>is-was-gen</v>
       </c>
       <c r="C215" s="1">
@@ -21946,7 +21946,7 @@
         <v>240</v>
       </c>
       <c r="B216" s="1" t="str" cm="1">
-        <f t="array" ref="B216">_xlfn.TEXTJOIN(", ", TRUE, IF(C216:AC216=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B216">_xlfn.TEXTJOIN(", ", TRUE, IF(C216:AC216=1, C$1:AC$1, ""))</f>
         <v>multiple-neg</v>
       </c>
       <c r="C216" s="1">
@@ -22036,7 +22036,7 @@
         <v>241</v>
       </c>
       <c r="B217" s="1" t="str" cm="1">
-        <f t="array" ref="B217">_xlfn.TEXTJOIN(", ", TRUE, IF(C217:AC217=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B217">_xlfn.TEXTJOIN(", ", TRUE, IF(C217:AC217=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C217" s="1">
@@ -22126,7 +22126,7 @@
         <v>242</v>
       </c>
       <c r="B218" s="1" t="str" cm="1">
-        <f t="array" ref="B218">_xlfn.TEXTJOIN(", ", TRUE, IF(C218:AC218=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B218">_xlfn.TEXTJOIN(", ", TRUE, IF(C218:AC218=1, C$1:AC$1, ""))</f>
         <v>zero-3sg-pres-s</v>
       </c>
       <c r="C218" s="1">
@@ -22216,7 +22216,7 @@
         <v>243</v>
       </c>
       <c r="B219" s="1" t="str" cm="1">
-        <f t="array" ref="B219">_xlfn.TEXTJOIN(", ", TRUE, IF(C219:AC219=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B219">_xlfn.TEXTJOIN(", ", TRUE, IF(C219:AC219=1, C$1:AC$1, ""))</f>
         <v>zero-3sg-pres-s</v>
       </c>
       <c r="C219" s="1">
@@ -22306,7 +22306,7 @@
         <v>244</v>
       </c>
       <c r="B220" s="1" t="str" cm="1">
-        <f t="array" ref="B220">_xlfn.TEXTJOIN(", ", TRUE, IF(C220:AC220=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B220">_xlfn.TEXTJOIN(", ", TRUE, IF(C220:AC220=1, C$1:AC$1, ""))</f>
         <v>zero-3sg-pres-s</v>
       </c>
       <c r="C220" s="1">
@@ -22396,7 +22396,7 @@
         <v>245</v>
       </c>
       <c r="B221" s="1" t="str" cm="1">
-        <f t="array" ref="B221">_xlfn.TEXTJOIN(", ", TRUE, IF(C221:AC221=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B221">_xlfn.TEXTJOIN(", ", TRUE, IF(C221:AC221=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C221" s="1">
@@ -22486,7 +22486,7 @@
         <v>246</v>
       </c>
       <c r="B222" s="1" t="str" cm="1">
-        <f t="array" ref="B222">_xlfn.TEXTJOIN(", ", TRUE, IF(C222:AC222=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B222">_xlfn.TEXTJOIN(", ", TRUE, IF(C222:AC222=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C222" s="1">
@@ -22576,7 +22576,7 @@
         <v>247</v>
       </c>
       <c r="B223" s="1" t="str" cm="1">
-        <f t="array" ref="B223">_xlfn.TEXTJOIN(", ", TRUE, IF(C223:AC223=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B223">_xlfn.TEXTJOIN(", ", TRUE, IF(C223:AC223=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C223" s="1">
@@ -22666,7 +22666,7 @@
         <v>248</v>
       </c>
       <c r="B224" s="1" t="str" cm="1">
-        <f t="array" ref="B224">_xlfn.TEXTJOIN(", ", TRUE, IF(C224:AC224=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B224">_xlfn.TEXTJOIN(", ", TRUE, IF(C224:AC224=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C224" s="1">
@@ -22756,7 +22756,7 @@
         <v>249</v>
       </c>
       <c r="B225" s="1" t="str" cm="1">
-        <f t="array" ref="B225">_xlfn.TEXTJOIN(", ", TRUE, IF(C225:AC225=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B225">_xlfn.TEXTJOIN(", ", TRUE, IF(C225:AC225=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C225" s="1">
@@ -22846,7 +22846,7 @@
         <v>250</v>
       </c>
       <c r="B226" s="1" t="str" cm="1">
-        <f t="array" ref="B226">_xlfn.TEXTJOIN(", ", TRUE, IF(C226:AC226=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B226">_xlfn.TEXTJOIN(", ", TRUE, IF(C226:AC226=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C226" s="1">
@@ -22936,7 +22936,7 @@
         <v>251</v>
       </c>
       <c r="B227" s="1" t="str" cm="1">
-        <f t="array" ref="B227">_xlfn.TEXTJOIN(", ", TRUE, IF(C227:AC227=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B227">_xlfn.TEXTJOIN(", ", TRUE, IF(C227:AC227=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C227" s="1">
@@ -23026,7 +23026,7 @@
         <v>252</v>
       </c>
       <c r="B228" s="1" t="str" cm="1">
-        <f t="array" ref="B228">_xlfn.TEXTJOIN(", ", TRUE, IF(C228:AC228=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B228">_xlfn.TEXTJOIN(", ", TRUE, IF(C228:AC228=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C228" s="1">
@@ -23115,9 +23115,9 @@
       <c r="A229" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B229" s="1" t="e" cm="1">
-        <f t="array" ref="B229">_xlfn.TEXTJOIN(", ", TRUE, IF(C229:AC229=1, C$1:AB$1, ""))</f>
-        <v>#N/A</v>
+      <c r="B229" s="1" t="str" cm="1">
+        <f t="array" ref="B229">_xlfn.TEXTJOIN(", ", TRUE, IF(C229:AC229=1, C$1:AC$1, ""))</f>
+        <v>bare-got</v>
       </c>
       <c r="C229" s="1">
         <v>0</v>
@@ -23206,7 +23206,7 @@
         <v>254</v>
       </c>
       <c r="B230" s="1" t="str" cm="1">
-        <f t="array" ref="B230">_xlfn.TEXTJOIN(", ", TRUE, IF(C230:AC230=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B230">_xlfn.TEXTJOIN(", ", TRUE, IF(C230:AC230=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C230" s="1">
@@ -23296,7 +23296,7 @@
         <v>255</v>
       </c>
       <c r="B231" s="1" t="str" cm="1">
-        <f t="array" ref="B231">_xlfn.TEXTJOIN(", ", TRUE, IF(C231:AC231=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B231">_xlfn.TEXTJOIN(", ", TRUE, IF(C231:AC231=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C231" s="1">
@@ -23386,7 +23386,7 @@
         <v>256</v>
       </c>
       <c r="B232" s="1" t="str" cm="1">
-        <f t="array" ref="B232">_xlfn.TEXTJOIN(", ", TRUE, IF(C232:AC232=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B232">_xlfn.TEXTJOIN(", ", TRUE, IF(C232:AC232=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C232" s="1">
@@ -23475,9 +23475,9 @@
       <c r="A233" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B233" s="1" t="e" cm="1">
-        <f t="array" ref="B233">_xlfn.TEXTJOIN(", ", TRUE, IF(C233:AC233=1, C$1:AB$1, ""))</f>
-        <v>#N/A</v>
+      <c r="B233" s="1" t="str" cm="1">
+        <f t="array" ref="B233">_xlfn.TEXTJOIN(", ", TRUE, IF(C233:AC233=1, C$1:AC$1, ""))</f>
+        <v>bare-got</v>
       </c>
       <c r="C233" s="1">
         <v>0</v>
@@ -23566,7 +23566,7 @@
         <v>258</v>
       </c>
       <c r="B234" s="1" t="str" cm="1">
-        <f t="array" ref="B234">_xlfn.TEXTJOIN(", ", TRUE, IF(C234:AC234=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B234">_xlfn.TEXTJOIN(", ", TRUE, IF(C234:AC234=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C234" s="1">
@@ -23656,7 +23656,7 @@
         <v>259</v>
       </c>
       <c r="B235" s="1" t="str" cm="1">
-        <f t="array" ref="B235">_xlfn.TEXTJOIN(", ", TRUE, IF(C235:AC235=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B235">_xlfn.TEXTJOIN(", ", TRUE, IF(C235:AC235=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C235" s="1">
@@ -23746,7 +23746,7 @@
         <v>260</v>
       </c>
       <c r="B236" s="1" t="str" cm="1">
-        <f t="array" ref="B236">_xlfn.TEXTJOIN(", ", TRUE, IF(C236:AC236=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B236">_xlfn.TEXTJOIN(", ", TRUE, IF(C236:AC236=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C236" s="1">
@@ -23836,7 +23836,7 @@
         <v>261</v>
       </c>
       <c r="B237" s="1" t="str" cm="1">
-        <f t="array" ref="B237">_xlfn.TEXTJOIN(", ", TRUE, IF(C237:AC237=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B237">_xlfn.TEXTJOIN(", ", TRUE, IF(C237:AC237=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C237" s="1">
@@ -23926,7 +23926,7 @@
         <v>262</v>
       </c>
       <c r="B238" s="1" t="str" cm="1">
-        <f t="array" ref="B238">_xlfn.TEXTJOIN(", ", TRUE, IF(C238:AC238=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B238">_xlfn.TEXTJOIN(", ", TRUE, IF(C238:AC238=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C238" s="1">
@@ -24016,7 +24016,7 @@
         <v>263</v>
       </c>
       <c r="B239" s="1" t="str" cm="1">
-        <f t="array" ref="B239">_xlfn.TEXTJOIN(", ", TRUE, IF(C239:AC239=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B239">_xlfn.TEXTJOIN(", ", TRUE, IF(C239:AC239=1, C$1:AC$1, ""))</f>
         <v>zero-3sg-pres-s</v>
       </c>
       <c r="C239" s="1">
@@ -24106,7 +24106,7 @@
         <v>264</v>
       </c>
       <c r="B240" s="1" t="str" cm="1">
-        <f t="array" ref="B240">_xlfn.TEXTJOIN(", ", TRUE, IF(C240:AC240=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B240">_xlfn.TEXTJOIN(", ", TRUE, IF(C240:AC240=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C240" s="1">
@@ -24196,7 +24196,7 @@
         <v>265</v>
       </c>
       <c r="B241" s="1" t="str" cm="1">
-        <f t="array" ref="B241">_xlfn.TEXTJOIN(", ", TRUE, IF(C241:AC241=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B241">_xlfn.TEXTJOIN(", ", TRUE, IF(C241:AC241=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C241" s="1">
@@ -24286,7 +24286,7 @@
         <v>266</v>
       </c>
       <c r="B242" s="1" t="str" cm="1">
-        <f t="array" ref="B242">_xlfn.TEXTJOIN(", ", TRUE, IF(C242:AC242=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B242">_xlfn.TEXTJOIN(", ", TRUE, IF(C242:AC242=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C242" s="1">
@@ -24376,7 +24376,7 @@
         <v>267</v>
       </c>
       <c r="B243" s="1" t="str" cm="1">
-        <f t="array" ref="B243">_xlfn.TEXTJOIN(", ", TRUE, IF(C243:AC243=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B243">_xlfn.TEXTJOIN(", ", TRUE, IF(C243:AC243=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C243" s="1">
@@ -24466,7 +24466,7 @@
         <v>268</v>
       </c>
       <c r="B244" s="1" t="str" cm="1">
-        <f t="array" ref="B244">_xlfn.TEXTJOIN(", ", TRUE, IF(C244:AC244=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B244">_xlfn.TEXTJOIN(", ", TRUE, IF(C244:AC244=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C244" s="1">
@@ -24556,7 +24556,7 @@
         <v>269</v>
       </c>
       <c r="B245" s="1" t="str" cm="1">
-        <f t="array" ref="B245">_xlfn.TEXTJOIN(", ", TRUE, IF(C245:AC245=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B245">_xlfn.TEXTJOIN(", ", TRUE, IF(C245:AC245=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C245" s="1">
@@ -24646,7 +24646,7 @@
         <v>270</v>
       </c>
       <c r="B246" s="1" t="str" cm="1">
-        <f t="array" ref="B246">_xlfn.TEXTJOIN(", ", TRUE, IF(C246:AC246=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B246">_xlfn.TEXTJOIN(", ", TRUE, IF(C246:AC246=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C246" s="1">
@@ -24736,7 +24736,7 @@
         <v>271</v>
       </c>
       <c r="B247" s="1" t="str" cm="1">
-        <f t="array" ref="B247">_xlfn.TEXTJOIN(", ", TRUE, IF(C247:AC247=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B247">_xlfn.TEXTJOIN(", ", TRUE, IF(C247:AC247=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C247" s="1">
@@ -24826,7 +24826,7 @@
         <v>272</v>
       </c>
       <c r="B248" s="1" t="str" cm="1">
-        <f t="array" ref="B248">_xlfn.TEXTJOIN(", ", TRUE, IF(C248:AC248=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B248">_xlfn.TEXTJOIN(", ", TRUE, IF(C248:AC248=1, C$1:AC$1, ""))</f>
         <v>is-was-gen</v>
       </c>
       <c r="C248" s="1">
@@ -24916,7 +24916,7 @@
         <v>273</v>
       </c>
       <c r="B249" s="1" t="str" cm="1">
-        <f t="array" ref="B249">_xlfn.TEXTJOIN(", ", TRUE, IF(C249:AC249=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B249">_xlfn.TEXTJOIN(", ", TRUE, IF(C249:AC249=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C249" s="1">
@@ -25005,9 +25005,9 @@
       <c r="A250" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B250" s="1" t="e" cm="1">
-        <f t="array" ref="B250">_xlfn.TEXTJOIN(", ", TRUE, IF(C250:AC250=1, C$1:AB$1, ""))</f>
-        <v>#N/A</v>
+      <c r="B250" s="1" t="str" cm="1">
+        <f t="array" ref="B250">_xlfn.TEXTJOIN(", ", TRUE, IF(C250:AC250=1, C$1:AC$1, ""))</f>
+        <v>bare-got</v>
       </c>
       <c r="C250" s="1">
         <v>0</v>
@@ -25096,7 +25096,7 @@
         <v>275</v>
       </c>
       <c r="B251" s="1" t="str" cm="1">
-        <f t="array" ref="B251">_xlfn.TEXTJOIN(", ", TRUE, IF(C251:AC251=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B251">_xlfn.TEXTJOIN(", ", TRUE, IF(C251:AC251=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C251" s="1">
@@ -25186,8 +25186,8 @@
         <v>276</v>
       </c>
       <c r="B252" s="1" t="str" cm="1">
-        <f t="array" ref="B252">_xlfn.TEXTJOIN(", ", TRUE, IF(C252:AC252=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B252">_xlfn.TEXTJOIN(", ", TRUE, IF(C252:AC252=1, C$1:AC$1, ""))</f>
+        <v>bare-got</v>
       </c>
       <c r="C252" s="1">
         <v>0</v>
@@ -25268,7 +25268,7 @@
         <v>0</v>
       </c>
       <c r="AC252" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:29" ht="14" x14ac:dyDescent="0.15">
@@ -25276,7 +25276,7 @@
         <v>277</v>
       </c>
       <c r="B253" s="1" t="str" cm="1">
-        <f t="array" ref="B253">_xlfn.TEXTJOIN(", ", TRUE, IF(C253:AC253=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B253">_xlfn.TEXTJOIN(", ", TRUE, IF(C253:AC253=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C253" s="1">
@@ -25366,7 +25366,7 @@
         <v>278</v>
       </c>
       <c r="B254" s="1" t="str" cm="1">
-        <f t="array" ref="B254">_xlfn.TEXTJOIN(", ", TRUE, IF(C254:AC254=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B254">_xlfn.TEXTJOIN(", ", TRUE, IF(C254:AC254=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C254" s="1">
@@ -25456,7 +25456,7 @@
         <v>279</v>
       </c>
       <c r="B255" s="1" t="str" cm="1">
-        <f t="array" ref="B255">_xlfn.TEXTJOIN(", ", TRUE, IF(C255:AC255=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B255">_xlfn.TEXTJOIN(", ", TRUE, IF(C255:AC255=1, C$1:AC$1, ""))</f>
         <v>multiple-neg</v>
       </c>
       <c r="C255" s="1">
@@ -25546,7 +25546,7 @@
         <v>280</v>
       </c>
       <c r="B256" s="1" t="str" cm="1">
-        <f t="array" ref="B256">_xlfn.TEXTJOIN(", ", TRUE, IF(C256:AC256=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B256">_xlfn.TEXTJOIN(", ", TRUE, IF(C256:AC256=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C256" s="1">
@@ -25636,7 +25636,7 @@
         <v>281</v>
       </c>
       <c r="B257" s="1" t="str" cm="1">
-        <f t="array" ref="B257">_xlfn.TEXTJOIN(", ", TRUE, IF(C257:AC257=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B257">_xlfn.TEXTJOIN(", ", TRUE, IF(C257:AC257=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C257" s="1">
@@ -25726,7 +25726,7 @@
         <v>282</v>
       </c>
       <c r="B258" s="1" t="str" cm="1">
-        <f t="array" ref="B258">_xlfn.TEXTJOIN(", ", TRUE, IF(C258:AC258=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B258">_xlfn.TEXTJOIN(", ", TRUE, IF(C258:AC258=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C258" s="1">
@@ -25816,7 +25816,7 @@
         <v>283</v>
       </c>
       <c r="B259" s="1" t="str" cm="1">
-        <f t="array" ref="B259">_xlfn.TEXTJOIN(", ", TRUE, IF(C259:AC259=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B259">_xlfn.TEXTJOIN(", ", TRUE, IF(C259:AC259=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C259" s="1">
@@ -25906,7 +25906,7 @@
         <v>284</v>
       </c>
       <c r="B260" s="1" t="str" cm="1">
-        <f t="array" ref="B260">_xlfn.TEXTJOIN(", ", TRUE, IF(C260:AC260=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B260">_xlfn.TEXTJOIN(", ", TRUE, IF(C260:AC260=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C260" s="1">
@@ -25996,7 +25996,7 @@
         <v>285</v>
       </c>
       <c r="B261" s="1" t="str" cm="1">
-        <f t="array" ref="B261">_xlfn.TEXTJOIN(", ", TRUE, IF(C261:AC261=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B261">_xlfn.TEXTJOIN(", ", TRUE, IF(C261:AC261=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C261" s="1">
@@ -26086,7 +26086,7 @@
         <v>286</v>
       </c>
       <c r="B262" s="1" t="str" cm="1">
-        <f t="array" ref="B262">_xlfn.TEXTJOIN(", ", TRUE, IF(C262:AC262=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B262">_xlfn.TEXTJOIN(", ", TRUE, IF(C262:AC262=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C262" s="1">
@@ -26176,7 +26176,7 @@
         <v>287</v>
       </c>
       <c r="B263" s="1" t="str" cm="1">
-        <f t="array" ref="B263">_xlfn.TEXTJOIN(", ", TRUE, IF(C263:AC263=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B263">_xlfn.TEXTJOIN(", ", TRUE, IF(C263:AC263=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C263" s="1">
@@ -26266,7 +26266,7 @@
         <v>288</v>
       </c>
       <c r="B264" s="1" t="str" cm="1">
-        <f t="array" ref="B264">_xlfn.TEXTJOIN(", ", TRUE, IF(C264:AC264=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B264">_xlfn.TEXTJOIN(", ", TRUE, IF(C264:AC264=1, C$1:AC$1, ""))</f>
         <v>aint, is-was-gen</v>
       </c>
       <c r="C264" s="1">
@@ -26356,7 +26356,7 @@
         <v>289</v>
       </c>
       <c r="B265" s="1" t="str" cm="1">
-        <f t="array" ref="B265">_xlfn.TEXTJOIN(", ", TRUE, IF(C265:AC265=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B265">_xlfn.TEXTJOIN(", ", TRUE, IF(C265:AC265=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C265" s="1">
@@ -26446,7 +26446,7 @@
         <v>290</v>
       </c>
       <c r="B266" s="1" t="str" cm="1">
-        <f t="array" ref="B266">_xlfn.TEXTJOIN(", ", TRUE, IF(C266:AC266=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B266">_xlfn.TEXTJOIN(", ", TRUE, IF(C266:AC266=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C266" s="1">
@@ -26536,7 +26536,7 @@
         <v>291</v>
       </c>
       <c r="B267" s="1" t="str" cm="1">
-        <f t="array" ref="B267">_xlfn.TEXTJOIN(", ", TRUE, IF(C267:AC267=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B267">_xlfn.TEXTJOIN(", ", TRUE, IF(C267:AC267=1, C$1:AC$1, ""))</f>
         <v>is-was-gen</v>
       </c>
       <c r="C267" s="1">
@@ -26626,7 +26626,7 @@
         <v>292</v>
       </c>
       <c r="B268" s="1" t="str" cm="1">
-        <f t="array" ref="B268">_xlfn.TEXTJOIN(", ", TRUE, IF(C268:AC268=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B268">_xlfn.TEXTJOIN(", ", TRUE, IF(C268:AC268=1, C$1:AC$1, ""))</f>
         <v>existential-it</v>
       </c>
       <c r="C268" s="1">
@@ -26716,7 +26716,7 @@
         <v>293</v>
       </c>
       <c r="B269" s="1" t="str" cm="1">
-        <f t="array" ref="B269">_xlfn.TEXTJOIN(", ", TRUE, IF(C269:AC269=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B269">_xlfn.TEXTJOIN(", ", TRUE, IF(C269:AC269=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C269" s="1">
@@ -26806,7 +26806,7 @@
         <v>294</v>
       </c>
       <c r="B270" s="1" t="str" cm="1">
-        <f t="array" ref="B270">_xlfn.TEXTJOIN(", ", TRUE, IF(C270:AC270=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B270">_xlfn.TEXTJOIN(", ", TRUE, IF(C270:AC270=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C270" s="1">
@@ -26896,7 +26896,7 @@
         <v>295</v>
       </c>
       <c r="B271" s="1" t="str" cm="1">
-        <f t="array" ref="B271">_xlfn.TEXTJOIN(", ", TRUE, IF(C271:AC271=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B271">_xlfn.TEXTJOIN(", ", TRUE, IF(C271:AC271=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C271" s="1">
@@ -26986,7 +26986,7 @@
         <v>296</v>
       </c>
       <c r="B272" s="1" t="str" cm="1">
-        <f t="array" ref="B272">_xlfn.TEXTJOIN(", ", TRUE, IF(C272:AC272=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B272">_xlfn.TEXTJOIN(", ", TRUE, IF(C272:AC272=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C272" s="1">
@@ -27076,7 +27076,7 @@
         <v>297</v>
       </c>
       <c r="B273" s="1" t="str" cm="1">
-        <f t="array" ref="B273">_xlfn.TEXTJOIN(", ", TRUE, IF(C273:AC273=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B273">_xlfn.TEXTJOIN(", ", TRUE, IF(C273:AC273=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C273" s="1">
@@ -27166,7 +27166,7 @@
         <v>298</v>
       </c>
       <c r="B274" s="1" t="str" cm="1">
-        <f t="array" ref="B274">_xlfn.TEXTJOIN(", ", TRUE, IF(C274:AC274=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B274">_xlfn.TEXTJOIN(", ", TRUE, IF(C274:AC274=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C274" s="1">
@@ -27256,7 +27256,7 @@
         <v>299</v>
       </c>
       <c r="B275" s="1" t="str" cm="1">
-        <f t="array" ref="B275">_xlfn.TEXTJOIN(", ", TRUE, IF(C275:AC275=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B275">_xlfn.TEXTJOIN(", ", TRUE, IF(C275:AC275=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C275" s="1">
@@ -27346,7 +27346,7 @@
         <v>300</v>
       </c>
       <c r="B276" s="1" t="str" cm="1">
-        <f t="array" ref="B276">_xlfn.TEXTJOIN(", ", TRUE, IF(C276:AC276=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B276">_xlfn.TEXTJOIN(", ", TRUE, IF(C276:AC276=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C276" s="1">
@@ -27436,7 +27436,7 @@
         <v>301</v>
       </c>
       <c r="B277" s="1" t="str" cm="1">
-        <f t="array" ref="B277">_xlfn.TEXTJOIN(", ", TRUE, IF(C277:AC277=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B277">_xlfn.TEXTJOIN(", ", TRUE, IF(C277:AC277=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C277" s="1">
@@ -27526,7 +27526,7 @@
         <v>302</v>
       </c>
       <c r="B278" s="1" t="str" cm="1">
-        <f t="array" ref="B278">_xlfn.TEXTJOIN(", ", TRUE, IF(C278:AC278=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B278">_xlfn.TEXTJOIN(", ", TRUE, IF(C278:AC278=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C278" s="1">
@@ -27616,7 +27616,7 @@
         <v>303</v>
       </c>
       <c r="B279" s="1" t="str" cm="1">
-        <f t="array" ref="B279">_xlfn.TEXTJOIN(", ", TRUE, IF(C279:AC279=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B279">_xlfn.TEXTJOIN(", ", TRUE, IF(C279:AC279=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C279" s="1">
@@ -27706,7 +27706,7 @@
         <v>304</v>
       </c>
       <c r="B280" s="1" t="str" cm="1">
-        <f t="array" ref="B280">_xlfn.TEXTJOIN(", ", TRUE, IF(C280:AC280=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B280">_xlfn.TEXTJOIN(", ", TRUE, IF(C280:AC280=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C280" s="1">
@@ -27796,7 +27796,7 @@
         <v>305</v>
       </c>
       <c r="B281" s="1" t="str" cm="1">
-        <f t="array" ref="B281">_xlfn.TEXTJOIN(", ", TRUE, IF(C281:AC281=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B281">_xlfn.TEXTJOIN(", ", TRUE, IF(C281:AC281=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C281" s="1">
@@ -27886,7 +27886,7 @@
         <v>306</v>
       </c>
       <c r="B282" s="1" t="str" cm="1">
-        <f t="array" ref="B282">_xlfn.TEXTJOIN(", ", TRUE, IF(C282:AC282=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B282">_xlfn.TEXTJOIN(", ", TRUE, IF(C282:AC282=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C282" s="1">
@@ -27976,7 +27976,7 @@
         <v>307</v>
       </c>
       <c r="B283" s="1" t="str" cm="1">
-        <f t="array" ref="B283">_xlfn.TEXTJOIN(", ", TRUE, IF(C283:AC283=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B283">_xlfn.TEXTJOIN(", ", TRUE, IF(C283:AC283=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C283" s="1">
@@ -28066,8 +28066,8 @@
         <v>308</v>
       </c>
       <c r="B284" s="1" t="str" cm="1">
-        <f t="array" ref="B284">_xlfn.TEXTJOIN(", ", TRUE, IF(C284:AC284=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B284">_xlfn.TEXTJOIN(", ", TRUE, IF(C284:AC284=1, C$1:AC$1, ""))</f>
+        <v>appositive-pleonastic-pronoun</v>
       </c>
       <c r="C284" s="1">
         <v>0</v>
@@ -28130,7 +28130,7 @@
         <v>0</v>
       </c>
       <c r="W284" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X284" s="1">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>309</v>
       </c>
       <c r="B285" s="1" t="str" cm="1">
-        <f t="array" ref="B285">_xlfn.TEXTJOIN(", ", TRUE, IF(C285:AC285=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B285">_xlfn.TEXTJOIN(", ", TRUE, IF(C285:AC285=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C285" s="1">
@@ -28246,8 +28246,8 @@
         <v>310</v>
       </c>
       <c r="B286" s="1" t="str" cm="1">
-        <f t="array" ref="B286">_xlfn.TEXTJOIN(", ", TRUE, IF(C286:AC286=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B286">_xlfn.TEXTJOIN(", ", TRUE, IF(C286:AC286=1, C$1:AC$1, ""))</f>
+        <v>zero-3sg-pres-s</v>
       </c>
       <c r="C286" s="1">
         <v>0</v>
@@ -28286,7 +28286,7 @@
         <v>0</v>
       </c>
       <c r="O286" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P286" s="1">
         <v>0</v>
@@ -28336,11 +28336,11 @@
         <v>311</v>
       </c>
       <c r="B287" s="1" t="str" cm="1">
-        <f t="array" ref="B287">_xlfn.TEXTJOIN(", ", TRUE, IF(C287:AC287=1, C$1:AB$1, ""))</f>
-        <v>be-construction</v>
+        <f t="array" ref="B287">_xlfn.TEXTJOIN(", ", TRUE, IF(C287:AC287=1, C$1:AC$1, ""))</f>
+        <v>zero-poss, be-construction</v>
       </c>
       <c r="C287" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -28426,7 +28426,7 @@
         <v>312</v>
       </c>
       <c r="B288" s="1" t="str" cm="1">
-        <f t="array" ref="B288">_xlfn.TEXTJOIN(", ", TRUE, IF(C288:AC288=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B288">_xlfn.TEXTJOIN(", ", TRUE, IF(C288:AC288=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C288" s="1">
@@ -28516,7 +28516,7 @@
         <v>313</v>
       </c>
       <c r="B289" s="1" t="str" cm="1">
-        <f t="array" ref="B289">_xlfn.TEXTJOIN(", ", TRUE, IF(C289:AC289=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B289">_xlfn.TEXTJOIN(", ", TRUE, IF(C289:AC289=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C289" s="1">
@@ -28606,7 +28606,7 @@
         <v>314</v>
       </c>
       <c r="B290" s="1" t="str" cm="1">
-        <f t="array" ref="B290">_xlfn.TEXTJOIN(", ", TRUE, IF(C290:AC290=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B290">_xlfn.TEXTJOIN(", ", TRUE, IF(C290:AC290=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C290" s="1">
@@ -28696,7 +28696,7 @@
         <v>315</v>
       </c>
       <c r="B291" s="1" t="str" cm="1">
-        <f t="array" ref="B291">_xlfn.TEXTJOIN(", ", TRUE, IF(C291:AC291=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B291">_xlfn.TEXTJOIN(", ", TRUE, IF(C291:AC291=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C291" s="1">
@@ -28786,7 +28786,7 @@
         <v>316</v>
       </c>
       <c r="B292" s="1" t="str" cm="1">
-        <f t="array" ref="B292">_xlfn.TEXTJOIN(", ", TRUE, IF(C292:AC292=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B292">_xlfn.TEXTJOIN(", ", TRUE, IF(C292:AC292=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C292" s="1">
@@ -28876,7 +28876,7 @@
         <v>317</v>
       </c>
       <c r="B293" s="1" t="str" cm="1">
-        <f t="array" ref="B293">_xlfn.TEXTJOIN(", ", TRUE, IF(C293:AC293=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B293">_xlfn.TEXTJOIN(", ", TRUE, IF(C293:AC293=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C293" s="1">
@@ -28966,7 +28966,7 @@
         <v>318</v>
       </c>
       <c r="B294" s="1" t="str" cm="1">
-        <f t="array" ref="B294">_xlfn.TEXTJOIN(", ", TRUE, IF(C294:AC294=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B294">_xlfn.TEXTJOIN(", ", TRUE, IF(C294:AC294=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C294" s="1">
@@ -29056,7 +29056,7 @@
         <v>319</v>
       </c>
       <c r="B295" s="1" t="str" cm="1">
-        <f t="array" ref="B295">_xlfn.TEXTJOIN(", ", TRUE, IF(C295:AC295=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B295">_xlfn.TEXTJOIN(", ", TRUE, IF(C295:AC295=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C295" s="1">
@@ -29146,7 +29146,7 @@
         <v>320</v>
       </c>
       <c r="B296" s="1" t="str" cm="1">
-        <f t="array" ref="B296">_xlfn.TEXTJOIN(", ", TRUE, IF(C296:AC296=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B296">_xlfn.TEXTJOIN(", ", TRUE, IF(C296:AC296=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C296" s="1">
@@ -29236,7 +29236,7 @@
         <v>321</v>
       </c>
       <c r="B297" s="1" t="str" cm="1">
-        <f t="array" ref="B297">_xlfn.TEXTJOIN(", ", TRUE, IF(C297:AC297=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B297">_xlfn.TEXTJOIN(", ", TRUE, IF(C297:AC297=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C297" s="1">
@@ -29326,7 +29326,7 @@
         <v>322</v>
       </c>
       <c r="B298" s="1" t="str" cm="1">
-        <f t="array" ref="B298">_xlfn.TEXTJOIN(", ", TRUE, IF(C298:AC298=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B298">_xlfn.TEXTJOIN(", ", TRUE, IF(C298:AC298=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C298" s="1">
@@ -29416,7 +29416,7 @@
         <v>323</v>
       </c>
       <c r="B299" s="1" t="str" cm="1">
-        <f t="array" ref="B299">_xlfn.TEXTJOIN(", ", TRUE, IF(C299:AC299=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B299">_xlfn.TEXTJOIN(", ", TRUE, IF(C299:AC299=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C299" s="1">
@@ -29506,7 +29506,7 @@
         <v>324</v>
       </c>
       <c r="B300" s="1" t="str" cm="1">
-        <f t="array" ref="B300">_xlfn.TEXTJOIN(", ", TRUE, IF(C300:AC300=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B300">_xlfn.TEXTJOIN(", ", TRUE, IF(C300:AC300=1, C$1:AC$1, ""))</f>
         <v>bin</v>
       </c>
       <c r="C300" s="1">
@@ -29596,11 +29596,11 @@
         <v>325</v>
       </c>
       <c r="B301" s="1" t="str" cm="1">
-        <f t="array" ref="B301">_xlfn.TEXTJOIN(", ", TRUE, IF(C301:AC301=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B301">_xlfn.TEXTJOIN(", ", TRUE, IF(C301:AC301=1, C$1:AC$1, ""))</f>
+        <v>zero-poss</v>
       </c>
       <c r="C301" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -29686,7 +29686,7 @@
         <v>326</v>
       </c>
       <c r="B302" s="1" t="str" cm="1">
-        <f t="array" ref="B302">_xlfn.TEXTJOIN(", ", TRUE, IF(C302:AC302=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B302">_xlfn.TEXTJOIN(", ", TRUE, IF(C302:AC302=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C302" s="1">
@@ -29776,7 +29776,7 @@
         <v>327</v>
       </c>
       <c r="B303" s="1" t="str" cm="1">
-        <f t="array" ref="B303">_xlfn.TEXTJOIN(", ", TRUE, IF(C303:AC303=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B303">_xlfn.TEXTJOIN(", ", TRUE, IF(C303:AC303=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C303" s="1">
@@ -29866,8 +29866,8 @@
         <v>328</v>
       </c>
       <c r="B304" s="1" t="str" cm="1">
-        <f t="array" ref="B304">_xlfn.TEXTJOIN(", ", TRUE, IF(C304:AC304=1, C$1:AB$1, ""))</f>
-        <v>zero-copula</v>
+        <f t="array" ref="B304">_xlfn.TEXTJOIN(", ", TRUE, IF(C304:AC304=1, C$1:AC$1, ""))</f>
+        <v>zero-copula, wh-qu1</v>
       </c>
       <c r="C304" s="1">
         <v>0</v>
@@ -29918,7 +29918,7 @@
         <v>0</v>
       </c>
       <c r="S304" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T304" s="1">
         <v>0</v>
@@ -29956,7 +29956,7 @@
         <v>329</v>
       </c>
       <c r="B305" s="1" t="str" cm="1">
-        <f t="array" ref="B305">_xlfn.TEXTJOIN(", ", TRUE, IF(C305:AC305=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B305">_xlfn.TEXTJOIN(", ", TRUE, IF(C305:AC305=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C305" s="1">
@@ -30046,7 +30046,7 @@
         <v>330</v>
       </c>
       <c r="B306" s="1" t="str" cm="1">
-        <f t="array" ref="B306">_xlfn.TEXTJOIN(", ", TRUE, IF(C306:AC306=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B306">_xlfn.TEXTJOIN(", ", TRUE, IF(C306:AC306=1, C$1:AC$1, ""))</f>
         <v>be-construction</v>
       </c>
       <c r="C306" s="1">
@@ -30135,9 +30135,9 @@
       <c r="A307" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B307" s="1" t="e" cm="1">
-        <f t="array" ref="B307">_xlfn.TEXTJOIN(", ", TRUE, IF(C307:AC307=1, C$1:AB$1, ""))</f>
-        <v>#N/A</v>
+      <c r="B307" s="1" t="str" cm="1">
+        <f t="array" ref="B307">_xlfn.TEXTJOIN(", ", TRUE, IF(C307:AC307=1, C$1:AC$1, ""))</f>
+        <v>bare-got</v>
       </c>
       <c r="C307" s="1">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>332</v>
       </c>
       <c r="B308" s="1" t="str" cm="1">
-        <f t="array" ref="B308">_xlfn.TEXTJOIN(", ", TRUE, IF(C308:AC308=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B308">_xlfn.TEXTJOIN(", ", TRUE, IF(C308:AC308=1, C$1:AC$1, ""))</f>
         <v>multiple-neg, is-was-gen</v>
       </c>
       <c r="C308" s="1">
@@ -30316,7 +30316,7 @@
         <v>333</v>
       </c>
       <c r="B309" s="1" t="str" cm="1">
-        <f t="array" ref="B309">_xlfn.TEXTJOIN(", ", TRUE, IF(C309:AC309=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B309">_xlfn.TEXTJOIN(", ", TRUE, IF(C309:AC309=1, C$1:AC$1, ""))</f>
         <v>wh-qu1</v>
       </c>
       <c r="C309" s="1">
@@ -30406,7 +30406,7 @@
         <v>334</v>
       </c>
       <c r="B310" s="1" t="str" cm="1">
-        <f t="array" ref="B310">_xlfn.TEXTJOIN(", ", TRUE, IF(C310:AC310=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B310">_xlfn.TEXTJOIN(", ", TRUE, IF(C310:AC310=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C310" s="1">
@@ -30496,7 +30496,7 @@
         <v>335</v>
       </c>
       <c r="B311" s="1" t="str" cm="1">
-        <f t="array" ref="B311">_xlfn.TEXTJOIN(", ", TRUE, IF(C311:AC311=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B311">_xlfn.TEXTJOIN(", ", TRUE, IF(C311:AC311=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C311" s="1">
@@ -30586,7 +30586,7 @@
         <v>336</v>
       </c>
       <c r="B312" s="1" t="str" cm="1">
-        <f t="array" ref="B312">_xlfn.TEXTJOIN(", ", TRUE, IF(C312:AC312=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B312">_xlfn.TEXTJOIN(", ", TRUE, IF(C312:AC312=1, C$1:AC$1, ""))</f>
         <v>multiple-neg</v>
       </c>
       <c r="C312" s="1">
@@ -30676,7 +30676,7 @@
         <v>337</v>
       </c>
       <c r="B313" s="1" t="str" cm="1">
-        <f t="array" ref="B313">_xlfn.TEXTJOIN(", ", TRUE, IF(C313:AC313=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B313">_xlfn.TEXTJOIN(", ", TRUE, IF(C313:AC313=1, C$1:AC$1, ""))</f>
         <v>verb-stem</v>
       </c>
       <c r="C313" s="1">
@@ -30766,7 +30766,7 @@
         <v>338</v>
       </c>
       <c r="B314" s="1" t="str" cm="1">
-        <f t="array" ref="B314">_xlfn.TEXTJOIN(", ", TRUE, IF(C314:AC314=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B314">_xlfn.TEXTJOIN(", ", TRUE, IF(C314:AC314=1, C$1:AC$1, ""))</f>
         <v>bin</v>
       </c>
       <c r="C314" s="1">
@@ -30856,7 +30856,7 @@
         <v>339</v>
       </c>
       <c r="B315" s="1" t="str" cm="1">
-        <f t="array" ref="B315">_xlfn.TEXTJOIN(", ", TRUE, IF(C315:AC315=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B315">_xlfn.TEXTJOIN(", ", TRUE, IF(C315:AC315=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C315" s="1">
@@ -30946,7 +30946,7 @@
         <v>340</v>
       </c>
       <c r="B316" s="1" t="str" cm="1">
-        <f t="array" ref="B316">_xlfn.TEXTJOIN(", ", TRUE, IF(C316:AC316=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B316">_xlfn.TEXTJOIN(", ", TRUE, IF(C316:AC316=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C316" s="1">
@@ -31036,7 +31036,7 @@
         <v>341</v>
       </c>
       <c r="B317" s="1" t="str" cm="1">
-        <f t="array" ref="B317">_xlfn.TEXTJOIN(", ", TRUE, IF(C317:AC317=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B317">_xlfn.TEXTJOIN(", ", TRUE, IF(C317:AC317=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C317" s="1">
@@ -31126,7 +31126,7 @@
         <v>342</v>
       </c>
       <c r="B318" s="1" t="str" cm="1">
-        <f t="array" ref="B318">_xlfn.TEXTJOIN(", ", TRUE, IF(C318:AC318=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B318">_xlfn.TEXTJOIN(", ", TRUE, IF(C318:AC318=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C318" s="1">
@@ -31216,7 +31216,7 @@
         <v>343</v>
       </c>
       <c r="B319" s="1" t="str" cm="1">
-        <f t="array" ref="B319">_xlfn.TEXTJOIN(", ", TRUE, IF(C319:AC319=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B319">_xlfn.TEXTJOIN(", ", TRUE, IF(C319:AC319=1, C$1:AC$1, ""))</f>
         <v>multiple-neg</v>
       </c>
       <c r="C319" s="1">
@@ -31306,7 +31306,7 @@
         <v>344</v>
       </c>
       <c r="B320" s="1" t="str" cm="1">
-        <f t="array" ref="B320">_xlfn.TEXTJOIN(", ", TRUE, IF(C320:AC320=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B320">_xlfn.TEXTJOIN(", ", TRUE, IF(C320:AC320=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C320" s="1">
@@ -31396,7 +31396,7 @@
         <v>345</v>
       </c>
       <c r="B321" s="1" t="str" cm="1">
-        <f t="array" ref="B321">_xlfn.TEXTJOIN(", ", TRUE, IF(C321:AC321=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B321">_xlfn.TEXTJOIN(", ", TRUE, IF(C321:AC321=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C321" s="1">
@@ -31486,7 +31486,7 @@
         <v>346</v>
       </c>
       <c r="B322" s="1" t="str" cm="1">
-        <f t="array" ref="B322">_xlfn.TEXTJOIN(", ", TRUE, IF(C322:AC322=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B322">_xlfn.TEXTJOIN(", ", TRUE, IF(C322:AC322=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C322" s="1">
@@ -31576,7 +31576,7 @@
         <v>347</v>
       </c>
       <c r="B323" s="1" t="str" cm="1">
-        <f t="array" ref="B323">_xlfn.TEXTJOIN(", ", TRUE, IF(C323:AC323=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B323">_xlfn.TEXTJOIN(", ", TRUE, IF(C323:AC323=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C323" s="1">
@@ -31666,7 +31666,7 @@
         <v>348</v>
       </c>
       <c r="B324" s="1" t="str" cm="1">
-        <f t="array" ref="B324">_xlfn.TEXTJOIN(", ", TRUE, IF(C324:AC324=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B324">_xlfn.TEXTJOIN(", ", TRUE, IF(C324:AC324=1, C$1:AC$1, ""))</f>
         <v>verb-stem</v>
       </c>
       <c r="C324" s="1">
@@ -31756,7 +31756,7 @@
         <v>349</v>
       </c>
       <c r="B325" s="1" t="str" cm="1">
-        <f t="array" ref="B325">_xlfn.TEXTJOIN(", ", TRUE, IF(C325:AC325=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B325">_xlfn.TEXTJOIN(", ", TRUE, IF(C325:AC325=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C325" s="1">
@@ -31846,7 +31846,7 @@
         <v>350</v>
       </c>
       <c r="B326" s="1" t="str" cm="1">
-        <f t="array" ref="B326">_xlfn.TEXTJOIN(", ", TRUE, IF(C326:AC326=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B326">_xlfn.TEXTJOIN(", ", TRUE, IF(C326:AC326=1, C$1:AC$1, ""))</f>
         <v>appositive-pleonastic-pronoun</v>
       </c>
       <c r="C326" s="1">
@@ -31936,7 +31936,7 @@
         <v>351</v>
       </c>
       <c r="B327" s="1" t="str" cm="1">
-        <f t="array" ref="B327">_xlfn.TEXTJOIN(", ", TRUE, IF(C327:AC327=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B327">_xlfn.TEXTJOIN(", ", TRUE, IF(C327:AC327=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C327" s="1">
@@ -32026,7 +32026,7 @@
         <v>352</v>
       </c>
       <c r="B328" s="1" t="str" cm="1">
-        <f t="array" ref="B328">_xlfn.TEXTJOIN(", ", TRUE, IF(C328:AC328=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B328">_xlfn.TEXTJOIN(", ", TRUE, IF(C328:AC328=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C328" s="1">
@@ -32116,7 +32116,7 @@
         <v>353</v>
       </c>
       <c r="B329" s="1" t="str" cm="1">
-        <f t="array" ref="B329">_xlfn.TEXTJOIN(", ", TRUE, IF(C329:AC329=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B329">_xlfn.TEXTJOIN(", ", TRUE, IF(C329:AC329=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C329" s="1">
@@ -32206,7 +32206,7 @@
         <v>354</v>
       </c>
       <c r="B330" s="1" t="str" cm="1">
-        <f t="array" ref="B330">_xlfn.TEXTJOIN(", ", TRUE, IF(C330:AC330=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B330">_xlfn.TEXTJOIN(", ", TRUE, IF(C330:AC330=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C330" s="1">
@@ -32296,7 +32296,7 @@
         <v>355</v>
       </c>
       <c r="B331" s="1" t="str" cm="1">
-        <f t="array" ref="B331">_xlfn.TEXTJOIN(", ", TRUE, IF(C331:AC331=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B331">_xlfn.TEXTJOIN(", ", TRUE, IF(C331:AC331=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C331" s="1">
@@ -32386,7 +32386,7 @@
         <v>356</v>
       </c>
       <c r="B332" s="1" t="str" cm="1">
-        <f t="array" ref="B332">_xlfn.TEXTJOIN(", ", TRUE, IF(C332:AC332=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B332">_xlfn.TEXTJOIN(", ", TRUE, IF(C332:AC332=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C332" s="1">
@@ -32476,7 +32476,7 @@
         <v>357</v>
       </c>
       <c r="B333" s="1" t="str" cm="1">
-        <f t="array" ref="B333">_xlfn.TEXTJOIN(", ", TRUE, IF(C333:AC333=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B333">_xlfn.TEXTJOIN(", ", TRUE, IF(C333:AC333=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C333" s="1">
@@ -32566,7 +32566,7 @@
         <v>358</v>
       </c>
       <c r="B334" s="1" t="str" cm="1">
-        <f t="array" ref="B334">_xlfn.TEXTJOIN(", ", TRUE, IF(C334:AC334=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B334">_xlfn.TEXTJOIN(", ", TRUE, IF(C334:AC334=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C334" s="1">
@@ -32656,7 +32656,7 @@
         <v>359</v>
       </c>
       <c r="B335" s="1" t="str" cm="1">
-        <f t="array" ref="B335">_xlfn.TEXTJOIN(", ", TRUE, IF(C335:AC335=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B335">_xlfn.TEXTJOIN(", ", TRUE, IF(C335:AC335=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C335" s="1">
@@ -32746,7 +32746,7 @@
         <v>360</v>
       </c>
       <c r="B336" s="1" t="str" cm="1">
-        <f t="array" ref="B336">_xlfn.TEXTJOIN(", ", TRUE, IF(C336:AC336=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B336">_xlfn.TEXTJOIN(", ", TRUE, IF(C336:AC336=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C336" s="1">
@@ -32836,7 +32836,7 @@
         <v>361</v>
       </c>
       <c r="B337" s="1" t="str" cm="1">
-        <f t="array" ref="B337">_xlfn.TEXTJOIN(", ", TRUE, IF(C337:AC337=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B337">_xlfn.TEXTJOIN(", ", TRUE, IF(C337:AC337=1, C$1:AC$1, ""))</f>
         <v>zero-3sg-pres-s</v>
       </c>
       <c r="C337" s="1">
@@ -32926,7 +32926,7 @@
         <v>362</v>
       </c>
       <c r="B338" s="1" t="str" cm="1">
-        <f t="array" ref="B338">_xlfn.TEXTJOIN(", ", TRUE, IF(C338:AC338=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B338">_xlfn.TEXTJOIN(", ", TRUE, IF(C338:AC338=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C338" s="1">
@@ -33016,7 +33016,7 @@
         <v>363</v>
       </c>
       <c r="B339" s="1" t="str" cm="1">
-        <f t="array" ref="B339">_xlfn.TEXTJOIN(", ", TRUE, IF(C339:AC339=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B339">_xlfn.TEXTJOIN(", ", TRUE, IF(C339:AC339=1, C$1:AC$1, ""))</f>
         <v>multiple-neg</v>
       </c>
       <c r="C339" s="1">
@@ -33106,7 +33106,7 @@
         <v>364</v>
       </c>
       <c r="B340" s="1" t="str" cm="1">
-        <f t="array" ref="B340">_xlfn.TEXTJOIN(", ", TRUE, IF(C340:AC340=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B340">_xlfn.TEXTJOIN(", ", TRUE, IF(C340:AC340=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C340" s="1">
@@ -33196,7 +33196,7 @@
         <v>365</v>
       </c>
       <c r="B341" s="1" t="str" cm="1">
-        <f t="array" ref="B341">_xlfn.TEXTJOIN(", ", TRUE, IF(C341:AC341=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B341">_xlfn.TEXTJOIN(", ", TRUE, IF(C341:AC341=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C341" s="1">
@@ -33286,7 +33286,7 @@
         <v>366</v>
       </c>
       <c r="B342" s="1" t="str" cm="1">
-        <f t="array" ref="B342">_xlfn.TEXTJOIN(", ", TRUE, IF(C342:AC342=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B342">_xlfn.TEXTJOIN(", ", TRUE, IF(C342:AC342=1, C$1:AC$1, ""))</f>
         <v>zero-3sg-pres-s</v>
       </c>
       <c r="C342" s="1">
@@ -33376,7 +33376,7 @@
         <v>367</v>
       </c>
       <c r="B343" s="1" t="str" cm="1">
-        <f t="array" ref="B343">_xlfn.TEXTJOIN(", ", TRUE, IF(C343:AC343=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B343">_xlfn.TEXTJOIN(", ", TRUE, IF(C343:AC343=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C343" s="1">
@@ -33466,7 +33466,7 @@
         <v>368</v>
       </c>
       <c r="B344" s="1" t="str" cm="1">
-        <f t="array" ref="B344">_xlfn.TEXTJOIN(", ", TRUE, IF(C344:AC344=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B344">_xlfn.TEXTJOIN(", ", TRUE, IF(C344:AC344=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C344" s="1">
@@ -33556,7 +33556,7 @@
         <v>369</v>
       </c>
       <c r="B345" s="1" t="str" cm="1">
-        <f t="array" ref="B345">_xlfn.TEXTJOIN(", ", TRUE, IF(C345:AC345=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B345">_xlfn.TEXTJOIN(", ", TRUE, IF(C345:AC345=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C345" s="1">
@@ -33646,7 +33646,7 @@
         <v>370</v>
       </c>
       <c r="B346" s="1" t="str" cm="1">
-        <f t="array" ref="B346">_xlfn.TEXTJOIN(", ", TRUE, IF(C346:AC346=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B346">_xlfn.TEXTJOIN(", ", TRUE, IF(C346:AC346=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C346" s="1">
@@ -33736,7 +33736,7 @@
         <v>371</v>
       </c>
       <c r="B347" s="1" t="str" cm="1">
-        <f t="array" ref="B347">_xlfn.TEXTJOIN(", ", TRUE, IF(C347:AC347=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B347">_xlfn.TEXTJOIN(", ", TRUE, IF(C347:AC347=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C347" s="1">
@@ -33826,7 +33826,7 @@
         <v>372</v>
       </c>
       <c r="B348" s="1" t="str" cm="1">
-        <f t="array" ref="B348">_xlfn.TEXTJOIN(", ", TRUE, IF(C348:AC348=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B348">_xlfn.TEXTJOIN(", ", TRUE, IF(C348:AC348=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C348" s="1">
@@ -33916,7 +33916,7 @@
         <v>373</v>
       </c>
       <c r="B349" s="1" t="str" cm="1">
-        <f t="array" ref="B349">_xlfn.TEXTJOIN(", ", TRUE, IF(C349:AC349=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B349">_xlfn.TEXTJOIN(", ", TRUE, IF(C349:AC349=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C349" s="1">
@@ -34006,7 +34006,7 @@
         <v>374</v>
       </c>
       <c r="B350" s="1" t="str" cm="1">
-        <f t="array" ref="B350">_xlfn.TEXTJOIN(", ", TRUE, IF(C350:AC350=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B350">_xlfn.TEXTJOIN(", ", TRUE, IF(C350:AC350=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C350" s="1">
@@ -34096,7 +34096,7 @@
         <v>375</v>
       </c>
       <c r="B351" s="1" t="str" cm="1">
-        <f t="array" ref="B351">_xlfn.TEXTJOIN(", ", TRUE, IF(C351:AC351=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B351">_xlfn.TEXTJOIN(", ", TRUE, IF(C351:AC351=1, C$1:AC$1, ""))</f>
         <v>multiple-neg</v>
       </c>
       <c r="C351" s="1">
@@ -34186,7 +34186,7 @@
         <v>376</v>
       </c>
       <c r="B352" s="1" t="str" cm="1">
-        <f t="array" ref="B352">_xlfn.TEXTJOIN(", ", TRUE, IF(C352:AC352=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B352">_xlfn.TEXTJOIN(", ", TRUE, IF(C352:AC352=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C352" s="1">
@@ -34276,7 +34276,7 @@
         <v>377</v>
       </c>
       <c r="B353" s="1" t="str" cm="1">
-        <f t="array" ref="B353">_xlfn.TEXTJOIN(", ", TRUE, IF(C353:AC353=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B353">_xlfn.TEXTJOIN(", ", TRUE, IF(C353:AC353=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C353" s="1">
@@ -34366,7 +34366,7 @@
         <v>378</v>
       </c>
       <c r="B354" s="1" t="str" cm="1">
-        <f t="array" ref="B354">_xlfn.TEXTJOIN(", ", TRUE, IF(C354:AC354=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B354">_xlfn.TEXTJOIN(", ", TRUE, IF(C354:AC354=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C354" s="1">
@@ -34456,7 +34456,7 @@
         <v>379</v>
       </c>
       <c r="B355" s="1" t="str" cm="1">
-        <f t="array" ref="B355">_xlfn.TEXTJOIN(", ", TRUE, IF(C355:AC355=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B355">_xlfn.TEXTJOIN(", ", TRUE, IF(C355:AC355=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C355" s="1">
@@ -34546,7 +34546,7 @@
         <v>380</v>
       </c>
       <c r="B356" s="1" t="str" cm="1">
-        <f t="array" ref="B356">_xlfn.TEXTJOIN(", ", TRUE, IF(C356:AC356=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B356">_xlfn.TEXTJOIN(", ", TRUE, IF(C356:AC356=1, C$1:AC$1, ""))</f>
         <v>zero-3sg-pres-s</v>
       </c>
       <c r="C356" s="1">
@@ -34636,7 +34636,7 @@
         <v>381</v>
       </c>
       <c r="B357" s="1" t="str" cm="1">
-        <f t="array" ref="B357">_xlfn.TEXTJOIN(", ", TRUE, IF(C357:AC357=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B357">_xlfn.TEXTJOIN(", ", TRUE, IF(C357:AC357=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C357" s="1">
@@ -34726,7 +34726,7 @@
         <v>382</v>
       </c>
       <c r="B358" s="1" t="str" cm="1">
-        <f t="array" ref="B358">_xlfn.TEXTJOIN(", ", TRUE, IF(C358:AC358=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B358">_xlfn.TEXTJOIN(", ", TRUE, IF(C358:AC358=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C358" s="1">
@@ -34816,7 +34816,7 @@
         <v>383</v>
       </c>
       <c r="B359" s="1" t="str" cm="1">
-        <f t="array" ref="B359">_xlfn.TEXTJOIN(", ", TRUE, IF(C359:AC359=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B359">_xlfn.TEXTJOIN(", ", TRUE, IF(C359:AC359=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C359" s="1">
@@ -34906,7 +34906,7 @@
         <v>384</v>
       </c>
       <c r="B360" s="1" t="str" cm="1">
-        <f t="array" ref="B360">_xlfn.TEXTJOIN(", ", TRUE, IF(C360:AC360=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B360">_xlfn.TEXTJOIN(", ", TRUE, IF(C360:AC360=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C360" s="1">
@@ -34996,7 +34996,7 @@
         <v>385</v>
       </c>
       <c r="B361" s="1" t="str" cm="1">
-        <f t="array" ref="B361">_xlfn.TEXTJOIN(", ", TRUE, IF(C361:AC361=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B361">_xlfn.TEXTJOIN(", ", TRUE, IF(C361:AC361=1, C$1:AC$1, ""))</f>
         <v>aint</v>
       </c>
       <c r="C361" s="1">
@@ -35086,7 +35086,7 @@
         <v>386</v>
       </c>
       <c r="B362" s="1" t="str" cm="1">
-        <f t="array" ref="B362">_xlfn.TEXTJOIN(", ", TRUE, IF(C362:AC362=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B362">_xlfn.TEXTJOIN(", ", TRUE, IF(C362:AC362=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C362" s="1">
@@ -35176,7 +35176,7 @@
         <v>387</v>
       </c>
       <c r="B363" s="1" t="str" cm="1">
-        <f t="array" ref="B363">_xlfn.TEXTJOIN(", ", TRUE, IF(C363:AC363=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B363">_xlfn.TEXTJOIN(", ", TRUE, IF(C363:AC363=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C363" s="1">
@@ -35266,7 +35266,7 @@
         <v>388</v>
       </c>
       <c r="B364" s="1" t="str" cm="1">
-        <f t="array" ref="B364">_xlfn.TEXTJOIN(", ", TRUE, IF(C364:AC364=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B364">_xlfn.TEXTJOIN(", ", TRUE, IF(C364:AC364=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C364" s="1">
@@ -35356,7 +35356,7 @@
         <v>389</v>
       </c>
       <c r="B365" s="1" t="str" cm="1">
-        <f t="array" ref="B365">_xlfn.TEXTJOIN(", ", TRUE, IF(C365:AC365=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B365">_xlfn.TEXTJOIN(", ", TRUE, IF(C365:AC365=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C365" s="1">
@@ -35446,7 +35446,7 @@
         <v>390</v>
       </c>
       <c r="B366" s="1" t="str" cm="1">
-        <f t="array" ref="B366">_xlfn.TEXTJOIN(", ", TRUE, IF(C366:AC366=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B366">_xlfn.TEXTJOIN(", ", TRUE, IF(C366:AC366=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C366" s="1">
@@ -35536,7 +35536,7 @@
         <v>391</v>
       </c>
       <c r="B367" s="1" t="str" cm="1">
-        <f t="array" ref="B367">_xlfn.TEXTJOIN(", ", TRUE, IF(C367:AC367=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B367">_xlfn.TEXTJOIN(", ", TRUE, IF(C367:AC367=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C367" s="1">
@@ -35626,7 +35626,7 @@
         <v>392</v>
       </c>
       <c r="B368" s="1" t="str" cm="1">
-        <f t="array" ref="B368">_xlfn.TEXTJOIN(", ", TRUE, IF(C368:AC368=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B368">_xlfn.TEXTJOIN(", ", TRUE, IF(C368:AC368=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C368" s="1">
@@ -35716,7 +35716,7 @@
         <v>393</v>
       </c>
       <c r="B369" s="1" t="str" cm="1">
-        <f t="array" ref="B369">_xlfn.TEXTJOIN(", ", TRUE, IF(C369:AC369=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B369">_xlfn.TEXTJOIN(", ", TRUE, IF(C369:AC369=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C369" s="1">
@@ -35806,7 +35806,7 @@
         <v>394</v>
       </c>
       <c r="B370" s="1" t="str" cm="1">
-        <f t="array" ref="B370">_xlfn.TEXTJOIN(", ", TRUE, IF(C370:AC370=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B370">_xlfn.TEXTJOIN(", ", TRUE, IF(C370:AC370=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C370" s="1">
@@ -35896,7 +35896,7 @@
         <v>395</v>
       </c>
       <c r="B371" s="1" t="str" cm="1">
-        <f t="array" ref="B371">_xlfn.TEXTJOIN(", ", TRUE, IF(C371:AC371=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B371">_xlfn.TEXTJOIN(", ", TRUE, IF(C371:AC371=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C371" s="1">
@@ -35986,7 +35986,7 @@
         <v>396</v>
       </c>
       <c r="B372" s="1" t="str" cm="1">
-        <f t="array" ref="B372">_xlfn.TEXTJOIN(", ", TRUE, IF(C372:AC372=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B372">_xlfn.TEXTJOIN(", ", TRUE, IF(C372:AC372=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C372" s="1">
@@ -36076,7 +36076,7 @@
         <v>397</v>
       </c>
       <c r="B373" s="1" t="str" cm="1">
-        <f t="array" ref="B373">_xlfn.TEXTJOIN(", ", TRUE, IF(C373:AC373=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B373">_xlfn.TEXTJOIN(", ", TRUE, IF(C373:AC373=1, C$1:AC$1, ""))</f>
         <v>be-construction</v>
       </c>
       <c r="C373" s="1">
@@ -36166,7 +36166,7 @@
         <v>398</v>
       </c>
       <c r="B374" s="1" t="str" cm="1">
-        <f t="array" ref="B374">_xlfn.TEXTJOIN(", ", TRUE, IF(C374:AC374=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B374">_xlfn.TEXTJOIN(", ", TRUE, IF(C374:AC374=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C374" s="1">
@@ -36256,7 +36256,7 @@
         <v>399</v>
       </c>
       <c r="B375" s="1" t="str" cm="1">
-        <f t="array" ref="B375">_xlfn.TEXTJOIN(", ", TRUE, IF(C375:AC375=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B375">_xlfn.TEXTJOIN(", ", TRUE, IF(C375:AC375=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C375" s="1">
@@ -36346,7 +36346,7 @@
         <v>400</v>
       </c>
       <c r="B376" s="1" t="str" cm="1">
-        <f t="array" ref="B376">_xlfn.TEXTJOIN(", ", TRUE, IF(C376:AC376=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B376">_xlfn.TEXTJOIN(", ", TRUE, IF(C376:AC376=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C376" s="1">
@@ -36436,7 +36436,7 @@
         <v>401</v>
       </c>
       <c r="B377" s="1" t="str" cm="1">
-        <f t="array" ref="B377">_xlfn.TEXTJOIN(", ", TRUE, IF(C377:AC377=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B377">_xlfn.TEXTJOIN(", ", TRUE, IF(C377:AC377=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C377" s="1">
@@ -36526,7 +36526,7 @@
         <v>402</v>
       </c>
       <c r="B378" s="1" t="str" cm="1">
-        <f t="array" ref="B378">_xlfn.TEXTJOIN(", ", TRUE, IF(C378:AC378=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B378">_xlfn.TEXTJOIN(", ", TRUE, IF(C378:AC378=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C378" s="1">
@@ -36616,7 +36616,7 @@
         <v>403</v>
       </c>
       <c r="B379" s="1" t="str" cm="1">
-        <f t="array" ref="B379">_xlfn.TEXTJOIN(", ", TRUE, IF(C379:AC379=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B379">_xlfn.TEXTJOIN(", ", TRUE, IF(C379:AC379=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C379" s="1">
@@ -36706,7 +36706,7 @@
         <v>404</v>
       </c>
       <c r="B380" s="1" t="str" cm="1">
-        <f t="array" ref="B380">_xlfn.TEXTJOIN(", ", TRUE, IF(C380:AC380=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B380">_xlfn.TEXTJOIN(", ", TRUE, IF(C380:AC380=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C380" s="1">
@@ -36796,7 +36796,7 @@
         <v>405</v>
       </c>
       <c r="B381" s="1" t="str" cm="1">
-        <f t="array" ref="B381">_xlfn.TEXTJOIN(", ", TRUE, IF(C381:AC381=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B381">_xlfn.TEXTJOIN(", ", TRUE, IF(C381:AC381=1, C$1:AC$1, ""))</f>
         <v>zero-3sg-pres-s, is-was-gen</v>
       </c>
       <c r="C381" s="1">
@@ -36886,7 +36886,7 @@
         <v>406</v>
       </c>
       <c r="B382" s="1" t="str" cm="1">
-        <f t="array" ref="B382">_xlfn.TEXTJOIN(", ", TRUE, IF(C382:AC382=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B382">_xlfn.TEXTJOIN(", ", TRUE, IF(C382:AC382=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C382" s="1">
@@ -36976,7 +36976,7 @@
         <v>407</v>
       </c>
       <c r="B383" s="1" t="str" cm="1">
-        <f t="array" ref="B383">_xlfn.TEXTJOIN(", ", TRUE, IF(C383:AC383=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B383">_xlfn.TEXTJOIN(", ", TRUE, IF(C383:AC383=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C383" s="1">
@@ -37066,7 +37066,7 @@
         <v>408</v>
       </c>
       <c r="B384" s="1" t="str" cm="1">
-        <f t="array" ref="B384">_xlfn.TEXTJOIN(", ", TRUE, IF(C384:AC384=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B384">_xlfn.TEXTJOIN(", ", TRUE, IF(C384:AC384=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C384" s="1">
@@ -37156,7 +37156,7 @@
         <v>409</v>
       </c>
       <c r="B385" s="1" t="str" cm="1">
-        <f t="array" ref="B385">_xlfn.TEXTJOIN(", ", TRUE, IF(C385:AC385=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B385">_xlfn.TEXTJOIN(", ", TRUE, IF(C385:AC385=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C385" s="1">
@@ -37246,7 +37246,7 @@
         <v>410</v>
       </c>
       <c r="B386" s="1" t="str" cm="1">
-        <f t="array" ref="B386">_xlfn.TEXTJOIN(", ", TRUE, IF(C386:AC386=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B386">_xlfn.TEXTJOIN(", ", TRUE, IF(C386:AC386=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C386" s="1">
@@ -37336,7 +37336,7 @@
         <v>411</v>
       </c>
       <c r="B387" s="1" t="str" cm="1">
-        <f t="array" ref="B387">_xlfn.TEXTJOIN(", ", TRUE, IF(C387:AC387=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B387">_xlfn.TEXTJOIN(", ", TRUE, IF(C387:AC387=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C387" s="1">
@@ -37426,7 +37426,7 @@
         <v>412</v>
       </c>
       <c r="B388" s="1" t="str" cm="1">
-        <f t="array" ref="B388">_xlfn.TEXTJOIN(", ", TRUE, IF(C388:AC388=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B388">_xlfn.TEXTJOIN(", ", TRUE, IF(C388:AC388=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C388" s="1">
@@ -37516,7 +37516,7 @@
         <v>413</v>
       </c>
       <c r="B389" s="1" t="str" cm="1">
-        <f t="array" ref="B389">_xlfn.TEXTJOIN(", ", TRUE, IF(C389:AC389=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B389">_xlfn.TEXTJOIN(", ", TRUE, IF(C389:AC389=1, C$1:AC$1, ""))</f>
         <v>zero-copula, zero-3sg-pres-s</v>
       </c>
       <c r="C389" s="1">
@@ -37606,7 +37606,7 @@
         <v>414</v>
       </c>
       <c r="B390" s="1" t="str" cm="1">
-        <f t="array" ref="B390">_xlfn.TEXTJOIN(", ", TRUE, IF(C390:AC390=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B390">_xlfn.TEXTJOIN(", ", TRUE, IF(C390:AC390=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C390" s="1">
@@ -37696,7 +37696,7 @@
         <v>415</v>
       </c>
       <c r="B391" s="1" t="str" cm="1">
-        <f t="array" ref="B391">_xlfn.TEXTJOIN(", ", TRUE, IF(C391:AC391=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B391">_xlfn.TEXTJOIN(", ", TRUE, IF(C391:AC391=1, C$1:AC$1, ""))</f>
         <v>zero-copula, zero-3sg-pres-s</v>
       </c>
       <c r="C391" s="1">
@@ -37786,7 +37786,7 @@
         <v>416</v>
       </c>
       <c r="B392" s="1" t="str" cm="1">
-        <f t="array" ref="B392">_xlfn.TEXTJOIN(", ", TRUE, IF(C392:AC392=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B392">_xlfn.TEXTJOIN(", ", TRUE, IF(C392:AC392=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C392" s="1">
@@ -37876,7 +37876,7 @@
         <v>417</v>
       </c>
       <c r="B393" s="1" t="str" cm="1">
-        <f t="array" ref="B393">_xlfn.TEXTJOIN(", ", TRUE, IF(C393:AC393=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B393">_xlfn.TEXTJOIN(", ", TRUE, IF(C393:AC393=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C393" s="1">
@@ -37966,7 +37966,7 @@
         <v>418</v>
       </c>
       <c r="B394" s="1" t="str" cm="1">
-        <f t="array" ref="B394">_xlfn.TEXTJOIN(", ", TRUE, IF(C394:AC394=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B394">_xlfn.TEXTJOIN(", ", TRUE, IF(C394:AC394=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C394" s="1">
@@ -38056,7 +38056,7 @@
         <v>419</v>
       </c>
       <c r="B395" s="1" t="str" cm="1">
-        <f t="array" ref="B395">_xlfn.TEXTJOIN(", ", TRUE, IF(C395:AC395=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B395">_xlfn.TEXTJOIN(", ", TRUE, IF(C395:AC395=1, C$1:AC$1, ""))</f>
         <v>zero-3sg-pres-s</v>
       </c>
       <c r="C395" s="1">
@@ -38146,7 +38146,7 @@
         <v>420</v>
       </c>
       <c r="B396" s="1" t="str" cm="1">
-        <f t="array" ref="B396">_xlfn.TEXTJOIN(", ", TRUE, IF(C396:AC396=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B396">_xlfn.TEXTJOIN(", ", TRUE, IF(C396:AC396=1, C$1:AC$1, ""))</f>
         <v>is-was-gen</v>
       </c>
       <c r="C396" s="1">
@@ -38236,7 +38236,7 @@
         <v>421</v>
       </c>
       <c r="B397" s="1" t="str" cm="1">
-        <f t="array" ref="B397">_xlfn.TEXTJOIN(", ", TRUE, IF(C397:AC397=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B397">_xlfn.TEXTJOIN(", ", TRUE, IF(C397:AC397=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C397" s="1">
@@ -38326,7 +38326,7 @@
         <v>422</v>
       </c>
       <c r="B398" s="1" t="str" cm="1">
-        <f t="array" ref="B398">_xlfn.TEXTJOIN(", ", TRUE, IF(C398:AC398=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B398">_xlfn.TEXTJOIN(", ", TRUE, IF(C398:AC398=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C398" s="1">
@@ -38416,7 +38416,7 @@
         <v>423</v>
       </c>
       <c r="B399" s="1" t="str" cm="1">
-        <f t="array" ref="B399">_xlfn.TEXTJOIN(", ", TRUE, IF(C399:AC399=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B399">_xlfn.TEXTJOIN(", ", TRUE, IF(C399:AC399=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C399" s="1">
@@ -38506,7 +38506,7 @@
         <v>424</v>
       </c>
       <c r="B400" s="1" t="str" cm="1">
-        <f t="array" ref="B400">_xlfn.TEXTJOIN(", ", TRUE, IF(C400:AC400=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B400">_xlfn.TEXTJOIN(", ", TRUE, IF(C400:AC400=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C400" s="1">
@@ -38596,7 +38596,7 @@
         <v>425</v>
       </c>
       <c r="B401" s="1" t="str" cm="1">
-        <f t="array" ref="B401">_xlfn.TEXTJOIN(", ", TRUE, IF(C401:AC401=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B401">_xlfn.TEXTJOIN(", ", TRUE, IF(C401:AC401=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C401" s="1">
@@ -38686,7 +38686,7 @@
         <v>426</v>
       </c>
       <c r="B402" s="1" t="str" cm="1">
-        <f t="array" ref="B402">_xlfn.TEXTJOIN(", ", TRUE, IF(C402:AC402=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B402">_xlfn.TEXTJOIN(", ", TRUE, IF(C402:AC402=1, C$1:AC$1, ""))</f>
         <v>existential-it</v>
       </c>
       <c r="C402" s="1">
@@ -38776,7 +38776,7 @@
         <v>427</v>
       </c>
       <c r="B403" s="1" t="str" cm="1">
-        <f t="array" ref="B403">_xlfn.TEXTJOIN(", ", TRUE, IF(C403:AC403=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B403">_xlfn.TEXTJOIN(", ", TRUE, IF(C403:AC403=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C403" s="1">
@@ -38866,7 +38866,7 @@
         <v>428</v>
       </c>
       <c r="B404" s="1" t="str" cm="1">
-        <f t="array" ref="B404">_xlfn.TEXTJOIN(", ", TRUE, IF(C404:AC404=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B404">_xlfn.TEXTJOIN(", ", TRUE, IF(C404:AC404=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C404" s="1">
@@ -38956,7 +38956,7 @@
         <v>429</v>
       </c>
       <c r="B405" s="1" t="str" cm="1">
-        <f t="array" ref="B405">_xlfn.TEXTJOIN(", ", TRUE, IF(C405:AC405=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B405">_xlfn.TEXTJOIN(", ", TRUE, IF(C405:AC405=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C405" s="1">
@@ -39046,7 +39046,7 @@
         <v>430</v>
       </c>
       <c r="B406" s="1" t="str" cm="1">
-        <f t="array" ref="B406">_xlfn.TEXTJOIN(", ", TRUE, IF(C406:AC406=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B406">_xlfn.TEXTJOIN(", ", TRUE, IF(C406:AC406=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C406" s="1">
@@ -39136,7 +39136,7 @@
         <v>431</v>
       </c>
       <c r="B407" s="1" t="str" cm="1">
-        <f t="array" ref="B407">_xlfn.TEXTJOIN(", ", TRUE, IF(C407:AC407=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B407">_xlfn.TEXTJOIN(", ", TRUE, IF(C407:AC407=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C407" s="1">
@@ -39226,7 +39226,7 @@
         <v>432</v>
       </c>
       <c r="B408" s="1" t="str" cm="1">
-        <f t="array" ref="B408">_xlfn.TEXTJOIN(", ", TRUE, IF(C408:AC408=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B408">_xlfn.TEXTJOIN(", ", TRUE, IF(C408:AC408=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C408" s="1">
@@ -39316,7 +39316,7 @@
         <v>433</v>
       </c>
       <c r="B409" s="1" t="str" cm="1">
-        <f t="array" ref="B409">_xlfn.TEXTJOIN(", ", TRUE, IF(C409:AC409=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B409">_xlfn.TEXTJOIN(", ", TRUE, IF(C409:AC409=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C409" s="1">
@@ -39406,7 +39406,7 @@
         <v>434</v>
       </c>
       <c r="B410" s="1" t="str" cm="1">
-        <f t="array" ref="B410">_xlfn.TEXTJOIN(", ", TRUE, IF(C410:AC410=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B410">_xlfn.TEXTJOIN(", ", TRUE, IF(C410:AC410=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C410" s="1">
@@ -39496,7 +39496,7 @@
         <v>435</v>
       </c>
       <c r="B411" s="1" t="str" cm="1">
-        <f t="array" ref="B411">_xlfn.TEXTJOIN(", ", TRUE, IF(C411:AC411=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B411">_xlfn.TEXTJOIN(", ", TRUE, IF(C411:AC411=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C411" s="1">
@@ -39586,7 +39586,7 @@
         <v>436</v>
       </c>
       <c r="B412" s="1" t="str" cm="1">
-        <f t="array" ref="B412">_xlfn.TEXTJOIN(", ", TRUE, IF(C412:AC412=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B412">_xlfn.TEXTJOIN(", ", TRUE, IF(C412:AC412=1, C$1:AC$1, ""))</f>
         <v>zero-3sg-pres-s</v>
       </c>
       <c r="C412" s="1">
@@ -39676,7 +39676,7 @@
         <v>437</v>
       </c>
       <c r="B413" s="1" t="str" cm="1">
-        <f t="array" ref="B413">_xlfn.TEXTJOIN(", ", TRUE, IF(C413:AC413=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B413">_xlfn.TEXTJOIN(", ", TRUE, IF(C413:AC413=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C413" s="1">
@@ -39766,7 +39766,7 @@
         <v>438</v>
       </c>
       <c r="B414" s="1" t="str" cm="1">
-        <f t="array" ref="B414">_xlfn.TEXTJOIN(", ", TRUE, IF(C414:AC414=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B414">_xlfn.TEXTJOIN(", ", TRUE, IF(C414:AC414=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C414" s="1">
@@ -39856,7 +39856,7 @@
         <v>439</v>
       </c>
       <c r="B415" s="1" t="str" cm="1">
-        <f t="array" ref="B415">_xlfn.TEXTJOIN(", ", TRUE, IF(C415:AC415=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B415">_xlfn.TEXTJOIN(", ", TRUE, IF(C415:AC415=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C415" s="1">
@@ -39946,7 +39946,7 @@
         <v>440</v>
       </c>
       <c r="B416" s="1" t="str" cm="1">
-        <f t="array" ref="B416">_xlfn.TEXTJOIN(", ", TRUE, IF(C416:AC416=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B416">_xlfn.TEXTJOIN(", ", TRUE, IF(C416:AC416=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C416" s="1">
@@ -40036,7 +40036,7 @@
         <v>441</v>
       </c>
       <c r="B417" s="1" t="str" cm="1">
-        <f t="array" ref="B417">_xlfn.TEXTJOIN(", ", TRUE, IF(C417:AC417=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B417">_xlfn.TEXTJOIN(", ", TRUE, IF(C417:AC417=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C417" s="1">
@@ -40126,7 +40126,7 @@
         <v>442</v>
       </c>
       <c r="B418" s="1" t="str" cm="1">
-        <f t="array" ref="B418">_xlfn.TEXTJOIN(", ", TRUE, IF(C418:AC418=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B418">_xlfn.TEXTJOIN(", ", TRUE, IF(C418:AC418=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C418" s="1">
@@ -40216,7 +40216,7 @@
         <v>443</v>
       </c>
       <c r="B419" s="1" t="str" cm="1">
-        <f t="array" ref="B419">_xlfn.TEXTJOIN(", ", TRUE, IF(C419:AC419=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B419">_xlfn.TEXTJOIN(", ", TRUE, IF(C419:AC419=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C419" s="1">
@@ -40306,7 +40306,7 @@
         <v>444</v>
       </c>
       <c r="B420" s="1" t="str" cm="1">
-        <f t="array" ref="B420">_xlfn.TEXTJOIN(", ", TRUE, IF(C420:AC420=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B420">_xlfn.TEXTJOIN(", ", TRUE, IF(C420:AC420=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C420" s="1">
@@ -40396,7 +40396,7 @@
         <v>445</v>
       </c>
       <c r="B421" s="1" t="str" cm="1">
-        <f t="array" ref="B421">_xlfn.TEXTJOIN(", ", TRUE, IF(C421:AC421=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B421">_xlfn.TEXTJOIN(", ", TRUE, IF(C421:AC421=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C421" s="1">
@@ -40486,7 +40486,7 @@
         <v>446</v>
       </c>
       <c r="B422" s="1" t="str" cm="1">
-        <f t="array" ref="B422">_xlfn.TEXTJOIN(", ", TRUE, IF(C422:AC422=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B422">_xlfn.TEXTJOIN(", ", TRUE, IF(C422:AC422=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C422" s="1">
@@ -40576,7 +40576,7 @@
         <v>447</v>
       </c>
       <c r="B423" s="1" t="str" cm="1">
-        <f t="array" ref="B423">_xlfn.TEXTJOIN(", ", TRUE, IF(C423:AC423=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B423">_xlfn.TEXTJOIN(", ", TRUE, IF(C423:AC423=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C423" s="1">
@@ -40666,7 +40666,7 @@
         <v>448</v>
       </c>
       <c r="B424" s="1" t="str" cm="1">
-        <f t="array" ref="B424">_xlfn.TEXTJOIN(", ", TRUE, IF(C424:AC424=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B424">_xlfn.TEXTJOIN(", ", TRUE, IF(C424:AC424=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C424" s="1">
@@ -40756,7 +40756,7 @@
         <v>449</v>
       </c>
       <c r="B425" s="1" t="str" cm="1">
-        <f t="array" ref="B425">_xlfn.TEXTJOIN(", ", TRUE, IF(C425:AC425=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B425">_xlfn.TEXTJOIN(", ", TRUE, IF(C425:AC425=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C425" s="1">
@@ -40846,7 +40846,7 @@
         <v>450</v>
       </c>
       <c r="B426" s="1" t="str" cm="1">
-        <f t="array" ref="B426">_xlfn.TEXTJOIN(", ", TRUE, IF(C426:AC426=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B426">_xlfn.TEXTJOIN(", ", TRUE, IF(C426:AC426=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C426" s="1">
@@ -40936,7 +40936,7 @@
         <v>451</v>
       </c>
       <c r="B427" s="1" t="str" cm="1">
-        <f t="array" ref="B427">_xlfn.TEXTJOIN(", ", TRUE, IF(C427:AC427=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B427">_xlfn.TEXTJOIN(", ", TRUE, IF(C427:AC427=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C427" s="1">
@@ -41026,7 +41026,7 @@
         <v>452</v>
       </c>
       <c r="B428" s="1" t="str" cm="1">
-        <f t="array" ref="B428">_xlfn.TEXTJOIN(", ", TRUE, IF(C428:AC428=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B428">_xlfn.TEXTJOIN(", ", TRUE, IF(C428:AC428=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C428" s="1">
@@ -41116,7 +41116,7 @@
         <v>453</v>
       </c>
       <c r="B429" s="1" t="str" cm="1">
-        <f t="array" ref="B429">_xlfn.TEXTJOIN(", ", TRUE, IF(C429:AC429=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B429">_xlfn.TEXTJOIN(", ", TRUE, IF(C429:AC429=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C429" s="1">
@@ -41206,7 +41206,7 @@
         <v>454</v>
       </c>
       <c r="B430" s="1" t="str" cm="1">
-        <f t="array" ref="B430">_xlfn.TEXTJOIN(", ", TRUE, IF(C430:AC430=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B430">_xlfn.TEXTJOIN(", ", TRUE, IF(C430:AC430=1, C$1:AC$1, ""))</f>
         <v>verb-stem</v>
       </c>
       <c r="C430" s="1">
@@ -41296,7 +41296,7 @@
         <v>455</v>
       </c>
       <c r="B431" s="1" t="str" cm="1">
-        <f t="array" ref="B431">_xlfn.TEXTJOIN(", ", TRUE, IF(C431:AC431=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B431">_xlfn.TEXTJOIN(", ", TRUE, IF(C431:AC431=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C431" s="1">
@@ -41386,7 +41386,7 @@
         <v>456</v>
       </c>
       <c r="B432" s="1" t="str" cm="1">
-        <f t="array" ref="B432">_xlfn.TEXTJOIN(", ", TRUE, IF(C432:AC432=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B432">_xlfn.TEXTJOIN(", ", TRUE, IF(C432:AC432=1, C$1:AC$1, ""))</f>
         <v>zero-copula, appositive-pleonastic-pronoun</v>
       </c>
       <c r="C432" s="1">
@@ -41476,7 +41476,7 @@
         <v>457</v>
       </c>
       <c r="B433" s="1" t="str" cm="1">
-        <f t="array" ref="B433">_xlfn.TEXTJOIN(", ", TRUE, IF(C433:AC433=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B433">_xlfn.TEXTJOIN(", ", TRUE, IF(C433:AC433=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C433" s="1">
@@ -41566,7 +41566,7 @@
         <v>458</v>
       </c>
       <c r="B434" s="1" t="str" cm="1">
-        <f t="array" ref="B434">_xlfn.TEXTJOIN(", ", TRUE, IF(C434:AC434=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B434">_xlfn.TEXTJOIN(", ", TRUE, IF(C434:AC434=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C434" s="1">
@@ -41656,7 +41656,7 @@
         <v>459</v>
       </c>
       <c r="B435" s="1" t="str" cm="1">
-        <f t="array" ref="B435">_xlfn.TEXTJOIN(", ", TRUE, IF(C435:AC435=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B435">_xlfn.TEXTJOIN(", ", TRUE, IF(C435:AC435=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C435" s="1">
@@ -41746,7 +41746,7 @@
         <v>460</v>
       </c>
       <c r="B436" s="1" t="str" cm="1">
-        <f t="array" ref="B436">_xlfn.TEXTJOIN(", ", TRUE, IF(C436:AC436=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B436">_xlfn.TEXTJOIN(", ", TRUE, IF(C436:AC436=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C436" s="1">
@@ -41836,7 +41836,7 @@
         <v>461</v>
       </c>
       <c r="B437" s="1" t="str" cm="1">
-        <f t="array" ref="B437">_xlfn.TEXTJOIN(", ", TRUE, IF(C437:AC437=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B437">_xlfn.TEXTJOIN(", ", TRUE, IF(C437:AC437=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C437" s="1">
@@ -41926,7 +41926,7 @@
         <v>462</v>
       </c>
       <c r="B438" s="1" t="str" cm="1">
-        <f t="array" ref="B438">_xlfn.TEXTJOIN(", ", TRUE, IF(C438:AC438=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B438">_xlfn.TEXTJOIN(", ", TRUE, IF(C438:AC438=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C438" s="1">
@@ -42016,7 +42016,7 @@
         <v>463</v>
       </c>
       <c r="B439" s="1" t="str" cm="1">
-        <f t="array" ref="B439">_xlfn.TEXTJOIN(", ", TRUE, IF(C439:AC439=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B439">_xlfn.TEXTJOIN(", ", TRUE, IF(C439:AC439=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C439" s="1">
@@ -42106,7 +42106,7 @@
         <v>464</v>
       </c>
       <c r="B440" s="1" t="str" cm="1">
-        <f t="array" ref="B440">_xlfn.TEXTJOIN(", ", TRUE, IF(C440:AC440=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B440">_xlfn.TEXTJOIN(", ", TRUE, IF(C440:AC440=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C440" s="1">
@@ -42196,7 +42196,7 @@
         <v>465</v>
       </c>
       <c r="B441" s="1" t="str" cm="1">
-        <f t="array" ref="B441">_xlfn.TEXTJOIN(", ", TRUE, IF(C441:AC441=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B441">_xlfn.TEXTJOIN(", ", TRUE, IF(C441:AC441=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C441" s="1">
@@ -42286,7 +42286,7 @@
         <v>466</v>
       </c>
       <c r="B442" s="1" t="str" cm="1">
-        <f t="array" ref="B442">_xlfn.TEXTJOIN(", ", TRUE, IF(C442:AC442=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B442">_xlfn.TEXTJOIN(", ", TRUE, IF(C442:AC442=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C442" s="1">
@@ -42376,7 +42376,7 @@
         <v>467</v>
       </c>
       <c r="B443" s="1" t="str" cm="1">
-        <f t="array" ref="B443">_xlfn.TEXTJOIN(", ", TRUE, IF(C443:AC443=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B443">_xlfn.TEXTJOIN(", ", TRUE, IF(C443:AC443=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C443" s="1">
@@ -42466,7 +42466,7 @@
         <v>468</v>
       </c>
       <c r="B444" s="1" t="str" cm="1">
-        <f t="array" ref="B444">_xlfn.TEXTJOIN(", ", TRUE, IF(C444:AC444=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B444">_xlfn.TEXTJOIN(", ", TRUE, IF(C444:AC444=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C444" s="1">
@@ -42556,7 +42556,7 @@
         <v>469</v>
       </c>
       <c r="B445" s="1" t="str" cm="1">
-        <f t="array" ref="B445">_xlfn.TEXTJOIN(", ", TRUE, IF(C445:AC445=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B445">_xlfn.TEXTJOIN(", ", TRUE, IF(C445:AC445=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C445" s="1">
@@ -42646,7 +42646,7 @@
         <v>470</v>
       </c>
       <c r="B446" s="1" t="str" cm="1">
-        <f t="array" ref="B446">_xlfn.TEXTJOIN(", ", TRUE, IF(C446:AC446=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B446">_xlfn.TEXTJOIN(", ", TRUE, IF(C446:AC446=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C446" s="1">
@@ -42736,7 +42736,7 @@
         <v>471</v>
       </c>
       <c r="B447" s="1" t="str" cm="1">
-        <f t="array" ref="B447">_xlfn.TEXTJOIN(", ", TRUE, IF(C447:AC447=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B447">_xlfn.TEXTJOIN(", ", TRUE, IF(C447:AC447=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C447" s="1">
@@ -42826,7 +42826,7 @@
         <v>472</v>
       </c>
       <c r="B448" s="1" t="str" cm="1">
-        <f t="array" ref="B448">_xlfn.TEXTJOIN(", ", TRUE, IF(C448:AC448=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B448">_xlfn.TEXTJOIN(", ", TRUE, IF(C448:AC448=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C448" s="1">
@@ -42916,7 +42916,7 @@
         <v>473</v>
       </c>
       <c r="B449" s="1" t="str" cm="1">
-        <f t="array" ref="B449">_xlfn.TEXTJOIN(", ", TRUE, IF(C449:AC449=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B449">_xlfn.TEXTJOIN(", ", TRUE, IF(C449:AC449=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C449" s="1">
@@ -43006,7 +43006,7 @@
         <v>474</v>
       </c>
       <c r="B450" s="1" t="str" cm="1">
-        <f t="array" ref="B450">_xlfn.TEXTJOIN(", ", TRUE, IF(C450:AC450=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B450">_xlfn.TEXTJOIN(", ", TRUE, IF(C450:AC450=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C450" s="1">
@@ -43095,9 +43095,9 @@
       <c r="A451" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B451" s="1" t="e" cm="1">
-        <f t="array" ref="B451">_xlfn.TEXTJOIN(", ", TRUE, IF(C451:AC451=1, C$1:AB$1, ""))</f>
-        <v>#N/A</v>
+      <c r="B451" s="1" t="str" cm="1">
+        <f t="array" ref="B451">_xlfn.TEXTJOIN(", ", TRUE, IF(C451:AC451=1, C$1:AC$1, ""))</f>
+        <v>bare-got</v>
       </c>
       <c r="C451" s="1">
         <v>0</v>
@@ -43186,7 +43186,7 @@
         <v>476</v>
       </c>
       <c r="B452" s="1" t="str" cm="1">
-        <f t="array" ref="B452">_xlfn.TEXTJOIN(", ", TRUE, IF(C452:AC452=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B452">_xlfn.TEXTJOIN(", ", TRUE, IF(C452:AC452=1, C$1:AC$1, ""))</f>
         <v>is-was-gen</v>
       </c>
       <c r="C452" s="1">
@@ -43276,7 +43276,7 @@
         <v>477</v>
       </c>
       <c r="B453" s="1" t="str" cm="1">
-        <f t="array" ref="B453">_xlfn.TEXTJOIN(", ", TRUE, IF(C453:AC453=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B453">_xlfn.TEXTJOIN(", ", TRUE, IF(C453:AC453=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C453" s="1">
@@ -43366,7 +43366,7 @@
         <v>478</v>
       </c>
       <c r="B454" s="1" t="str" cm="1">
-        <f t="array" ref="B454">_xlfn.TEXTJOIN(", ", TRUE, IF(C454:AC454=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B454">_xlfn.TEXTJOIN(", ", TRUE, IF(C454:AC454=1, C$1:AC$1, ""))</f>
         <v>verb-stem</v>
       </c>
       <c r="C454" s="1">
@@ -43456,7 +43456,7 @@
         <v>479</v>
       </c>
       <c r="B455" s="1" t="str" cm="1">
-        <f t="array" ref="B455">_xlfn.TEXTJOIN(", ", TRUE, IF(C455:AC455=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B455">_xlfn.TEXTJOIN(", ", TRUE, IF(C455:AC455=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C455" s="1">
@@ -43546,7 +43546,7 @@
         <v>480</v>
       </c>
       <c r="B456" s="1" t="str" cm="1">
-        <f t="array" ref="B456">_xlfn.TEXTJOIN(", ", TRUE, IF(C456:AC456=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B456">_xlfn.TEXTJOIN(", ", TRUE, IF(C456:AC456=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C456" s="1">
@@ -43636,7 +43636,7 @@
         <v>481</v>
       </c>
       <c r="B457" s="1" t="str" cm="1">
-        <f t="array" ref="B457">_xlfn.TEXTJOIN(", ", TRUE, IF(C457:AC457=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B457">_xlfn.TEXTJOIN(", ", TRUE, IF(C457:AC457=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C457" s="1">
@@ -43726,7 +43726,7 @@
         <v>482</v>
       </c>
       <c r="B458" s="1" t="str" cm="1">
-        <f t="array" ref="B458">_xlfn.TEXTJOIN(", ", TRUE, IF(C458:AC458=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B458">_xlfn.TEXTJOIN(", ", TRUE, IF(C458:AC458=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C458" s="1">
@@ -43816,7 +43816,7 @@
         <v>483</v>
       </c>
       <c r="B459" s="1" t="str" cm="1">
-        <f t="array" ref="B459">_xlfn.TEXTJOIN(", ", TRUE, IF(C459:AC459=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B459">_xlfn.TEXTJOIN(", ", TRUE, IF(C459:AC459=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C459" s="1">
@@ -43906,7 +43906,7 @@
         <v>484</v>
       </c>
       <c r="B460" s="1" t="str" cm="1">
-        <f t="array" ref="B460">_xlfn.TEXTJOIN(", ", TRUE, IF(C460:AC460=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B460">_xlfn.TEXTJOIN(", ", TRUE, IF(C460:AC460=1, C$1:AC$1, ""))</f>
         <v>is-was-gen</v>
       </c>
       <c r="C460" s="1">
@@ -43996,7 +43996,7 @@
         <v>485</v>
       </c>
       <c r="B461" s="1" t="str" cm="1">
-        <f t="array" ref="B461">_xlfn.TEXTJOIN(", ", TRUE, IF(C461:AC461=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B461">_xlfn.TEXTJOIN(", ", TRUE, IF(C461:AC461=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C461" s="1">
@@ -44086,7 +44086,7 @@
         <v>486</v>
       </c>
       <c r="B462" s="1" t="str" cm="1">
-        <f t="array" ref="B462">_xlfn.TEXTJOIN(", ", TRUE, IF(C462:AC462=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B462">_xlfn.TEXTJOIN(", ", TRUE, IF(C462:AC462=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C462" s="1">
@@ -44176,7 +44176,7 @@
         <v>487</v>
       </c>
       <c r="B463" s="1" t="str" cm="1">
-        <f t="array" ref="B463">_xlfn.TEXTJOIN(", ", TRUE, IF(C463:AC463=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B463">_xlfn.TEXTJOIN(", ", TRUE, IF(C463:AC463=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C463" s="1">
@@ -44266,7 +44266,7 @@
         <v>488</v>
       </c>
       <c r="B464" s="1" t="str" cm="1">
-        <f t="array" ref="B464">_xlfn.TEXTJOIN(", ", TRUE, IF(C464:AC464=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B464">_xlfn.TEXTJOIN(", ", TRUE, IF(C464:AC464=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C464" s="1">
@@ -44356,7 +44356,7 @@
         <v>489</v>
       </c>
       <c r="B465" s="1" t="str" cm="1">
-        <f t="array" ref="B465">_xlfn.TEXTJOIN(", ", TRUE, IF(C465:AC465=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B465">_xlfn.TEXTJOIN(", ", TRUE, IF(C465:AC465=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C465" s="1">
@@ -44446,7 +44446,7 @@
         <v>490</v>
       </c>
       <c r="B466" s="1" t="str" cm="1">
-        <f t="array" ref="B466">_xlfn.TEXTJOIN(", ", TRUE, IF(C466:AC466=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B466">_xlfn.TEXTJOIN(", ", TRUE, IF(C466:AC466=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C466" s="1">
@@ -44536,7 +44536,7 @@
         <v>491</v>
       </c>
       <c r="B467" s="1" t="str" cm="1">
-        <f t="array" ref="B467">_xlfn.TEXTJOIN(", ", TRUE, IF(C467:AC467=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B467">_xlfn.TEXTJOIN(", ", TRUE, IF(C467:AC467=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C467" s="1">
@@ -44626,7 +44626,7 @@
         <v>492</v>
       </c>
       <c r="B468" s="1" t="str" cm="1">
-        <f t="array" ref="B468">_xlfn.TEXTJOIN(", ", TRUE, IF(C468:AC468=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B468">_xlfn.TEXTJOIN(", ", TRUE, IF(C468:AC468=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C468" s="1">
@@ -44716,7 +44716,7 @@
         <v>493</v>
       </c>
       <c r="B469" s="1" t="str" cm="1">
-        <f t="array" ref="B469">_xlfn.TEXTJOIN(", ", TRUE, IF(C469:AC469=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B469">_xlfn.TEXTJOIN(", ", TRUE, IF(C469:AC469=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C469" s="1">
@@ -44806,7 +44806,7 @@
         <v>494</v>
       </c>
       <c r="B470" s="1" t="str" cm="1">
-        <f t="array" ref="B470">_xlfn.TEXTJOIN(", ", TRUE, IF(C470:AC470=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B470">_xlfn.TEXTJOIN(", ", TRUE, IF(C470:AC470=1, C$1:AC$1, ""))</f>
         <v>verb-stem</v>
       </c>
       <c r="C470" s="1">
@@ -44896,7 +44896,7 @@
         <v>495</v>
       </c>
       <c r="B471" s="1" t="str" cm="1">
-        <f t="array" ref="B471">_xlfn.TEXTJOIN(", ", TRUE, IF(C471:AC471=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B471">_xlfn.TEXTJOIN(", ", TRUE, IF(C471:AC471=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C471" s="1">
@@ -44986,7 +44986,7 @@
         <v>496</v>
       </c>
       <c r="B472" s="1" t="str" cm="1">
-        <f t="array" ref="B472">_xlfn.TEXTJOIN(", ", TRUE, IF(C472:AC472=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B472">_xlfn.TEXTJOIN(", ", TRUE, IF(C472:AC472=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C472" s="1">
@@ -45076,7 +45076,7 @@
         <v>497</v>
       </c>
       <c r="B473" s="1" t="str" cm="1">
-        <f t="array" ref="B473">_xlfn.TEXTJOIN(", ", TRUE, IF(C473:AC473=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B473">_xlfn.TEXTJOIN(", ", TRUE, IF(C473:AC473=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C473" s="1">
@@ -45166,7 +45166,7 @@
         <v>498</v>
       </c>
       <c r="B474" s="1" t="str" cm="1">
-        <f t="array" ref="B474">_xlfn.TEXTJOIN(", ", TRUE, IF(C474:AC474=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B474">_xlfn.TEXTJOIN(", ", TRUE, IF(C474:AC474=1, C$1:AC$1, ""))</f>
         <v>bin</v>
       </c>
       <c r="C474" s="1">
@@ -45256,7 +45256,7 @@
         <v>499</v>
       </c>
       <c r="B475" s="1" t="str" cm="1">
-        <f t="array" ref="B475">_xlfn.TEXTJOIN(", ", TRUE, IF(C475:AC475=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B475">_xlfn.TEXTJOIN(", ", TRUE, IF(C475:AC475=1, C$1:AC$1, ""))</f>
         <v>zero-3sg-pres-s</v>
       </c>
       <c r="C475" s="1">
@@ -45346,7 +45346,7 @@
         <v>500</v>
       </c>
       <c r="B476" s="1" t="str" cm="1">
-        <f t="array" ref="B476">_xlfn.TEXTJOIN(", ", TRUE, IF(C476:AC476=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B476">_xlfn.TEXTJOIN(", ", TRUE, IF(C476:AC476=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C476" s="1">
@@ -45436,7 +45436,7 @@
         <v>501</v>
       </c>
       <c r="B477" s="1" t="str" cm="1">
-        <f t="array" ref="B477">_xlfn.TEXTJOIN(", ", TRUE, IF(C477:AC477=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B477">_xlfn.TEXTJOIN(", ", TRUE, IF(C477:AC477=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C477" s="1">
@@ -45526,7 +45526,7 @@
         <v>502</v>
       </c>
       <c r="B478" s="1" t="str" cm="1">
-        <f t="array" ref="B478">_xlfn.TEXTJOIN(", ", TRUE, IF(C478:AC478=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B478">_xlfn.TEXTJOIN(", ", TRUE, IF(C478:AC478=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C478" s="1">
@@ -45616,7 +45616,7 @@
         <v>503</v>
       </c>
       <c r="B479" s="1" t="str" cm="1">
-        <f t="array" ref="B479">_xlfn.TEXTJOIN(", ", TRUE, IF(C479:AC479=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B479">_xlfn.TEXTJOIN(", ", TRUE, IF(C479:AC479=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C479" s="1">
@@ -45706,7 +45706,7 @@
         <v>504</v>
       </c>
       <c r="B480" s="1" t="str" cm="1">
-        <f t="array" ref="B480">_xlfn.TEXTJOIN(", ", TRUE, IF(C480:AC480=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B480">_xlfn.TEXTJOIN(", ", TRUE, IF(C480:AC480=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C480" s="1">
@@ -45796,7 +45796,7 @@
         <v>505</v>
       </c>
       <c r="B481" s="1" t="str" cm="1">
-        <f t="array" ref="B481">_xlfn.TEXTJOIN(", ", TRUE, IF(C481:AC481=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B481">_xlfn.TEXTJOIN(", ", TRUE, IF(C481:AC481=1, C$1:AC$1, ""))</f>
         <v>is-was-gen</v>
       </c>
       <c r="C481" s="1">
@@ -45886,7 +45886,7 @@
         <v>506</v>
       </c>
       <c r="B482" s="1" t="str" cm="1">
-        <f t="array" ref="B482">_xlfn.TEXTJOIN(", ", TRUE, IF(C482:AC482=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B482">_xlfn.TEXTJOIN(", ", TRUE, IF(C482:AC482=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C482" s="1">
@@ -45976,7 +45976,7 @@
         <v>507</v>
       </c>
       <c r="B483" s="1" t="str" cm="1">
-        <f t="array" ref="B483">_xlfn.TEXTJOIN(", ", TRUE, IF(C483:AC483=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B483">_xlfn.TEXTJOIN(", ", TRUE, IF(C483:AC483=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C483" s="1">
@@ -46066,7 +46066,7 @@
         <v>508</v>
       </c>
       <c r="B484" s="1" t="str" cm="1">
-        <f t="array" ref="B484">_xlfn.TEXTJOIN(", ", TRUE, IF(C484:AC484=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B484">_xlfn.TEXTJOIN(", ", TRUE, IF(C484:AC484=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C484" s="1">
@@ -46156,7 +46156,7 @@
         <v>509</v>
       </c>
       <c r="B485" s="1" t="str" cm="1">
-        <f t="array" ref="B485">_xlfn.TEXTJOIN(", ", TRUE, IF(C485:AC485=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B485">_xlfn.TEXTJOIN(", ", TRUE, IF(C485:AC485=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C485" s="1">
@@ -46246,7 +46246,7 @@
         <v>510</v>
       </c>
       <c r="B486" s="1" t="str" cm="1">
-        <f t="array" ref="B486">_xlfn.TEXTJOIN(", ", TRUE, IF(C486:AC486=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B486">_xlfn.TEXTJOIN(", ", TRUE, IF(C486:AC486=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C486" s="1">
@@ -46336,7 +46336,7 @@
         <v>511</v>
       </c>
       <c r="B487" s="1" t="str" cm="1">
-        <f t="array" ref="B487">_xlfn.TEXTJOIN(", ", TRUE, IF(C487:AC487=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B487">_xlfn.TEXTJOIN(", ", TRUE, IF(C487:AC487=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C487" s="1">
@@ -46426,7 +46426,7 @@
         <v>512</v>
       </c>
       <c r="B488" s="1" t="str" cm="1">
-        <f t="array" ref="B488">_xlfn.TEXTJOIN(", ", TRUE, IF(C488:AC488=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B488">_xlfn.TEXTJOIN(", ", TRUE, IF(C488:AC488=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C488" s="1">
@@ -46516,7 +46516,7 @@
         <v>513</v>
       </c>
       <c r="B489" s="1" t="str" cm="1">
-        <f t="array" ref="B489">_xlfn.TEXTJOIN(", ", TRUE, IF(C489:AC489=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B489">_xlfn.TEXTJOIN(", ", TRUE, IF(C489:AC489=1, C$1:AC$1, ""))</f>
         <v>multiple-neg, aint</v>
       </c>
       <c r="C489" s="1">
@@ -46606,7 +46606,7 @@
         <v>514</v>
       </c>
       <c r="B490" s="1" t="str" cm="1">
-        <f t="array" ref="B490">_xlfn.TEXTJOIN(", ", TRUE, IF(C490:AC490=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B490">_xlfn.TEXTJOIN(", ", TRUE, IF(C490:AC490=1, C$1:AC$1, ""))</f>
         <v>existential-it, past-tense-swap</v>
       </c>
       <c r="C490" s="1">
@@ -46696,7 +46696,7 @@
         <v>515</v>
       </c>
       <c r="B491" s="1" t="str" cm="1">
-        <f t="array" ref="B491">_xlfn.TEXTJOIN(", ", TRUE, IF(C491:AC491=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B491">_xlfn.TEXTJOIN(", ", TRUE, IF(C491:AC491=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C491" s="1">
@@ -46786,7 +46786,7 @@
         <v>516</v>
       </c>
       <c r="B492" s="1" t="str" cm="1">
-        <f t="array" ref="B492">_xlfn.TEXTJOIN(", ", TRUE, IF(C492:AC492=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B492">_xlfn.TEXTJOIN(", ", TRUE, IF(C492:AC492=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C492" s="1">
@@ -46876,7 +46876,7 @@
         <v>517</v>
       </c>
       <c r="B493" s="1" t="str" cm="1">
-        <f t="array" ref="B493">_xlfn.TEXTJOIN(", ", TRUE, IF(C493:AC493=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B493">_xlfn.TEXTJOIN(", ", TRUE, IF(C493:AC493=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C493" s="1">
@@ -46966,7 +46966,7 @@
         <v>518</v>
       </c>
       <c r="B494" s="1" t="str" cm="1">
-        <f t="array" ref="B494">_xlfn.TEXTJOIN(", ", TRUE, IF(C494:AC494=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B494">_xlfn.TEXTJOIN(", ", TRUE, IF(C494:AC494=1, C$1:AC$1, ""))</f>
         <v>multiple-neg</v>
       </c>
       <c r="C494" s="1">
@@ -47056,7 +47056,7 @@
         <v>519</v>
       </c>
       <c r="B495" s="1" t="str" cm="1">
-        <f t="array" ref="B495">_xlfn.TEXTJOIN(", ", TRUE, IF(C495:AC495=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B495">_xlfn.TEXTJOIN(", ", TRUE, IF(C495:AC495=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C495" s="1">
@@ -47146,7 +47146,7 @@
         <v>520</v>
       </c>
       <c r="B496" s="1" t="str" cm="1">
-        <f t="array" ref="B496">_xlfn.TEXTJOIN(", ", TRUE, IF(C496:AC496=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B496">_xlfn.TEXTJOIN(", ", TRUE, IF(C496:AC496=1, C$1:AC$1, ""))</f>
         <v>multiple-neg</v>
       </c>
       <c r="C496" s="1">
@@ -47236,7 +47236,7 @@
         <v>521</v>
       </c>
       <c r="B497" s="1" t="str" cm="1">
-        <f t="array" ref="B497">_xlfn.TEXTJOIN(", ", TRUE, IF(C497:AC497=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B497">_xlfn.TEXTJOIN(", ", TRUE, IF(C497:AC497=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C497" s="1">
@@ -47326,7 +47326,7 @@
         <v>522</v>
       </c>
       <c r="B498" s="1" t="str" cm="1">
-        <f t="array" ref="B498">_xlfn.TEXTJOIN(", ", TRUE, IF(C498:AC498=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B498">_xlfn.TEXTJOIN(", ", TRUE, IF(C498:AC498=1, C$1:AC$1, ""))</f>
         <v>is-was-gen, bin</v>
       </c>
       <c r="C498" s="1">
@@ -47416,7 +47416,7 @@
         <v>523</v>
       </c>
       <c r="B499" s="1" t="str" cm="1">
-        <f t="array" ref="B499">_xlfn.TEXTJOIN(", ", TRUE, IF(C499:AC499=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B499">_xlfn.TEXTJOIN(", ", TRUE, IF(C499:AC499=1, C$1:AC$1, ""))</f>
         <v>bin</v>
       </c>
       <c r="C499" s="1">
@@ -47506,7 +47506,7 @@
         <v>524</v>
       </c>
       <c r="B500" s="1" t="str" cm="1">
-        <f t="array" ref="B500">_xlfn.TEXTJOIN(", ", TRUE, IF(C500:AC500=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B500">_xlfn.TEXTJOIN(", ", TRUE, IF(C500:AC500=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C500" s="1">
@@ -47596,7 +47596,7 @@
         <v>525</v>
       </c>
       <c r="B501" s="1" t="str" cm="1">
-        <f t="array" ref="B501">_xlfn.TEXTJOIN(", ", TRUE, IF(C501:AC501=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B501">_xlfn.TEXTJOIN(", ", TRUE, IF(C501:AC501=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C501" s="1">
@@ -47686,7 +47686,7 @@
         <v>526</v>
       </c>
       <c r="B502" s="1" t="str" cm="1">
-        <f t="array" ref="B502">_xlfn.TEXTJOIN(", ", TRUE, IF(C502:AC502=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B502">_xlfn.TEXTJOIN(", ", TRUE, IF(C502:AC502=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C502" s="1">
@@ -47776,7 +47776,7 @@
         <v>527</v>
       </c>
       <c r="B503" s="1" t="str" cm="1">
-        <f t="array" ref="B503">_xlfn.TEXTJOIN(", ", TRUE, IF(C503:AC503=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B503">_xlfn.TEXTJOIN(", ", TRUE, IF(C503:AC503=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C503" s="1">
@@ -47866,7 +47866,7 @@
         <v>528</v>
       </c>
       <c r="B504" s="1" t="str" cm="1">
-        <f t="array" ref="B504">_xlfn.TEXTJOIN(", ", TRUE, IF(C504:AC504=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B504">_xlfn.TEXTJOIN(", ", TRUE, IF(C504:AC504=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C504" s="1">
@@ -47956,7 +47956,7 @@
         <v>529</v>
       </c>
       <c r="B505" s="1" t="str" cm="1">
-        <f t="array" ref="B505">_xlfn.TEXTJOIN(", ", TRUE, IF(C505:AC505=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B505">_xlfn.TEXTJOIN(", ", TRUE, IF(C505:AC505=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C505" s="1">
@@ -48046,7 +48046,7 @@
         <v>530</v>
       </c>
       <c r="B506" s="1" t="str" cm="1">
-        <f t="array" ref="B506">_xlfn.TEXTJOIN(", ", TRUE, IF(C506:AC506=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B506">_xlfn.TEXTJOIN(", ", TRUE, IF(C506:AC506=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C506" s="1">
@@ -48136,7 +48136,7 @@
         <v>531</v>
       </c>
       <c r="B507" s="1" t="str" cm="1">
-        <f t="array" ref="B507">_xlfn.TEXTJOIN(", ", TRUE, IF(C507:AC507=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B507">_xlfn.TEXTJOIN(", ", TRUE, IF(C507:AC507=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C507" s="1">
@@ -48226,7 +48226,7 @@
         <v>532</v>
       </c>
       <c r="B508" s="1" t="str" cm="1">
-        <f t="array" ref="B508">_xlfn.TEXTJOIN(", ", TRUE, IF(C508:AC508=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B508">_xlfn.TEXTJOIN(", ", TRUE, IF(C508:AC508=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C508" s="1">
@@ -48316,7 +48316,7 @@
         <v>533</v>
       </c>
       <c r="B509" s="1" t="str" cm="1">
-        <f t="array" ref="B509">_xlfn.TEXTJOIN(", ", TRUE, IF(C509:AC509=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B509">_xlfn.TEXTJOIN(", ", TRUE, IF(C509:AC509=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C509" s="1">
@@ -48406,7 +48406,7 @@
         <v>534</v>
       </c>
       <c r="B510" s="1" t="str" cm="1">
-        <f t="array" ref="B510">_xlfn.TEXTJOIN(", ", TRUE, IF(C510:AC510=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B510">_xlfn.TEXTJOIN(", ", TRUE, IF(C510:AC510=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C510" s="1">
@@ -48496,7 +48496,7 @@
         <v>535</v>
       </c>
       <c r="B511" s="1" t="str" cm="1">
-        <f t="array" ref="B511">_xlfn.TEXTJOIN(", ", TRUE, IF(C511:AC511=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B511">_xlfn.TEXTJOIN(", ", TRUE, IF(C511:AC511=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C511" s="1">
@@ -48586,7 +48586,7 @@
         <v>536</v>
       </c>
       <c r="B512" s="1" t="str" cm="1">
-        <f t="array" ref="B512">_xlfn.TEXTJOIN(", ", TRUE, IF(C512:AC512=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B512">_xlfn.TEXTJOIN(", ", TRUE, IF(C512:AC512=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C512" s="1">
@@ -48676,7 +48676,7 @@
         <v>537</v>
       </c>
       <c r="B513" s="1" t="str" cm="1">
-        <f t="array" ref="B513">_xlfn.TEXTJOIN(", ", TRUE, IF(C513:AC513=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B513">_xlfn.TEXTJOIN(", ", TRUE, IF(C513:AC513=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C513" s="1">
@@ -48766,7 +48766,7 @@
         <v>538</v>
       </c>
       <c r="B514" s="1" t="str" cm="1">
-        <f t="array" ref="B514">_xlfn.TEXTJOIN(", ", TRUE, IF(C514:AC514=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B514">_xlfn.TEXTJOIN(", ", TRUE, IF(C514:AC514=1, C$1:AC$1, ""))</f>
         <v>existential-it</v>
       </c>
       <c r="C514" s="1">
@@ -48856,7 +48856,7 @@
         <v>539</v>
       </c>
       <c r="B515" s="1" t="str" cm="1">
-        <f t="array" ref="B515">_xlfn.TEXTJOIN(", ", TRUE, IF(C515:AC515=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B515">_xlfn.TEXTJOIN(", ", TRUE, IF(C515:AC515=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C515" s="1">
@@ -48946,7 +48946,7 @@
         <v>540</v>
       </c>
       <c r="B516" s="1" t="str" cm="1">
-        <f t="array" ref="B516">_xlfn.TEXTJOIN(", ", TRUE, IF(C516:AC516=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B516">_xlfn.TEXTJOIN(", ", TRUE, IF(C516:AC516=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C516" s="1">
@@ -49036,7 +49036,7 @@
         <v>541</v>
       </c>
       <c r="B517" s="1" t="str" cm="1">
-        <f t="array" ref="B517">_xlfn.TEXTJOIN(", ", TRUE, IF(C517:AC517=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B517">_xlfn.TEXTJOIN(", ", TRUE, IF(C517:AC517=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C517" s="1">
@@ -49126,7 +49126,7 @@
         <v>542</v>
       </c>
       <c r="B518" s="1" t="str" cm="1">
-        <f t="array" ref="B518">_xlfn.TEXTJOIN(", ", TRUE, IF(C518:AC518=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B518">_xlfn.TEXTJOIN(", ", TRUE, IF(C518:AC518=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C518" s="1">
@@ -49216,7 +49216,7 @@
         <v>543</v>
       </c>
       <c r="B519" s="1" t="str" cm="1">
-        <f t="array" ref="B519">_xlfn.TEXTJOIN(", ", TRUE, IF(C519:AC519=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B519">_xlfn.TEXTJOIN(", ", TRUE, IF(C519:AC519=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C519" s="1">
@@ -49306,7 +49306,7 @@
         <v>544</v>
       </c>
       <c r="B520" s="1" t="str" cm="1">
-        <f t="array" ref="B520">_xlfn.TEXTJOIN(", ", TRUE, IF(C520:AC520=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B520">_xlfn.TEXTJOIN(", ", TRUE, IF(C520:AC520=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C520" s="1">
@@ -49396,7 +49396,7 @@
         <v>545</v>
       </c>
       <c r="B521" s="1" t="str" cm="1">
-        <f t="array" ref="B521">_xlfn.TEXTJOIN(", ", TRUE, IF(C521:AC521=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B521">_xlfn.TEXTJOIN(", ", TRUE, IF(C521:AC521=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C521" s="1">
@@ -49486,7 +49486,7 @@
         <v>546</v>
       </c>
       <c r="B522" s="1" t="str" cm="1">
-        <f t="array" ref="B522">_xlfn.TEXTJOIN(", ", TRUE, IF(C522:AC522=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B522">_xlfn.TEXTJOIN(", ", TRUE, IF(C522:AC522=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C522" s="1">
@@ -49576,7 +49576,7 @@
         <v>547</v>
       </c>
       <c r="B523" s="1" t="str" cm="1">
-        <f t="array" ref="B523">_xlfn.TEXTJOIN(", ", TRUE, IF(C523:AC523=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B523">_xlfn.TEXTJOIN(", ", TRUE, IF(C523:AC523=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C523" s="1">
@@ -49666,7 +49666,7 @@
         <v>548</v>
       </c>
       <c r="B524" s="1" t="str" cm="1">
-        <f t="array" ref="B524">_xlfn.TEXTJOIN(", ", TRUE, IF(C524:AC524=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B524">_xlfn.TEXTJOIN(", ", TRUE, IF(C524:AC524=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C524" s="1">
@@ -49756,7 +49756,7 @@
         <v>549</v>
       </c>
       <c r="B525" s="1" t="str" cm="1">
-        <f t="array" ref="B525">_xlfn.TEXTJOIN(", ", TRUE, IF(C525:AC525=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B525">_xlfn.TEXTJOIN(", ", TRUE, IF(C525:AC525=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C525" s="1">
@@ -49846,7 +49846,7 @@
         <v>550</v>
       </c>
       <c r="B526" s="1" t="str" cm="1">
-        <f t="array" ref="B526">_xlfn.TEXTJOIN(", ", TRUE, IF(C526:AC526=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B526">_xlfn.TEXTJOIN(", ", TRUE, IF(C526:AC526=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C526" s="1">
@@ -49936,7 +49936,7 @@
         <v>551</v>
       </c>
       <c r="B527" s="1" t="str" cm="1">
-        <f t="array" ref="B527">_xlfn.TEXTJOIN(", ", TRUE, IF(C527:AC527=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B527">_xlfn.TEXTJOIN(", ", TRUE, IF(C527:AC527=1, C$1:AC$1, ""))</f>
         <v>zero-3sg-pres-s</v>
       </c>
       <c r="C527" s="1">
@@ -50026,7 +50026,7 @@
         <v>552</v>
       </c>
       <c r="B528" s="1" t="str" cm="1">
-        <f t="array" ref="B528">_xlfn.TEXTJOIN(", ", TRUE, IF(C528:AC528=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B528">_xlfn.TEXTJOIN(", ", TRUE, IF(C528:AC528=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C528" s="1">
@@ -50116,7 +50116,7 @@
         <v>553</v>
       </c>
       <c r="B529" s="1" t="str" cm="1">
-        <f t="array" ref="B529">_xlfn.TEXTJOIN(", ", TRUE, IF(C529:AC529=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B529">_xlfn.TEXTJOIN(", ", TRUE, IF(C529:AC529=1, C$1:AC$1, ""))</f>
         <v>existential-it</v>
       </c>
       <c r="C529" s="1">
@@ -50206,7 +50206,7 @@
         <v>554</v>
       </c>
       <c r="B530" s="1" t="str" cm="1">
-        <f t="array" ref="B530">_xlfn.TEXTJOIN(", ", TRUE, IF(C530:AC530=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B530">_xlfn.TEXTJOIN(", ", TRUE, IF(C530:AC530=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C530" s="1">
@@ -50296,7 +50296,7 @@
         <v>555</v>
       </c>
       <c r="B531" s="1" t="str" cm="1">
-        <f t="array" ref="B531">_xlfn.TEXTJOIN(", ", TRUE, IF(C531:AC531=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B531">_xlfn.TEXTJOIN(", ", TRUE, IF(C531:AC531=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C531" s="1">
@@ -50386,7 +50386,7 @@
         <v>556</v>
       </c>
       <c r="B532" s="1" t="str" cm="1">
-        <f t="array" ref="B532">_xlfn.TEXTJOIN(", ", TRUE, IF(C532:AC532=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B532">_xlfn.TEXTJOIN(", ", TRUE, IF(C532:AC532=1, C$1:AC$1, ""))</f>
         <v>existential-it</v>
       </c>
       <c r="C532" s="1">
@@ -50476,7 +50476,7 @@
         <v>557</v>
       </c>
       <c r="B533" s="1" t="str" cm="1">
-        <f t="array" ref="B533">_xlfn.TEXTJOIN(", ", TRUE, IF(C533:AC533=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B533">_xlfn.TEXTJOIN(", ", TRUE, IF(C533:AC533=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C533" s="1">
@@ -50566,7 +50566,7 @@
         <v>558</v>
       </c>
       <c r="B534" s="1" t="str" cm="1">
-        <f t="array" ref="B534">_xlfn.TEXTJOIN(", ", TRUE, IF(C534:AC534=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B534">_xlfn.TEXTJOIN(", ", TRUE, IF(C534:AC534=1, C$1:AC$1, ""))</f>
         <v>multiple-neg, existential-it</v>
       </c>
       <c r="C534" s="1">
@@ -50656,7 +50656,7 @@
         <v>559</v>
       </c>
       <c r="B535" s="1" t="str" cm="1">
-        <f t="array" ref="B535">_xlfn.TEXTJOIN(", ", TRUE, IF(C535:AC535=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B535">_xlfn.TEXTJOIN(", ", TRUE, IF(C535:AC535=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C535" s="1">
@@ -50746,7 +50746,7 @@
         <v>560</v>
       </c>
       <c r="B536" s="1" t="str" cm="1">
-        <f t="array" ref="B536">_xlfn.TEXTJOIN(", ", TRUE, IF(C536:AC536=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B536">_xlfn.TEXTJOIN(", ", TRUE, IF(C536:AC536=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C536" s="1">
@@ -50836,7 +50836,7 @@
         <v>561</v>
       </c>
       <c r="B537" s="1" t="str" cm="1">
-        <f t="array" ref="B537">_xlfn.TEXTJOIN(", ", TRUE, IF(C537:AC537=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B537">_xlfn.TEXTJOIN(", ", TRUE, IF(C537:AC537=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C537" s="1">
@@ -50926,7 +50926,7 @@
         <v>562</v>
       </c>
       <c r="B538" s="1" t="str" cm="1">
-        <f t="array" ref="B538">_xlfn.TEXTJOIN(", ", TRUE, IF(C538:AC538=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B538">_xlfn.TEXTJOIN(", ", TRUE, IF(C538:AC538=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C538" s="1">
@@ -51016,7 +51016,7 @@
         <v>563</v>
       </c>
       <c r="B539" s="1" t="str" cm="1">
-        <f t="array" ref="B539">_xlfn.TEXTJOIN(", ", TRUE, IF(C539:AC539=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B539">_xlfn.TEXTJOIN(", ", TRUE, IF(C539:AC539=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C539" s="1">
@@ -51106,7 +51106,7 @@
         <v>564</v>
       </c>
       <c r="B540" s="1" t="str" cm="1">
-        <f t="array" ref="B540">_xlfn.TEXTJOIN(", ", TRUE, IF(C540:AC540=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B540">_xlfn.TEXTJOIN(", ", TRUE, IF(C540:AC540=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C540" s="1">
@@ -51196,7 +51196,7 @@
         <v>565</v>
       </c>
       <c r="B541" s="1" t="str" cm="1">
-        <f t="array" ref="B541">_xlfn.TEXTJOIN(", ", TRUE, IF(C541:AC541=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B541">_xlfn.TEXTJOIN(", ", TRUE, IF(C541:AC541=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C541" s="1">
@@ -51286,7 +51286,7 @@
         <v>566</v>
       </c>
       <c r="B542" s="1" t="str" cm="1">
-        <f t="array" ref="B542">_xlfn.TEXTJOIN(", ", TRUE, IF(C542:AC542=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B542">_xlfn.TEXTJOIN(", ", TRUE, IF(C542:AC542=1, C$1:AC$1, ""))</f>
         <v>bin</v>
       </c>
       <c r="C542" s="1">
@@ -51376,7 +51376,7 @@
         <v>567</v>
       </c>
       <c r="B543" s="1" t="str" cm="1">
-        <f t="array" ref="B543">_xlfn.TEXTJOIN(", ", TRUE, IF(C543:AC543=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B543">_xlfn.TEXTJOIN(", ", TRUE, IF(C543:AC543=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C543" s="1">
@@ -51466,7 +51466,7 @@
         <v>568</v>
       </c>
       <c r="B544" s="1" t="str" cm="1">
-        <f t="array" ref="B544">_xlfn.TEXTJOIN(", ", TRUE, IF(C544:AC544=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B544">_xlfn.TEXTJOIN(", ", TRUE, IF(C544:AC544=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C544" s="1">
@@ -51556,7 +51556,7 @@
         <v>569</v>
       </c>
       <c r="B545" s="1" t="str" cm="1">
-        <f t="array" ref="B545">_xlfn.TEXTJOIN(", ", TRUE, IF(C545:AC545=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B545">_xlfn.TEXTJOIN(", ", TRUE, IF(C545:AC545=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C545" s="1">
@@ -51646,7 +51646,7 @@
         <v>570</v>
       </c>
       <c r="B546" s="1" t="str" cm="1">
-        <f t="array" ref="B546">_xlfn.TEXTJOIN(", ", TRUE, IF(C546:AC546=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B546">_xlfn.TEXTJOIN(", ", TRUE, IF(C546:AC546=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C546" s="1">
@@ -51736,7 +51736,7 @@
         <v>571</v>
       </c>
       <c r="B547" s="1" t="str" cm="1">
-        <f t="array" ref="B547">_xlfn.TEXTJOIN(", ", TRUE, IF(C547:AC547=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B547">_xlfn.TEXTJOIN(", ", TRUE, IF(C547:AC547=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C547" s="1">
@@ -51826,7 +51826,7 @@
         <v>572</v>
       </c>
       <c r="B548" s="1" t="str" cm="1">
-        <f t="array" ref="B548">_xlfn.TEXTJOIN(", ", TRUE, IF(C548:AC548=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B548">_xlfn.TEXTJOIN(", ", TRUE, IF(C548:AC548=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C548" s="1">
@@ -51916,7 +51916,7 @@
         <v>573</v>
       </c>
       <c r="B549" s="1" t="str" cm="1">
-        <f t="array" ref="B549">_xlfn.TEXTJOIN(", ", TRUE, IF(C549:AC549=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B549">_xlfn.TEXTJOIN(", ", TRUE, IF(C549:AC549=1, C$1:AC$1, ""))</f>
         <v>existential-it</v>
       </c>
       <c r="C549" s="1">
@@ -52006,7 +52006,7 @@
         <v>574</v>
       </c>
       <c r="B550" s="1" t="str" cm="1">
-        <f t="array" ref="B550">_xlfn.TEXTJOIN(", ", TRUE, IF(C550:AC550=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B550">_xlfn.TEXTJOIN(", ", TRUE, IF(C550:AC550=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C550" s="1">
@@ -52096,7 +52096,7 @@
         <v>575</v>
       </c>
       <c r="B551" s="1" t="str" cm="1">
-        <f t="array" ref="B551">_xlfn.TEXTJOIN(", ", TRUE, IF(C551:AC551=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B551">_xlfn.TEXTJOIN(", ", TRUE, IF(C551:AC551=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C551" s="1">
@@ -52186,7 +52186,7 @@
         <v>576</v>
       </c>
       <c r="B552" s="1" t="str" cm="1">
-        <f t="array" ref="B552">_xlfn.TEXTJOIN(", ", TRUE, IF(C552:AC552=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B552">_xlfn.TEXTJOIN(", ", TRUE, IF(C552:AC552=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C552" s="1">
@@ -52276,7 +52276,7 @@
         <v>577</v>
       </c>
       <c r="B553" s="1" t="str" cm="1">
-        <f t="array" ref="B553">_xlfn.TEXTJOIN(", ", TRUE, IF(C553:AC553=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B553">_xlfn.TEXTJOIN(", ", TRUE, IF(C553:AC553=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C553" s="1">
@@ -52366,7 +52366,7 @@
         <v>578</v>
       </c>
       <c r="B554" s="1" t="str" cm="1">
-        <f t="array" ref="B554">_xlfn.TEXTJOIN(", ", TRUE, IF(C554:AC554=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B554">_xlfn.TEXTJOIN(", ", TRUE, IF(C554:AC554=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C554" s="1">
@@ -52456,7 +52456,7 @@
         <v>579</v>
       </c>
       <c r="B555" s="1" t="str" cm="1">
-        <f t="array" ref="B555">_xlfn.TEXTJOIN(", ", TRUE, IF(C555:AC555=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B555">_xlfn.TEXTJOIN(", ", TRUE, IF(C555:AC555=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C555" s="1">
@@ -52546,7 +52546,7 @@
         <v>580</v>
       </c>
       <c r="B556" s="1" t="str" cm="1">
-        <f t="array" ref="B556">_xlfn.TEXTJOIN(", ", TRUE, IF(C556:AC556=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B556">_xlfn.TEXTJOIN(", ", TRUE, IF(C556:AC556=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C556" s="1">
@@ -52636,7 +52636,7 @@
         <v>581</v>
       </c>
       <c r="B557" s="1" t="str" cm="1">
-        <f t="array" ref="B557">_xlfn.TEXTJOIN(", ", TRUE, IF(C557:AC557=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B557">_xlfn.TEXTJOIN(", ", TRUE, IF(C557:AC557=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C557" s="1">
@@ -52726,7 +52726,7 @@
         <v>582</v>
       </c>
       <c r="B558" s="1" t="str" cm="1">
-        <f t="array" ref="B558">_xlfn.TEXTJOIN(", ", TRUE, IF(C558:AC558=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B558">_xlfn.TEXTJOIN(", ", TRUE, IF(C558:AC558=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C558" s="1">
@@ -52816,7 +52816,7 @@
         <v>583</v>
       </c>
       <c r="B559" s="1" t="str" cm="1">
-        <f t="array" ref="B559">_xlfn.TEXTJOIN(", ", TRUE, IF(C559:AC559=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B559">_xlfn.TEXTJOIN(", ", TRUE, IF(C559:AC559=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C559" s="1">
@@ -52906,7 +52906,7 @@
         <v>584</v>
       </c>
       <c r="B560" s="1" t="str" cm="1">
-        <f t="array" ref="B560">_xlfn.TEXTJOIN(", ", TRUE, IF(C560:AC560=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B560">_xlfn.TEXTJOIN(", ", TRUE, IF(C560:AC560=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C560" s="1">
@@ -52996,8 +52996,8 @@
         <v>585</v>
       </c>
       <c r="B561" s="1" t="str" cm="1">
-        <f t="array" ref="B561">_xlfn.TEXTJOIN(", ", TRUE, IF(C561:AC561=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B561">_xlfn.TEXTJOIN(", ", TRUE, IF(C561:AC561=1, C$1:AC$1, ""))</f>
+        <v>multiple-neg, aint</v>
       </c>
       <c r="C561" s="1">
         <v>0</v>
@@ -53024,7 +53024,7 @@
         <v>0</v>
       </c>
       <c r="K561" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L561" s="1">
         <v>0</v>
@@ -53033,7 +53033,7 @@
         <v>0</v>
       </c>
       <c r="N561" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O561" s="1">
         <v>0</v>
@@ -53086,7 +53086,7 @@
         <v>586</v>
       </c>
       <c r="B562" s="1" t="str" cm="1">
-        <f t="array" ref="B562">_xlfn.TEXTJOIN(", ", TRUE, IF(C562:AC562=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B562">_xlfn.TEXTJOIN(", ", TRUE, IF(C562:AC562=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C562" s="1">
@@ -53176,7 +53176,7 @@
         <v>587</v>
       </c>
       <c r="B563" s="1" t="str" cm="1">
-        <f t="array" ref="B563">_xlfn.TEXTJOIN(", ", TRUE, IF(C563:AC563=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B563">_xlfn.TEXTJOIN(", ", TRUE, IF(C563:AC563=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C563" s="1">
@@ -53266,7 +53266,7 @@
         <v>588</v>
       </c>
       <c r="B564" s="1" t="str" cm="1">
-        <f t="array" ref="B564">_xlfn.TEXTJOIN(", ", TRUE, IF(C564:AC564=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B564">_xlfn.TEXTJOIN(", ", TRUE, IF(C564:AC564=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C564" s="1">
@@ -53356,7 +53356,7 @@
         <v>589</v>
       </c>
       <c r="B565" s="1" t="str" cm="1">
-        <f t="array" ref="B565">_xlfn.TEXTJOIN(", ", TRUE, IF(C565:AC565=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B565">_xlfn.TEXTJOIN(", ", TRUE, IF(C565:AC565=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C565" s="1">
@@ -53446,7 +53446,7 @@
         <v>590</v>
       </c>
       <c r="B566" s="1" t="str" cm="1">
-        <f t="array" ref="B566">_xlfn.TEXTJOIN(", ", TRUE, IF(C566:AC566=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B566">_xlfn.TEXTJOIN(", ", TRUE, IF(C566:AC566=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C566" s="1">
@@ -53536,7 +53536,7 @@
         <v>591</v>
       </c>
       <c r="B567" s="1" t="str" cm="1">
-        <f t="array" ref="B567">_xlfn.TEXTJOIN(", ", TRUE, IF(C567:AC567=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B567">_xlfn.TEXTJOIN(", ", TRUE, IF(C567:AC567=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C567" s="1">
@@ -53626,7 +53626,7 @@
         <v>592</v>
       </c>
       <c r="B568" s="1" t="str" cm="1">
-        <f t="array" ref="B568">_xlfn.TEXTJOIN(", ", TRUE, IF(C568:AC568=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B568">_xlfn.TEXTJOIN(", ", TRUE, IF(C568:AC568=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C568" s="1">
@@ -53716,7 +53716,7 @@
         <v>593</v>
       </c>
       <c r="B569" s="1" t="str" cm="1">
-        <f t="array" ref="B569">_xlfn.TEXTJOIN(", ", TRUE, IF(C569:AC569=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B569">_xlfn.TEXTJOIN(", ", TRUE, IF(C569:AC569=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C569" s="1">
@@ -53806,7 +53806,7 @@
         <v>594</v>
       </c>
       <c r="B570" s="1" t="str" cm="1">
-        <f t="array" ref="B570">_xlfn.TEXTJOIN(", ", TRUE, IF(C570:AC570=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B570">_xlfn.TEXTJOIN(", ", TRUE, IF(C570:AC570=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C570" s="1">
@@ -53896,7 +53896,7 @@
         <v>595</v>
       </c>
       <c r="B571" s="1" t="str" cm="1">
-        <f t="array" ref="B571">_xlfn.TEXTJOIN(", ", TRUE, IF(C571:AC571=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B571">_xlfn.TEXTJOIN(", ", TRUE, IF(C571:AC571=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C571" s="1">
@@ -53986,7 +53986,7 @@
         <v>596</v>
       </c>
       <c r="B572" s="1" t="str" cm="1">
-        <f t="array" ref="B572">_xlfn.TEXTJOIN(", ", TRUE, IF(C572:AC572=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B572">_xlfn.TEXTJOIN(", ", TRUE, IF(C572:AC572=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C572" s="1">
@@ -54076,7 +54076,7 @@
         <v>597</v>
       </c>
       <c r="B573" s="1" t="str" cm="1">
-        <f t="array" ref="B573">_xlfn.TEXTJOIN(", ", TRUE, IF(C573:AC573=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B573">_xlfn.TEXTJOIN(", ", TRUE, IF(C573:AC573=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C573" s="1">
@@ -54166,7 +54166,7 @@
         <v>598</v>
       </c>
       <c r="B574" s="1" t="str" cm="1">
-        <f t="array" ref="B574">_xlfn.TEXTJOIN(", ", TRUE, IF(C574:AC574=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B574">_xlfn.TEXTJOIN(", ", TRUE, IF(C574:AC574=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C574" s="1">
@@ -54256,7 +54256,7 @@
         <v>581</v>
       </c>
       <c r="B575" s="1" t="str" cm="1">
-        <f t="array" ref="B575">_xlfn.TEXTJOIN(", ", TRUE, IF(C575:AC575=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B575">_xlfn.TEXTJOIN(", ", TRUE, IF(C575:AC575=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C575" s="1">
@@ -54346,7 +54346,7 @@
         <v>599</v>
       </c>
       <c r="B576" s="1" t="str" cm="1">
-        <f t="array" ref="B576">_xlfn.TEXTJOIN(", ", TRUE, IF(C576:AC576=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B576">_xlfn.TEXTJOIN(", ", TRUE, IF(C576:AC576=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C576" s="1">
@@ -54436,7 +54436,7 @@
         <v>600</v>
       </c>
       <c r="B577" s="1" t="str" cm="1">
-        <f t="array" ref="B577">_xlfn.TEXTJOIN(", ", TRUE, IF(C577:AC577=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B577">_xlfn.TEXTJOIN(", ", TRUE, IF(C577:AC577=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C577" s="1">
@@ -54526,7 +54526,7 @@
         <v>601</v>
       </c>
       <c r="B578" s="1" t="str" cm="1">
-        <f t="array" ref="B578">_xlfn.TEXTJOIN(", ", TRUE, IF(C578:AC578=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B578">_xlfn.TEXTJOIN(", ", TRUE, IF(C578:AC578=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C578" s="1">
@@ -54616,14 +54616,14 @@
         <v>602</v>
       </c>
       <c r="B579" s="1" t="str" cm="1">
-        <f t="array" ref="B579">_xlfn.TEXTJOIN(", ", TRUE, IF(C579:AC579=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B579">_xlfn.TEXTJOIN(", ", TRUE, IF(C579:AC579=1, C$1:AC$1, ""))</f>
+        <v>zero-copula, past-tense-swap</v>
       </c>
       <c r="C579" s="1">
         <v>0</v>
       </c>
       <c r="D579" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E579" s="1">
         <v>0</v>
@@ -54689,7 +54689,7 @@
         <v>0</v>
       </c>
       <c r="Z579" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA579" s="1">
         <v>0</v>
@@ -54706,7 +54706,7 @@
         <v>603</v>
       </c>
       <c r="B580" s="1" t="str" cm="1">
-        <f t="array" ref="B580">_xlfn.TEXTJOIN(", ", TRUE, IF(C580:AC580=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B580">_xlfn.TEXTJOIN(", ", TRUE, IF(C580:AC580=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C580" s="1">
@@ -54796,14 +54796,14 @@
         <v>604</v>
       </c>
       <c r="B581" s="1" t="str" cm="1">
-        <f t="array" ref="B581">_xlfn.TEXTJOIN(", ", TRUE, IF(C581:AC581=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B581">_xlfn.TEXTJOIN(", ", TRUE, IF(C581:AC581=1, C$1:AC$1, ""))</f>
+        <v>zero-copula</v>
       </c>
       <c r="C581" s="1">
         <v>0</v>
       </c>
       <c r="D581" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E581" s="1">
         <v>0</v>
@@ -54886,7 +54886,7 @@
         <v>605</v>
       </c>
       <c r="B582" s="1" t="str" cm="1">
-        <f t="array" ref="B582">_xlfn.TEXTJOIN(", ", TRUE, IF(C582:AC582=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B582">_xlfn.TEXTJOIN(", ", TRUE, IF(C582:AC582=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C582" s="1">
@@ -54976,7 +54976,7 @@
         <v>606</v>
       </c>
       <c r="B583" s="1" t="str" cm="1">
-        <f t="array" ref="B583">_xlfn.TEXTJOIN(", ", TRUE, IF(C583:AC583=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B583">_xlfn.TEXTJOIN(", ", TRUE, IF(C583:AC583=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C583" s="1">
@@ -55066,7 +55066,7 @@
         <v>607</v>
       </c>
       <c r="B584" s="1" t="str" cm="1">
-        <f t="array" ref="B584">_xlfn.TEXTJOIN(", ", TRUE, IF(C584:AC584=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B584">_xlfn.TEXTJOIN(", ", TRUE, IF(C584:AC584=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C584" s="1">
@@ -55156,7 +55156,7 @@
         <v>608</v>
       </c>
       <c r="B585" s="1" t="str" cm="1">
-        <f t="array" ref="B585">_xlfn.TEXTJOIN(", ", TRUE, IF(C585:AC585=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B585">_xlfn.TEXTJOIN(", ", TRUE, IF(C585:AC585=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C585" s="1">
@@ -55246,14 +55246,14 @@
         <v>609</v>
       </c>
       <c r="B586" s="1" t="str" cm="1">
-        <f t="array" ref="B586">_xlfn.TEXTJOIN(", ", TRUE, IF(C586:AC586=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B586">_xlfn.TEXTJOIN(", ", TRUE, IF(C586:AC586=1, C$1:AC$1, ""))</f>
+        <v>zero-copula</v>
       </c>
       <c r="C586" s="1">
         <v>0</v>
       </c>
       <c r="D586" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E586" s="1">
         <v>0</v>
@@ -55336,7 +55336,7 @@
         <v>610</v>
       </c>
       <c r="B587" s="1" t="str" cm="1">
-        <f t="array" ref="B587">_xlfn.TEXTJOIN(", ", TRUE, IF(C587:AC587=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B587">_xlfn.TEXTJOIN(", ", TRUE, IF(C587:AC587=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C587" s="1">
@@ -55426,7 +55426,7 @@
         <v>611</v>
       </c>
       <c r="B588" s="1" t="str" cm="1">
-        <f t="array" ref="B588">_xlfn.TEXTJOIN(", ", TRUE, IF(C588:AC588=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B588">_xlfn.TEXTJOIN(", ", TRUE, IF(C588:AC588=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C588" s="1">
@@ -55516,7 +55516,7 @@
         <v>612</v>
       </c>
       <c r="B589" s="1" t="str" cm="1">
-        <f t="array" ref="B589">_xlfn.TEXTJOIN(", ", TRUE, IF(C589:AC589=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B589">_xlfn.TEXTJOIN(", ", TRUE, IF(C589:AC589=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C589" s="1">
@@ -55606,7 +55606,7 @@
         <v>613</v>
       </c>
       <c r="B590" s="1" t="str" cm="1">
-        <f t="array" ref="B590">_xlfn.TEXTJOIN(", ", TRUE, IF(C590:AC590=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B590">_xlfn.TEXTJOIN(", ", TRUE, IF(C590:AC590=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C590" s="1">
@@ -55696,7 +55696,7 @@
         <v>614</v>
       </c>
       <c r="B591" s="1" t="str" cm="1">
-        <f t="array" ref="B591">_xlfn.TEXTJOIN(", ", TRUE, IF(C591:AC591=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B591">_xlfn.TEXTJOIN(", ", TRUE, IF(C591:AC591=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C591" s="1">
@@ -55786,7 +55786,7 @@
         <v>615</v>
       </c>
       <c r="B592" s="1" t="str" cm="1">
-        <f t="array" ref="B592">_xlfn.TEXTJOIN(", ", TRUE, IF(C592:AC592=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B592">_xlfn.TEXTJOIN(", ", TRUE, IF(C592:AC592=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C592" s="1">
@@ -55876,7 +55876,7 @@
         <v>616</v>
       </c>
       <c r="B593" s="1" t="str" cm="1">
-        <f t="array" ref="B593">_xlfn.TEXTJOIN(", ", TRUE, IF(C593:AC593=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B593">_xlfn.TEXTJOIN(", ", TRUE, IF(C593:AC593=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C593" s="1">
@@ -55966,7 +55966,7 @@
         <v>617</v>
       </c>
       <c r="B594" s="1" t="str" cm="1">
-        <f t="array" ref="B594">_xlfn.TEXTJOIN(", ", TRUE, IF(C594:AC594=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B594">_xlfn.TEXTJOIN(", ", TRUE, IF(C594:AC594=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C594" s="1">
@@ -56056,7 +56056,7 @@
         <v>618</v>
       </c>
       <c r="B595" s="1" t="str" cm="1">
-        <f t="array" ref="B595">_xlfn.TEXTJOIN(", ", TRUE, IF(C595:AC595=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B595">_xlfn.TEXTJOIN(", ", TRUE, IF(C595:AC595=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C595" s="1">
@@ -56146,7 +56146,7 @@
         <v>619</v>
       </c>
       <c r="B596" s="1" t="str" cm="1">
-        <f t="array" ref="B596">_xlfn.TEXTJOIN(", ", TRUE, IF(C596:AC596=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B596">_xlfn.TEXTJOIN(", ", TRUE, IF(C596:AC596=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C596" s="1">
@@ -56236,7 +56236,7 @@
         <v>620</v>
       </c>
       <c r="B597" s="1" t="str" cm="1">
-        <f t="array" ref="B597">_xlfn.TEXTJOIN(", ", TRUE, IF(C597:AC597=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B597">_xlfn.TEXTJOIN(", ", TRUE, IF(C597:AC597=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C597" s="1">
@@ -56326,7 +56326,7 @@
         <v>621</v>
       </c>
       <c r="B598" s="1" t="str" cm="1">
-        <f t="array" ref="B598">_xlfn.TEXTJOIN(", ", TRUE, IF(C598:AC598=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B598">_xlfn.TEXTJOIN(", ", TRUE, IF(C598:AC598=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C598" s="1">
@@ -56416,7 +56416,7 @@
         <v>622</v>
       </c>
       <c r="B599" s="1" t="str" cm="1">
-        <f t="array" ref="B599">_xlfn.TEXTJOIN(", ", TRUE, IF(C599:AC599=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B599">_xlfn.TEXTJOIN(", ", TRUE, IF(C599:AC599=1, C$1:AC$1, ""))</f>
         <v>existential-it</v>
       </c>
       <c r="C599" s="1">
@@ -56506,7 +56506,7 @@
         <v>623</v>
       </c>
       <c r="B600" s="1" t="str" cm="1">
-        <f t="array" ref="B600">_xlfn.TEXTJOIN(", ", TRUE, IF(C600:AC600=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B600">_xlfn.TEXTJOIN(", ", TRUE, IF(C600:AC600=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C600" s="1">
@@ -56596,7 +56596,7 @@
         <v>624</v>
       </c>
       <c r="B601" s="1" t="str" cm="1">
-        <f t="array" ref="B601">_xlfn.TEXTJOIN(", ", TRUE, IF(C601:AC601=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B601">_xlfn.TEXTJOIN(", ", TRUE, IF(C601:AC601=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C601" s="1">
@@ -56686,7 +56686,7 @@
         <v>625</v>
       </c>
       <c r="B602" s="1" t="str" cm="1">
-        <f t="array" ref="B602">_xlfn.TEXTJOIN(", ", TRUE, IF(C602:AC602=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B602">_xlfn.TEXTJOIN(", ", TRUE, IF(C602:AC602=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C602" s="1">
@@ -56776,7 +56776,7 @@
         <v>626</v>
       </c>
       <c r="B603" s="1" t="str" cm="1">
-        <f t="array" ref="B603">_xlfn.TEXTJOIN(", ", TRUE, IF(C603:AC603=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B603">_xlfn.TEXTJOIN(", ", TRUE, IF(C603:AC603=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C603" s="1">
@@ -56866,7 +56866,7 @@
         <v>627</v>
       </c>
       <c r="B604" s="1" t="str" cm="1">
-        <f t="array" ref="B604">_xlfn.TEXTJOIN(", ", TRUE, IF(C604:AC604=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B604">_xlfn.TEXTJOIN(", ", TRUE, IF(C604:AC604=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C604" s="1">
@@ -56956,7 +56956,7 @@
         <v>628</v>
       </c>
       <c r="B605" s="1" t="str" cm="1">
-        <f t="array" ref="B605">_xlfn.TEXTJOIN(", ", TRUE, IF(C605:AC605=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B605">_xlfn.TEXTJOIN(", ", TRUE, IF(C605:AC605=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C605" s="1">
@@ -57046,7 +57046,7 @@
         <v>629</v>
       </c>
       <c r="B606" s="1" t="str" cm="1">
-        <f t="array" ref="B606">_xlfn.TEXTJOIN(", ", TRUE, IF(C606:AC606=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B606">_xlfn.TEXTJOIN(", ", TRUE, IF(C606:AC606=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C606" s="1">
@@ -57136,7 +57136,7 @@
         <v>630</v>
       </c>
       <c r="B607" s="1" t="str" cm="1">
-        <f t="array" ref="B607">_xlfn.TEXTJOIN(", ", TRUE, IF(C607:AC607=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B607">_xlfn.TEXTJOIN(", ", TRUE, IF(C607:AC607=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C607" s="1">
@@ -57226,7 +57226,7 @@
         <v>631</v>
       </c>
       <c r="B608" s="1" t="str" cm="1">
-        <f t="array" ref="B608">_xlfn.TEXTJOIN(", ", TRUE, IF(C608:AC608=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B608">_xlfn.TEXTJOIN(", ", TRUE, IF(C608:AC608=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C608" s="1">
@@ -57316,7 +57316,7 @@
         <v>632</v>
       </c>
       <c r="B609" s="1" t="str" cm="1">
-        <f t="array" ref="B609">_xlfn.TEXTJOIN(", ", TRUE, IF(C609:AC609=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B609">_xlfn.TEXTJOIN(", ", TRUE, IF(C609:AC609=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C609" s="1">
@@ -57406,7 +57406,7 @@
         <v>633</v>
       </c>
       <c r="B610" s="1" t="str" cm="1">
-        <f t="array" ref="B610">_xlfn.TEXTJOIN(", ", TRUE, IF(C610:AC610=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B610">_xlfn.TEXTJOIN(", ", TRUE, IF(C610:AC610=1, C$1:AC$1, ""))</f>
         <v>existential-it</v>
       </c>
       <c r="C610" s="1">
@@ -57496,7 +57496,7 @@
         <v>634</v>
       </c>
       <c r="B611" s="1" t="str" cm="1">
-        <f t="array" ref="B611">_xlfn.TEXTJOIN(", ", TRUE, IF(C611:AC611=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B611">_xlfn.TEXTJOIN(", ", TRUE, IF(C611:AC611=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C611" s="1">
@@ -57586,7 +57586,7 @@
         <v>635</v>
       </c>
       <c r="B612" s="1" t="str" cm="1">
-        <f t="array" ref="B612">_xlfn.TEXTJOIN(", ", TRUE, IF(C612:AC612=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B612">_xlfn.TEXTJOIN(", ", TRUE, IF(C612:AC612=1, C$1:AC$1, ""))</f>
         <v>existential-it</v>
       </c>
       <c r="C612" s="1">
@@ -57676,7 +57676,7 @@
         <v>636</v>
       </c>
       <c r="B613" s="1" t="str" cm="1">
-        <f t="array" ref="B613">_xlfn.TEXTJOIN(", ", TRUE, IF(C613:AC613=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B613">_xlfn.TEXTJOIN(", ", TRUE, IF(C613:AC613=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C613" s="1">
@@ -57766,7 +57766,7 @@
         <v>637</v>
       </c>
       <c r="B614" s="1" t="str" cm="1">
-        <f t="array" ref="B614">_xlfn.TEXTJOIN(", ", TRUE, IF(C614:AC614=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B614">_xlfn.TEXTJOIN(", ", TRUE, IF(C614:AC614=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C614" s="1">
@@ -57856,7 +57856,7 @@
         <v>638</v>
       </c>
       <c r="B615" s="1" t="str" cm="1">
-        <f t="array" ref="B615">_xlfn.TEXTJOIN(", ", TRUE, IF(C615:AC615=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B615">_xlfn.TEXTJOIN(", ", TRUE, IF(C615:AC615=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C615" s="1">
@@ -57946,7 +57946,7 @@
         <v>639</v>
       </c>
       <c r="B616" s="1" t="str" cm="1">
-        <f t="array" ref="B616">_xlfn.TEXTJOIN(", ", TRUE, IF(C616:AC616=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B616">_xlfn.TEXTJOIN(", ", TRUE, IF(C616:AC616=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C616" s="1">
@@ -58036,7 +58036,7 @@
         <v>640</v>
       </c>
       <c r="B617" s="1" t="str" cm="1">
-        <f t="array" ref="B617">_xlfn.TEXTJOIN(", ", TRUE, IF(C617:AC617=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B617">_xlfn.TEXTJOIN(", ", TRUE, IF(C617:AC617=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C617" s="1">
@@ -58126,8 +58126,8 @@
         <v>641</v>
       </c>
       <c r="B618" s="1" t="str" cm="1">
-        <f t="array" ref="B618">_xlfn.TEXTJOIN(", ", TRUE, IF(C618:AC618=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B618">_xlfn.TEXTJOIN(", ", TRUE, IF(C618:AC618=1, C$1:AC$1, ""))</f>
+        <v>past-tense-swap</v>
       </c>
       <c r="C618" s="1">
         <v>0</v>
@@ -58199,7 +58199,7 @@
         <v>0</v>
       </c>
       <c r="Z618" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA618" s="1">
         <v>0</v>
@@ -58216,7 +58216,7 @@
         <v>642</v>
       </c>
       <c r="B619" s="1" t="str" cm="1">
-        <f t="array" ref="B619">_xlfn.TEXTJOIN(", ", TRUE, IF(C619:AC619=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B619">_xlfn.TEXTJOIN(", ", TRUE, IF(C619:AC619=1, C$1:AC$1, ""))</f>
         <v>aint</v>
       </c>
       <c r="C619" s="1">
@@ -58306,7 +58306,7 @@
         <v>643</v>
       </c>
       <c r="B620" s="1" t="str" cm="1">
-        <f t="array" ref="B620">_xlfn.TEXTJOIN(", ", TRUE, IF(C620:AC620=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B620">_xlfn.TEXTJOIN(", ", TRUE, IF(C620:AC620=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C620" s="1">
@@ -58396,7 +58396,7 @@
         <v>644</v>
       </c>
       <c r="B621" s="1" t="str" cm="1">
-        <f t="array" ref="B621">_xlfn.TEXTJOIN(", ", TRUE, IF(C621:AC621=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B621">_xlfn.TEXTJOIN(", ", TRUE, IF(C621:AC621=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C621" s="1">
@@ -58486,8 +58486,8 @@
         <v>645</v>
       </c>
       <c r="B622" s="1" t="str" cm="1">
-        <f t="array" ref="B622">_xlfn.TEXTJOIN(", ", TRUE, IF(C622:AC622=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B622">_xlfn.TEXTJOIN(", ", TRUE, IF(C622:AC622=1, C$1:AC$1, ""))</f>
+        <v>is-was-gen</v>
       </c>
       <c r="C622" s="1">
         <v>0</v>
@@ -58529,7 +58529,7 @@
         <v>0</v>
       </c>
       <c r="P622" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q622" s="1">
         <v>0</v>
@@ -58576,7 +58576,7 @@
         <v>646</v>
       </c>
       <c r="B623" s="1" t="str" cm="1">
-        <f t="array" ref="B623">_xlfn.TEXTJOIN(", ", TRUE, IF(C623:AC623=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B623">_xlfn.TEXTJOIN(", ", TRUE, IF(C623:AC623=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C623" s="1">
@@ -58666,7 +58666,7 @@
         <v>647</v>
       </c>
       <c r="B624" s="1" t="str" cm="1">
-        <f t="array" ref="B624">_xlfn.TEXTJOIN(", ", TRUE, IF(C624:AC624=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B624">_xlfn.TEXTJOIN(", ", TRUE, IF(C624:AC624=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C624" s="1">
@@ -58756,7 +58756,7 @@
         <v>648</v>
       </c>
       <c r="B625" s="1" t="str" cm="1">
-        <f t="array" ref="B625">_xlfn.TEXTJOIN(", ", TRUE, IF(C625:AC625=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B625">_xlfn.TEXTJOIN(", ", TRUE, IF(C625:AC625=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C625" s="1">
@@ -58846,7 +58846,7 @@
         <v>649</v>
       </c>
       <c r="B626" s="1" t="str" cm="1">
-        <f t="array" ref="B626">_xlfn.TEXTJOIN(", ", TRUE, IF(C626:AC626=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B626">_xlfn.TEXTJOIN(", ", TRUE, IF(C626:AC626=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C626" s="1">
@@ -58936,7 +58936,7 @@
         <v>650</v>
       </c>
       <c r="B627" s="1" t="str" cm="1">
-        <f t="array" ref="B627">_xlfn.TEXTJOIN(", ", TRUE, IF(C627:AC627=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B627">_xlfn.TEXTJOIN(", ", TRUE, IF(C627:AC627=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C627" s="1">
@@ -59026,7 +59026,7 @@
         <v>651</v>
       </c>
       <c r="B628" s="1" t="str" cm="1">
-        <f t="array" ref="B628">_xlfn.TEXTJOIN(", ", TRUE, IF(C628:AC628=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B628">_xlfn.TEXTJOIN(", ", TRUE, IF(C628:AC628=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C628" s="1">
@@ -59116,7 +59116,7 @@
         <v>652</v>
       </c>
       <c r="B629" s="1" t="str" cm="1">
-        <f t="array" ref="B629">_xlfn.TEXTJOIN(", ", TRUE, IF(C629:AC629=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B629">_xlfn.TEXTJOIN(", ", TRUE, IF(C629:AC629=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C629" s="1">
@@ -59206,7 +59206,7 @@
         <v>653</v>
       </c>
       <c r="B630" s="1" t="str" cm="1">
-        <f t="array" ref="B630">_xlfn.TEXTJOIN(", ", TRUE, IF(C630:AC630=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B630">_xlfn.TEXTJOIN(", ", TRUE, IF(C630:AC630=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C630" s="1">
@@ -59296,7 +59296,7 @@
         <v>654</v>
       </c>
       <c r="B631" s="1" t="str" cm="1">
-        <f t="array" ref="B631">_xlfn.TEXTJOIN(", ", TRUE, IF(C631:AC631=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B631">_xlfn.TEXTJOIN(", ", TRUE, IF(C631:AC631=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C631" s="1">
@@ -59386,7 +59386,7 @@
         <v>655</v>
       </c>
       <c r="B632" s="1" t="str" cm="1">
-        <f t="array" ref="B632">_xlfn.TEXTJOIN(", ", TRUE, IF(C632:AC632=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B632">_xlfn.TEXTJOIN(", ", TRUE, IF(C632:AC632=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C632" s="1">
@@ -59476,7 +59476,7 @@
         <v>656</v>
       </c>
       <c r="B633" s="1" t="str" cm="1">
-        <f t="array" ref="B633">_xlfn.TEXTJOIN(", ", TRUE, IF(C633:AC633=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B633">_xlfn.TEXTJOIN(", ", TRUE, IF(C633:AC633=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C633" s="1">
@@ -59566,7 +59566,7 @@
         <v>657</v>
       </c>
       <c r="B634" s="1" t="str" cm="1">
-        <f t="array" ref="B634">_xlfn.TEXTJOIN(", ", TRUE, IF(C634:AC634=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B634">_xlfn.TEXTJOIN(", ", TRUE, IF(C634:AC634=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C634" s="1">
@@ -59656,7 +59656,7 @@
         <v>658</v>
       </c>
       <c r="B635" s="1" t="str" cm="1">
-        <f t="array" ref="B635">_xlfn.TEXTJOIN(", ", TRUE, IF(C635:AC635=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B635">_xlfn.TEXTJOIN(", ", TRUE, IF(C635:AC635=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C635" s="1">
@@ -59746,7 +59746,7 @@
         <v>659</v>
       </c>
       <c r="B636" s="1" t="str" cm="1">
-        <f t="array" ref="B636">_xlfn.TEXTJOIN(", ", TRUE, IF(C636:AC636=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B636">_xlfn.TEXTJOIN(", ", TRUE, IF(C636:AC636=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C636" s="1">
@@ -59836,7 +59836,7 @@
         <v>660</v>
       </c>
       <c r="B637" s="1" t="str" cm="1">
-        <f t="array" ref="B637">_xlfn.TEXTJOIN(", ", TRUE, IF(C637:AC637=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B637">_xlfn.TEXTJOIN(", ", TRUE, IF(C637:AC637=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C637" s="1">
@@ -59926,7 +59926,7 @@
         <v>661</v>
       </c>
       <c r="B638" s="1" t="str" cm="1">
-        <f t="array" ref="B638">_xlfn.TEXTJOIN(", ", TRUE, IF(C638:AC638=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B638">_xlfn.TEXTJOIN(", ", TRUE, IF(C638:AC638=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C638" s="1">
@@ -60016,7 +60016,7 @@
         <v>662</v>
       </c>
       <c r="B639" s="1" t="str" cm="1">
-        <f t="array" ref="B639">_xlfn.TEXTJOIN(", ", TRUE, IF(C639:AC639=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B639">_xlfn.TEXTJOIN(", ", TRUE, IF(C639:AC639=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C639" s="1">
@@ -60106,7 +60106,7 @@
         <v>663</v>
       </c>
       <c r="B640" s="1" t="str" cm="1">
-        <f t="array" ref="B640">_xlfn.TEXTJOIN(", ", TRUE, IF(C640:AC640=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B640">_xlfn.TEXTJOIN(", ", TRUE, IF(C640:AC640=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C640" s="1">
@@ -60196,7 +60196,7 @@
         <v>664</v>
       </c>
       <c r="B641" s="1" t="str" cm="1">
-        <f t="array" ref="B641">_xlfn.TEXTJOIN(", ", TRUE, IF(C641:AC641=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B641">_xlfn.TEXTJOIN(", ", TRUE, IF(C641:AC641=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C641" s="1">
@@ -60286,7 +60286,7 @@
         <v>665</v>
       </c>
       <c r="B642" s="1" t="str" cm="1">
-        <f t="array" ref="B642">_xlfn.TEXTJOIN(", ", TRUE, IF(C642:AC642=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B642">_xlfn.TEXTJOIN(", ", TRUE, IF(C642:AC642=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C642" s="1">
@@ -60376,7 +60376,7 @@
         <v>666</v>
       </c>
       <c r="B643" s="1" t="str" cm="1">
-        <f t="array" ref="B643">_xlfn.TEXTJOIN(", ", TRUE, IF(C643:AC643=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B643">_xlfn.TEXTJOIN(", ", TRUE, IF(C643:AC643=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C643" s="1">
@@ -60466,7 +60466,7 @@
         <v>667</v>
       </c>
       <c r="B644" s="1" t="str" cm="1">
-        <f t="array" ref="B644">_xlfn.TEXTJOIN(", ", TRUE, IF(C644:AC644=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B644">_xlfn.TEXTJOIN(", ", TRUE, IF(C644:AC644=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C644" s="1">
@@ -60556,7 +60556,7 @@
         <v>668</v>
       </c>
       <c r="B645" s="1" t="str" cm="1">
-        <f t="array" ref="B645">_xlfn.TEXTJOIN(", ", TRUE, IF(C645:AC645=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B645">_xlfn.TEXTJOIN(", ", TRUE, IF(C645:AC645=1, C$1:AC$1, ""))</f>
         <v>existential-it</v>
       </c>
       <c r="C645" s="1">
@@ -60646,7 +60646,7 @@
         <v>669</v>
       </c>
       <c r="B646" s="1" t="str" cm="1">
-        <f t="array" ref="B646">_xlfn.TEXTJOIN(", ", TRUE, IF(C646:AC646=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B646">_xlfn.TEXTJOIN(", ", TRUE, IF(C646:AC646=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C646" s="1">
@@ -60736,7 +60736,7 @@
         <v>670</v>
       </c>
       <c r="B647" s="1" t="str" cm="1">
-        <f t="array" ref="B647">_xlfn.TEXTJOIN(", ", TRUE, IF(C647:AC647=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B647">_xlfn.TEXTJOIN(", ", TRUE, IF(C647:AC647=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C647" s="1">
@@ -60826,7 +60826,7 @@
         <v>671</v>
       </c>
       <c r="B648" s="1" t="str" cm="1">
-        <f t="array" ref="B648">_xlfn.TEXTJOIN(", ", TRUE, IF(C648:AC648=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B648">_xlfn.TEXTJOIN(", ", TRUE, IF(C648:AC648=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C648" s="1">
@@ -60916,7 +60916,7 @@
         <v>672</v>
       </c>
       <c r="B649" s="1" t="str" cm="1">
-        <f t="array" ref="B649">_xlfn.TEXTJOIN(", ", TRUE, IF(C649:AC649=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B649">_xlfn.TEXTJOIN(", ", TRUE, IF(C649:AC649=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C649" s="1">
@@ -61006,7 +61006,7 @@
         <v>673</v>
       </c>
       <c r="B650" s="1" t="str" cm="1">
-        <f t="array" ref="B650">_xlfn.TEXTJOIN(", ", TRUE, IF(C650:AC650=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B650">_xlfn.TEXTJOIN(", ", TRUE, IF(C650:AC650=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C650" s="1">
@@ -61096,7 +61096,7 @@
         <v>674</v>
       </c>
       <c r="B651" s="1" t="str" cm="1">
-        <f t="array" ref="B651">_xlfn.TEXTJOIN(", ", TRUE, IF(C651:AC651=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B651">_xlfn.TEXTJOIN(", ", TRUE, IF(C651:AC651=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C651" s="1">
@@ -61185,9 +61185,9 @@
       <c r="A652" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B652" s="1" t="e" cm="1">
-        <f t="array" ref="B652">_xlfn.TEXTJOIN(", ", TRUE, IF(C652:AC652=1, C$1:AB$1, ""))</f>
-        <v>#N/A</v>
+      <c r="B652" s="1" t="str" cm="1">
+        <f t="array" ref="B652">_xlfn.TEXTJOIN(", ", TRUE, IF(C652:AC652=1, C$1:AC$1, ""))</f>
+        <v>bare-got</v>
       </c>
       <c r="C652" s="1">
         <v>0</v>
@@ -61276,7 +61276,7 @@
         <v>676</v>
       </c>
       <c r="B653" s="1" t="str" cm="1">
-        <f t="array" ref="B653">_xlfn.TEXTJOIN(", ", TRUE, IF(C653:AC653=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B653">_xlfn.TEXTJOIN(", ", TRUE, IF(C653:AC653=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C653" s="1">
@@ -61366,7 +61366,7 @@
         <v>677</v>
       </c>
       <c r="B654" s="1" t="str" cm="1">
-        <f t="array" ref="B654">_xlfn.TEXTJOIN(", ", TRUE, IF(C654:AC654=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B654">_xlfn.TEXTJOIN(", ", TRUE, IF(C654:AC654=1, C$1:AC$1, ""))</f>
         <v>bin</v>
       </c>
       <c r="C654" s="1">
@@ -61456,7 +61456,7 @@
         <v>678</v>
       </c>
       <c r="B655" s="1" t="str" cm="1">
-        <f t="array" ref="B655">_xlfn.TEXTJOIN(", ", TRUE, IF(C655:AC655=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B655">_xlfn.TEXTJOIN(", ", TRUE, IF(C655:AC655=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C655" s="1">
@@ -61546,7 +61546,7 @@
         <v>679</v>
       </c>
       <c r="B656" s="1" t="str" cm="1">
-        <f t="array" ref="B656">_xlfn.TEXTJOIN(", ", TRUE, IF(C656:AC656=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B656">_xlfn.TEXTJOIN(", ", TRUE, IF(C656:AC656=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C656" s="1">
@@ -61636,7 +61636,7 @@
         <v>680</v>
       </c>
       <c r="B657" s="1" t="str" cm="1">
-        <f t="array" ref="B657">_xlfn.TEXTJOIN(", ", TRUE, IF(C657:AC657=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B657">_xlfn.TEXTJOIN(", ", TRUE, IF(C657:AC657=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C657" s="1">
@@ -61726,8 +61726,8 @@
         <v>681</v>
       </c>
       <c r="B658" s="1" t="str" cm="1">
-        <f t="array" ref="B658">_xlfn.TEXTJOIN(", ", TRUE, IF(C658:AC658=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B658">_xlfn.TEXTJOIN(", ", TRUE, IF(C658:AC658=1, C$1:AC$1, ""))</f>
+        <v>multiple-neg</v>
       </c>
       <c r="C658" s="1">
         <v>0</v>
@@ -61754,7 +61754,7 @@
         <v>0</v>
       </c>
       <c r="K658" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L658" s="1">
         <v>0</v>
@@ -61816,7 +61816,7 @@
         <v>682</v>
       </c>
       <c r="B659" s="1" t="str" cm="1">
-        <f t="array" ref="B659">_xlfn.TEXTJOIN(", ", TRUE, IF(C659:AC659=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B659">_xlfn.TEXTJOIN(", ", TRUE, IF(C659:AC659=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C659" s="1">
@@ -61906,7 +61906,7 @@
         <v>683</v>
       </c>
       <c r="B660" s="1" t="str" cm="1">
-        <f t="array" ref="B660">_xlfn.TEXTJOIN(", ", TRUE, IF(C660:AC660=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B660">_xlfn.TEXTJOIN(", ", TRUE, IF(C660:AC660=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C660" s="1">
@@ -61996,7 +61996,7 @@
         <v>684</v>
       </c>
       <c r="B661" s="1" t="str" cm="1">
-        <f t="array" ref="B661">_xlfn.TEXTJOIN(", ", TRUE, IF(C661:AC661=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B661">_xlfn.TEXTJOIN(", ", TRUE, IF(C661:AC661=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C661" s="1">
@@ -62086,7 +62086,7 @@
         <v>685</v>
       </c>
       <c r="B662" s="1" t="str" cm="1">
-        <f t="array" ref="B662">_xlfn.TEXTJOIN(", ", TRUE, IF(C662:AC662=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B662">_xlfn.TEXTJOIN(", ", TRUE, IF(C662:AC662=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C662" s="1">
@@ -62176,7 +62176,7 @@
         <v>686</v>
       </c>
       <c r="B663" s="1" t="str" cm="1">
-        <f t="array" ref="B663">_xlfn.TEXTJOIN(", ", TRUE, IF(C663:AC663=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B663">_xlfn.TEXTJOIN(", ", TRUE, IF(C663:AC663=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C663" s="1">
@@ -62266,7 +62266,7 @@
         <v>687</v>
       </c>
       <c r="B664" s="1" t="str" cm="1">
-        <f t="array" ref="B664">_xlfn.TEXTJOIN(", ", TRUE, IF(C664:AC664=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B664">_xlfn.TEXTJOIN(", ", TRUE, IF(C664:AC664=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C664" s="1">
@@ -62356,7 +62356,7 @@
         <v>688</v>
       </c>
       <c r="B665" s="1" t="str" cm="1">
-        <f t="array" ref="B665">_xlfn.TEXTJOIN(", ", TRUE, IF(C665:AC665=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B665">_xlfn.TEXTJOIN(", ", TRUE, IF(C665:AC665=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C665" s="1">
@@ -62446,7 +62446,7 @@
         <v>689</v>
       </c>
       <c r="B666" s="1" t="str" cm="1">
-        <f t="array" ref="B666">_xlfn.TEXTJOIN(", ", TRUE, IF(C666:AC666=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B666">_xlfn.TEXTJOIN(", ", TRUE, IF(C666:AC666=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C666" s="1">
@@ -62536,7 +62536,7 @@
         <v>690</v>
       </c>
       <c r="B667" s="1" t="str" cm="1">
-        <f t="array" ref="B667">_xlfn.TEXTJOIN(", ", TRUE, IF(C667:AC667=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B667">_xlfn.TEXTJOIN(", ", TRUE, IF(C667:AC667=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C667" s="1">
@@ -62626,7 +62626,7 @@
         <v>691</v>
       </c>
       <c r="B668" s="1" t="str" cm="1">
-        <f t="array" ref="B668">_xlfn.TEXTJOIN(", ", TRUE, IF(C668:AC668=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B668">_xlfn.TEXTJOIN(", ", TRUE, IF(C668:AC668=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C668" s="1">
@@ -62716,8 +62716,8 @@
         <v>692</v>
       </c>
       <c r="B669" s="1" t="str" cm="1">
-        <f t="array" ref="B669">_xlfn.TEXTJOIN(", ", TRUE, IF(C669:AC669=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B669">_xlfn.TEXTJOIN(", ", TRUE, IF(C669:AC669=1, C$1:AC$1, ""))</f>
+        <v>multiple-neg</v>
       </c>
       <c r="C669" s="1">
         <v>0</v>
@@ -62744,7 +62744,7 @@
         <v>0</v>
       </c>
       <c r="K669" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L669" s="1">
         <v>0</v>
@@ -62806,7 +62806,7 @@
         <v>693</v>
       </c>
       <c r="B670" s="1" t="str" cm="1">
-        <f t="array" ref="B670">_xlfn.TEXTJOIN(", ", TRUE, IF(C670:AC670=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B670">_xlfn.TEXTJOIN(", ", TRUE, IF(C670:AC670=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C670" s="1">
@@ -62896,7 +62896,7 @@
         <v>694</v>
       </c>
       <c r="B671" s="1" t="str" cm="1">
-        <f t="array" ref="B671">_xlfn.TEXTJOIN(", ", TRUE, IF(C671:AC671=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B671">_xlfn.TEXTJOIN(", ", TRUE, IF(C671:AC671=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C671" s="1">
@@ -62986,7 +62986,7 @@
         <v>695</v>
       </c>
       <c r="B672" s="1" t="str" cm="1">
-        <f t="array" ref="B672">_xlfn.TEXTJOIN(", ", TRUE, IF(C672:AC672=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B672">_xlfn.TEXTJOIN(", ", TRUE, IF(C672:AC672=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C672" s="1">
@@ -63076,7 +63076,7 @@
         <v>696</v>
       </c>
       <c r="B673" s="1" t="str" cm="1">
-        <f t="array" ref="B673">_xlfn.TEXTJOIN(", ", TRUE, IF(C673:AC673=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B673">_xlfn.TEXTJOIN(", ", TRUE, IF(C673:AC673=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C673" s="1">
@@ -63166,7 +63166,7 @@
         <v>697</v>
       </c>
       <c r="B674" s="1" t="str" cm="1">
-        <f t="array" ref="B674">_xlfn.TEXTJOIN(", ", TRUE, IF(C674:AC674=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B674">_xlfn.TEXTJOIN(", ", TRUE, IF(C674:AC674=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C674" s="1">
@@ -63256,7 +63256,7 @@
         <v>698</v>
       </c>
       <c r="B675" s="1" t="str" cm="1">
-        <f t="array" ref="B675">_xlfn.TEXTJOIN(", ", TRUE, IF(C675:AC675=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B675">_xlfn.TEXTJOIN(", ", TRUE, IF(C675:AC675=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C675" s="1">
@@ -63346,7 +63346,7 @@
         <v>699</v>
       </c>
       <c r="B676" s="1" t="str" cm="1">
-        <f t="array" ref="B676">_xlfn.TEXTJOIN(", ", TRUE, IF(C676:AC676=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B676">_xlfn.TEXTJOIN(", ", TRUE, IF(C676:AC676=1, C$1:AC$1, ""))</f>
         <v>existential-it, bin</v>
       </c>
       <c r="C676" s="1">
@@ -63436,7 +63436,7 @@
         <v>700</v>
       </c>
       <c r="B677" s="1" t="str" cm="1">
-        <f t="array" ref="B677">_xlfn.TEXTJOIN(", ", TRUE, IF(C677:AC677=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B677">_xlfn.TEXTJOIN(", ", TRUE, IF(C677:AC677=1, C$1:AC$1, ""))</f>
         <v>zero-poss</v>
       </c>
       <c r="C677" s="1">
@@ -63526,7 +63526,7 @@
         <v>701</v>
       </c>
       <c r="B678" s="1" t="str" cm="1">
-        <f t="array" ref="B678">_xlfn.TEXTJOIN(", ", TRUE, IF(C678:AC678=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B678">_xlfn.TEXTJOIN(", ", TRUE, IF(C678:AC678=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C678" s="1">
@@ -63616,7 +63616,7 @@
         <v>702</v>
       </c>
       <c r="B679" s="1" t="str" cm="1">
-        <f t="array" ref="B679">_xlfn.TEXTJOIN(", ", TRUE, IF(C679:AC679=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B679">_xlfn.TEXTJOIN(", ", TRUE, IF(C679:AC679=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C679" s="1">
@@ -63706,7 +63706,7 @@
         <v>703</v>
       </c>
       <c r="B680" s="1" t="str" cm="1">
-        <f t="array" ref="B680">_xlfn.TEXTJOIN(", ", TRUE, IF(C680:AC680=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B680">_xlfn.TEXTJOIN(", ", TRUE, IF(C680:AC680=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C680" s="1">
@@ -63796,7 +63796,7 @@
         <v>704</v>
       </c>
       <c r="B681" s="1" t="str" cm="1">
-        <f t="array" ref="B681">_xlfn.TEXTJOIN(", ", TRUE, IF(C681:AC681=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B681">_xlfn.TEXTJOIN(", ", TRUE, IF(C681:AC681=1, C$1:AC$1, ""))</f>
         <v>bin</v>
       </c>
       <c r="C681" s="1">
@@ -63886,7 +63886,7 @@
         <v>705</v>
       </c>
       <c r="B682" s="1" t="str" cm="1">
-        <f t="array" ref="B682">_xlfn.TEXTJOIN(", ", TRUE, IF(C682:AC682=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B682">_xlfn.TEXTJOIN(", ", TRUE, IF(C682:AC682=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C682" s="1">
@@ -63976,7 +63976,7 @@
         <v>706</v>
       </c>
       <c r="B683" s="1" t="str" cm="1">
-        <f t="array" ref="B683">_xlfn.TEXTJOIN(", ", TRUE, IF(C683:AC683=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B683">_xlfn.TEXTJOIN(", ", TRUE, IF(C683:AC683=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C683" s="1">
@@ -64066,7 +64066,7 @@
         <v>707</v>
       </c>
       <c r="B684" s="1" t="str" cm="1">
-        <f t="array" ref="B684">_xlfn.TEXTJOIN(", ", TRUE, IF(C684:AC684=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B684">_xlfn.TEXTJOIN(", ", TRUE, IF(C684:AC684=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C684" s="1">
@@ -64156,7 +64156,7 @@
         <v>708</v>
       </c>
       <c r="B685" s="1" t="str" cm="1">
-        <f t="array" ref="B685">_xlfn.TEXTJOIN(", ", TRUE, IF(C685:AC685=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B685">_xlfn.TEXTJOIN(", ", TRUE, IF(C685:AC685=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C685" s="1">
@@ -64246,7 +64246,7 @@
         <v>709</v>
       </c>
       <c r="B686" s="1" t="str" cm="1">
-        <f t="array" ref="B686">_xlfn.TEXTJOIN(", ", TRUE, IF(C686:AC686=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B686">_xlfn.TEXTJOIN(", ", TRUE, IF(C686:AC686=1, C$1:AC$1, ""))</f>
         <v>is-was-gen</v>
       </c>
       <c r="C686" s="1">
@@ -64336,7 +64336,7 @@
         <v>710</v>
       </c>
       <c r="B687" s="1" t="str" cm="1">
-        <f t="array" ref="B687">_xlfn.TEXTJOIN(", ", TRUE, IF(C687:AC687=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B687">_xlfn.TEXTJOIN(", ", TRUE, IF(C687:AC687=1, C$1:AC$1, ""))</f>
         <v>existential-it</v>
       </c>
       <c r="C687" s="1">
@@ -64426,7 +64426,7 @@
         <v>711</v>
       </c>
       <c r="B688" s="1" t="str" cm="1">
-        <f t="array" ref="B688">_xlfn.TEXTJOIN(", ", TRUE, IF(C688:AC688=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B688">_xlfn.TEXTJOIN(", ", TRUE, IF(C688:AC688=1, C$1:AC$1, ""))</f>
         <v>verb-stem</v>
       </c>
       <c r="C688" s="1">
@@ -64516,7 +64516,7 @@
         <v>712</v>
       </c>
       <c r="B689" s="1" t="str" cm="1">
-        <f t="array" ref="B689">_xlfn.TEXTJOIN(", ", TRUE, IF(C689:AC689=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B689">_xlfn.TEXTJOIN(", ", TRUE, IF(C689:AC689=1, C$1:AC$1, ""))</f>
         <v>verb-stem</v>
       </c>
       <c r="C689" s="1">
@@ -64606,7 +64606,7 @@
         <v>713</v>
       </c>
       <c r="B690" s="1" t="str" cm="1">
-        <f t="array" ref="B690">_xlfn.TEXTJOIN(", ", TRUE, IF(C690:AC690=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B690">_xlfn.TEXTJOIN(", ", TRUE, IF(C690:AC690=1, C$1:AC$1, ""))</f>
         <v>is-was-gen</v>
       </c>
       <c r="C690" s="1">
@@ -64696,7 +64696,7 @@
         <v>714</v>
       </c>
       <c r="B691" s="1" t="str" cm="1">
-        <f t="array" ref="B691">_xlfn.TEXTJOIN(", ", TRUE, IF(C691:AC691=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B691">_xlfn.TEXTJOIN(", ", TRUE, IF(C691:AC691=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C691" s="1">
@@ -64786,7 +64786,7 @@
         <v>715</v>
       </c>
       <c r="B692" s="1" t="str" cm="1">
-        <f t="array" ref="B692">_xlfn.TEXTJOIN(", ", TRUE, IF(C692:AC692=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B692">_xlfn.TEXTJOIN(", ", TRUE, IF(C692:AC692=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C692" s="1">
@@ -64876,7 +64876,7 @@
         <v>716</v>
       </c>
       <c r="B693" s="1" t="str" cm="1">
-        <f t="array" ref="B693">_xlfn.TEXTJOIN(", ", TRUE, IF(C693:AC693=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B693">_xlfn.TEXTJOIN(", ", TRUE, IF(C693:AC693=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C693" s="1">
@@ -64966,7 +64966,7 @@
         <v>717</v>
       </c>
       <c r="B694" s="1" t="str" cm="1">
-        <f t="array" ref="B694">_xlfn.TEXTJOIN(", ", TRUE, IF(C694:AC694=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B694">_xlfn.TEXTJOIN(", ", TRUE, IF(C694:AC694=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C694" s="1">
@@ -65056,7 +65056,7 @@
         <v>718</v>
       </c>
       <c r="B695" s="1" t="str" cm="1">
-        <f t="array" ref="B695">_xlfn.TEXTJOIN(", ", TRUE, IF(C695:AC695=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B695">_xlfn.TEXTJOIN(", ", TRUE, IF(C695:AC695=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C695" s="1">
@@ -65146,7 +65146,7 @@
         <v>719</v>
       </c>
       <c r="B696" s="1" t="str" cm="1">
-        <f t="array" ref="B696">_xlfn.TEXTJOIN(", ", TRUE, IF(C696:AC696=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B696">_xlfn.TEXTJOIN(", ", TRUE, IF(C696:AC696=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C696" s="1">
@@ -65236,7 +65236,7 @@
         <v>720</v>
       </c>
       <c r="B697" s="1" t="str" cm="1">
-        <f t="array" ref="B697">_xlfn.TEXTJOIN(", ", TRUE, IF(C697:AC697=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B697">_xlfn.TEXTJOIN(", ", TRUE, IF(C697:AC697=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C697" s="1">
@@ -65326,7 +65326,7 @@
         <v>721</v>
       </c>
       <c r="B698" s="1" t="str" cm="1">
-        <f t="array" ref="B698">_xlfn.TEXTJOIN(", ", TRUE, IF(C698:AC698=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B698">_xlfn.TEXTJOIN(", ", TRUE, IF(C698:AC698=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C698" s="1">
@@ -65416,7 +65416,7 @@
         <v>722</v>
       </c>
       <c r="B699" s="1" t="str" cm="1">
-        <f t="array" ref="B699">_xlfn.TEXTJOIN(", ", TRUE, IF(C699:AC699=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B699">_xlfn.TEXTJOIN(", ", TRUE, IF(C699:AC699=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C699" s="1">
@@ -65506,7 +65506,7 @@
         <v>723</v>
       </c>
       <c r="B700" s="1" t="str" cm="1">
-        <f t="array" ref="B700">_xlfn.TEXTJOIN(", ", TRUE, IF(C700:AC700=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B700">_xlfn.TEXTJOIN(", ", TRUE, IF(C700:AC700=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C700" s="1">
@@ -65596,7 +65596,7 @@
         <v>724</v>
       </c>
       <c r="B701" s="1" t="str" cm="1">
-        <f t="array" ref="B701">_xlfn.TEXTJOIN(", ", TRUE, IF(C701:AC701=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B701">_xlfn.TEXTJOIN(", ", TRUE, IF(C701:AC701=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C701" s="1">
@@ -65686,7 +65686,7 @@
         <v>725</v>
       </c>
       <c r="B702" s="1" t="str" cm="1">
-        <f t="array" ref="B702">_xlfn.TEXTJOIN(", ", TRUE, IF(C702:AC702=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B702">_xlfn.TEXTJOIN(", ", TRUE, IF(C702:AC702=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C702" s="1">
@@ -65776,7 +65776,7 @@
         <v>726</v>
       </c>
       <c r="B703" s="1" t="str" cm="1">
-        <f t="array" ref="B703">_xlfn.TEXTJOIN(", ", TRUE, IF(C703:AC703=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B703">_xlfn.TEXTJOIN(", ", TRUE, IF(C703:AC703=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C703" s="1">
@@ -65866,7 +65866,7 @@
         <v>727</v>
       </c>
       <c r="B704" s="1" t="str" cm="1">
-        <f t="array" ref="B704">_xlfn.TEXTJOIN(", ", TRUE, IF(C704:AC704=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B704">_xlfn.TEXTJOIN(", ", TRUE, IF(C704:AC704=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C704" s="1">
@@ -65956,7 +65956,7 @@
         <v>728</v>
       </c>
       <c r="B705" s="1" t="str" cm="1">
-        <f t="array" ref="B705">_xlfn.TEXTJOIN(", ", TRUE, IF(C705:AC705=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B705">_xlfn.TEXTJOIN(", ", TRUE, IF(C705:AC705=1, C$1:AC$1, ""))</f>
         <v>multiple-neg</v>
       </c>
       <c r="C705" s="1">
@@ -66046,7 +66046,7 @@
         <v>729</v>
       </c>
       <c r="B706" s="1" t="str" cm="1">
-        <f t="array" ref="B706">_xlfn.TEXTJOIN(", ", TRUE, IF(C706:AC706=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B706">_xlfn.TEXTJOIN(", ", TRUE, IF(C706:AC706=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C706" s="1">
@@ -66136,7 +66136,7 @@
         <v>730</v>
       </c>
       <c r="B707" s="1" t="str" cm="1">
-        <f t="array" ref="B707">_xlfn.TEXTJOIN(", ", TRUE, IF(C707:AC707=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B707">_xlfn.TEXTJOIN(", ", TRUE, IF(C707:AC707=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C707" s="1">
@@ -66226,7 +66226,7 @@
         <v>731</v>
       </c>
       <c r="B708" s="1" t="str" cm="1">
-        <f t="array" ref="B708">_xlfn.TEXTJOIN(", ", TRUE, IF(C708:AC708=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B708">_xlfn.TEXTJOIN(", ", TRUE, IF(C708:AC708=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C708" s="1">
@@ -66316,7 +66316,7 @@
         <v>732</v>
       </c>
       <c r="B709" s="1" t="str" cm="1">
-        <f t="array" ref="B709">_xlfn.TEXTJOIN(", ", TRUE, IF(C709:AC709=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B709">_xlfn.TEXTJOIN(", ", TRUE, IF(C709:AC709=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C709" s="1">
@@ -66406,7 +66406,7 @@
         <v>733</v>
       </c>
       <c r="B710" s="1" t="str" cm="1">
-        <f t="array" ref="B710">_xlfn.TEXTJOIN(", ", TRUE, IF(C710:AC710=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B710">_xlfn.TEXTJOIN(", ", TRUE, IF(C710:AC710=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C710" s="1">
@@ -66496,7 +66496,7 @@
         <v>734</v>
       </c>
       <c r="B711" s="1" t="str" cm="1">
-        <f t="array" ref="B711">_xlfn.TEXTJOIN(", ", TRUE, IF(C711:AC711=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B711">_xlfn.TEXTJOIN(", ", TRUE, IF(C711:AC711=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C711" s="1">
@@ -66586,7 +66586,7 @@
         <v>735</v>
       </c>
       <c r="B712" s="1" t="str" cm="1">
-        <f t="array" ref="B712">_xlfn.TEXTJOIN(", ", TRUE, IF(C712:AC712=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B712">_xlfn.TEXTJOIN(", ", TRUE, IF(C712:AC712=1, C$1:AC$1, ""))</f>
         <v>zero-3sg-pres-s</v>
       </c>
       <c r="C712" s="1">
@@ -66676,8 +66676,8 @@
         <v>736</v>
       </c>
       <c r="B713" s="1" t="str" cm="1">
-        <f t="array" ref="B713">_xlfn.TEXTJOIN(", ", TRUE, IF(C713:AC713=1, C$1:AB$1, ""))</f>
-        <v/>
+        <f t="array" ref="B713">_xlfn.TEXTJOIN(", ", TRUE, IF(C713:AC713=1, C$1:AC$1, ""))</f>
+        <v>existential-it</v>
       </c>
       <c r="C713" s="1">
         <v>0</v>
@@ -66734,7 +66734,7 @@
         <v>0</v>
       </c>
       <c r="U713" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V713" s="1">
         <v>0</v>
@@ -66766,7 +66766,7 @@
         <v>737</v>
       </c>
       <c r="B714" s="1" t="str" cm="1">
-        <f t="array" ref="B714">_xlfn.TEXTJOIN(", ", TRUE, IF(C714:AC714=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B714">_xlfn.TEXTJOIN(", ", TRUE, IF(C714:AC714=1, C$1:AC$1, ""))</f>
         <v>zero-copula</v>
       </c>
       <c r="C714" s="1">
@@ -66856,7 +66856,7 @@
         <v>738</v>
       </c>
       <c r="B715" s="1" t="str" cm="1">
-        <f t="array" ref="B715">_xlfn.TEXTJOIN(", ", TRUE, IF(C715:AC715=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B715">_xlfn.TEXTJOIN(", ", TRUE, IF(C715:AC715=1, C$1:AC$1, ""))</f>
         <v>bin</v>
       </c>
       <c r="C715" s="1">
@@ -66946,7 +66946,7 @@
         <v>739</v>
       </c>
       <c r="B716" s="1" t="str" cm="1">
-        <f t="array" ref="B716">_xlfn.TEXTJOIN(", ", TRUE, IF(C716:AC716=1, C$1:AB$1, ""))</f>
+        <f t="array" ref="B716">_xlfn.TEXTJOIN(", ", TRUE, IF(C716:AC716=1, C$1:AC$1, ""))</f>
         <v/>
       </c>
       <c r="C716" s="1">
@@ -67034,6 +67034,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -67064,7 +67065,7 @@
       </c>
       <c r="B2" s="4">
         <f>COUNTIFS(INDEX(Gold!$A$1:$AC867,0,MATCH(A2,Gold!$1:$1,0)),"1")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67073,7 +67074,7 @@
       </c>
       <c r="B3" s="4">
         <f>COUNTIFS(INDEX(Gold!$A$1:$AC868,0,MATCH(A3,Gold!$1:$1,0)),"1")</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67136,7 +67137,7 @@
       </c>
       <c r="B10" s="4">
         <f>COUNTIFS(INDEX(Gold!$A$1:$AC875,0,MATCH(A10,Gold!$1:$1,0)),"1")</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67163,7 +67164,7 @@
       </c>
       <c r="B13" s="4">
         <f>COUNTIFS(INDEX(Gold!$A$1:$AC878,0,MATCH(A13,Gold!$1:$1,0)),"1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67172,7 +67173,7 @@
       </c>
       <c r="B14" s="4">
         <f>COUNTIFS(INDEX(Gold!$A$1:$AC879,0,MATCH(A14,Gold!$1:$1,0)),"1")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67181,7 +67182,7 @@
       </c>
       <c r="B15" s="4">
         <f>COUNTIFS(INDEX(Gold!$A$1:$AC880,0,MATCH(A15,Gold!$1:$1,0)),"1")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67208,7 +67209,7 @@
       </c>
       <c r="B18" s="4">
         <f>COUNTIFS(INDEX(Gold!$A$1:$AC883,0,MATCH(A18,Gold!$1:$1,0)),"1")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67226,7 +67227,7 @@
       </c>
       <c r="B20" s="4">
         <f>COUNTIFS(INDEX(Gold!$A$1:$AC885,0,MATCH(A20,Gold!$1:$1,0)),"1")</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67244,7 +67245,7 @@
       </c>
       <c r="B22" s="4">
         <f>COUNTIFS(INDEX(Gold!$A$1:$AC887,0,MATCH(A22,Gold!$1:$1,0)),"1")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67271,7 +67272,7 @@
       </c>
       <c r="B25" s="4">
         <f>COUNTIFS(INDEX(Gold!$A$1:$AC890,0,MATCH(A25,Gold!$1:$1,0)),"1")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -67298,7 +67299,7 @@
       </c>
       <c r="B28" s="4">
         <f>COUNTIFS(INDEX(Gold!$A$1:$AC893,0,MATCH(A28,Gold!$1:$1,0)),"1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16384" spans="1:1" ht="14" x14ac:dyDescent="0.15">
